--- a/name/vnindex/20221230/VNINDEX_HOSE_5p_20221230.xlsx
+++ b/name/vnindex/20221230/VNINDEX_HOSE_5p_20221230.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:P129"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,13 +454,13 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1672391100000</v>
+        <v>1672391160000</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -469,48 +469,48 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>7140000</v>
+        <v>1190000</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="I2">
-        <v>7140000</v>
+        <v>1190000</v>
       </c>
       <c r="J2" t="str">
-        <v>2022-12-30T09:05:00.000Z</v>
+        <v>2022-12-30T09:06:00.000Z</v>
       </c>
       <c r="K2">
-        <v>7140000</v>
+        <v>1190000</v>
       </c>
       <c r="L2">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="M2">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="N2">
-        <v>7140000</v>
+        <v>1190000</v>
       </c>
       <c r="O2">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="P2">
-        <v>7140000</v>
+        <v>1190000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1672391400000</v>
+        <v>1672391280000</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -519,2642 +519,6342 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1190000</v>
+        <v>5950000</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I3">
-        <v>1190000</v>
+        <v>5950000</v>
       </c>
       <c r="J3" t="str">
-        <v>2022-12-30T09:10:00.000Z</v>
+        <v>2022-12-30T09:08:00.000Z</v>
       </c>
       <c r="K3">
-        <v>8330000</v>
+        <v>7140000</v>
       </c>
       <c r="L3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N3">
-        <v>1190000</v>
+        <v>5950000</v>
       </c>
       <c r="O3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="P3">
-        <v>8330000</v>
+        <v>7140000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1672391700000</v>
+        <v>1672391640000</v>
       </c>
       <c r="B4">
-        <v>3231600</v>
+        <v>1389900</v>
       </c>
       <c r="C4">
-        <v>3635400</v>
+        <v>1306800</v>
       </c>
       <c r="D4">
-        <v>1807800</v>
+        <v>1782600</v>
       </c>
       <c r="E4">
-        <v>52387465000</v>
+        <v>18036987000</v>
       </c>
       <c r="F4">
-        <v>69929091000</v>
+        <v>23888650000</v>
       </c>
       <c r="G4">
-        <v>32462209000</v>
+        <v>31787288000</v>
       </c>
       <c r="H4">
-        <v>8674800</v>
+        <v>4479300</v>
       </c>
       <c r="I4">
-        <v>154778765000</v>
+        <v>73712925000</v>
       </c>
       <c r="J4" t="str">
-        <v>2022-12-30T09:15:00.000Z</v>
+        <v>2022-12-30T09:14:00.000Z</v>
       </c>
       <c r="K4">
-        <v>154787095000</v>
+        <v>73720065000</v>
       </c>
       <c r="L4">
-        <v>8675500</v>
+        <v>4479900</v>
       </c>
       <c r="M4">
-        <v>403800</v>
+        <v>-83100</v>
       </c>
       <c r="N4">
-        <v>17541626000</v>
+        <v>5851663000</v>
       </c>
       <c r="O4">
-        <v>404500</v>
+        <v>-82500</v>
       </c>
       <c r="P4">
-        <v>17549956000</v>
+        <v>5858803000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1672392000000</v>
+        <v>1672391760000</v>
       </c>
       <c r="B5">
-        <v>2487500</v>
+        <v>908000</v>
       </c>
       <c r="C5">
-        <v>2059800</v>
+        <v>1336100</v>
       </c>
       <c r="D5">
-        <v>46600</v>
+        <v>19000</v>
       </c>
       <c r="E5">
-        <v>40170031000</v>
+        <v>17891360000</v>
       </c>
       <c r="F5">
-        <v>43500775000</v>
+        <v>24629123000</v>
       </c>
       <c r="G5">
-        <v>661925000</v>
+        <v>422076000</v>
       </c>
       <c r="H5">
-        <v>4593900</v>
+        <v>2263100</v>
       </c>
       <c r="I5">
-        <v>84332731000</v>
+        <v>42942559000</v>
       </c>
       <c r="J5" t="str">
-        <v>2022-12-30T09:20:00.000Z</v>
+        <v>2022-12-30T09:16:00.000Z</v>
       </c>
       <c r="K5">
-        <v>239119826000</v>
+        <v>116662624000</v>
       </c>
       <c r="L5">
-        <v>13269400</v>
+        <v>6743000</v>
       </c>
       <c r="M5">
-        <v>-427700</v>
+        <v>428100</v>
       </c>
       <c r="N5">
-        <v>3330744000</v>
+        <v>6737763000</v>
       </c>
       <c r="O5">
-        <v>-23200</v>
+        <v>345600</v>
       </c>
       <c r="P5">
-        <v>20880700000</v>
+        <v>12596566000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1672392300000</v>
+        <v>1672391880000</v>
       </c>
       <c r="B6">
-        <v>2503100</v>
+        <v>933700</v>
       </c>
       <c r="C6">
-        <v>2614200</v>
+        <v>992600</v>
       </c>
       <c r="D6">
-        <v>19400</v>
+        <v>6200</v>
       </c>
       <c r="E6">
-        <v>40980995000</v>
+        <v>16459118000</v>
       </c>
       <c r="F6">
-        <v>46275305000</v>
+        <v>21412508000</v>
       </c>
       <c r="G6">
-        <v>116013000</v>
+        <v>252845000</v>
       </c>
       <c r="H6">
-        <v>5136700</v>
+        <v>1932500</v>
       </c>
       <c r="I6">
-        <v>87372313000</v>
+        <v>38124471000</v>
       </c>
       <c r="J6" t="str">
-        <v>2022-12-30T09:25:00.000Z</v>
+        <v>2022-12-30T09:18:00.000Z</v>
       </c>
       <c r="K6">
-        <v>326492139000</v>
+        <v>154787095000</v>
       </c>
       <c r="L6">
-        <v>18406100</v>
+        <v>8675500</v>
       </c>
       <c r="M6">
-        <v>111100</v>
+        <v>58900</v>
       </c>
       <c r="N6">
-        <v>5294310000</v>
+        <v>4953390000</v>
       </c>
       <c r="O6">
-        <v>87900</v>
+        <v>404500</v>
       </c>
       <c r="P6">
-        <v>26175010000</v>
+        <v>17549956000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1672392600000</v>
+        <v>1672392000000</v>
       </c>
       <c r="B7">
-        <v>2078400</v>
+        <v>1005100</v>
       </c>
       <c r="C7">
-        <v>1583500</v>
+        <v>668700</v>
       </c>
       <c r="D7">
-        <v>16800</v>
+        <v>27300</v>
       </c>
       <c r="E7">
-        <v>33459707000</v>
+        <v>16226543000</v>
       </c>
       <c r="F7">
-        <v>33069878000</v>
+        <v>13231641000</v>
       </c>
       <c r="G7">
-        <v>331318000</v>
+        <v>323414000</v>
       </c>
       <c r="H7">
-        <v>3678700</v>
+        <v>1701100</v>
       </c>
       <c r="I7">
-        <v>66860903000</v>
+        <v>29781598000</v>
       </c>
       <c r="J7" t="str">
-        <v>2022-12-30T09:30:00.000Z</v>
+        <v>2022-12-30T09:20:00.000Z</v>
       </c>
       <c r="K7">
-        <v>393353042000</v>
+        <v>184568693000</v>
       </c>
       <c r="L7">
-        <v>22084800</v>
+        <v>10376600</v>
       </c>
       <c r="M7">
-        <v>-494900</v>
+        <v>-336400</v>
       </c>
       <c r="N7">
-        <v>-389829000</v>
+        <v>-2994902000</v>
       </c>
       <c r="O7">
-        <v>-407000</v>
+        <v>68100</v>
       </c>
       <c r="P7">
-        <v>25785181000</v>
+        <v>14555054000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1672392900000</v>
+        <v>1672392120000</v>
       </c>
       <c r="B8">
-        <v>1693600</v>
+        <v>970900</v>
       </c>
       <c r="C8">
-        <v>1860700</v>
+        <v>939900</v>
       </c>
       <c r="D8">
-        <v>17500</v>
+        <v>12400</v>
       </c>
       <c r="E8">
-        <v>25836080000</v>
+        <v>13656569000</v>
       </c>
       <c r="F8">
-        <v>35772260000</v>
+        <v>19750548000</v>
       </c>
       <c r="G8">
-        <v>202721000</v>
+        <v>231492000</v>
       </c>
       <c r="H8">
-        <v>3571800</v>
+        <v>1923200</v>
       </c>
       <c r="I8">
-        <v>61811061000</v>
+        <v>33638609000</v>
       </c>
       <c r="J8" t="str">
-        <v>2022-12-30T09:35:00.000Z</v>
+        <v>2022-12-30T09:22:00.000Z</v>
       </c>
       <c r="K8">
-        <v>455164103000</v>
+        <v>218207302000</v>
       </c>
       <c r="L8">
-        <v>25656600</v>
+        <v>12299800</v>
       </c>
       <c r="M8">
-        <v>167100</v>
+        <v>-31000</v>
       </c>
       <c r="N8">
-        <v>9936180000</v>
+        <v>6093979000</v>
       </c>
       <c r="O8">
-        <v>-239900</v>
+        <v>37100</v>
       </c>
       <c r="P8">
-        <v>35721361000</v>
+        <v>20649033000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1672393200000</v>
+        <v>1672392240000</v>
       </c>
       <c r="B9">
-        <v>2368000</v>
+        <v>887400</v>
       </c>
       <c r="C9">
-        <v>1575100</v>
+        <v>1436700</v>
       </c>
       <c r="D9">
-        <v>23700</v>
+        <v>22200</v>
       </c>
       <c r="E9">
-        <v>37705268000</v>
+        <v>16170542000</v>
       </c>
       <c r="F9">
-        <v>31856646000</v>
+        <v>27874928000</v>
       </c>
       <c r="G9">
-        <v>554494000</v>
+        <v>151938000</v>
       </c>
       <c r="H9">
-        <v>3966800</v>
+        <v>2346300</v>
       </c>
       <c r="I9">
-        <v>70116408000</v>
+        <v>44197408000</v>
       </c>
       <c r="J9" t="str">
-        <v>2022-12-30T09:40:00.000Z</v>
+        <v>2022-12-30T09:24:00.000Z</v>
       </c>
       <c r="K9">
-        <v>525280511000</v>
+        <v>262404710000</v>
       </c>
       <c r="L9">
-        <v>29623400</v>
+        <v>14646100</v>
       </c>
       <c r="M9">
-        <v>-792900</v>
+        <v>549300</v>
       </c>
       <c r="N9">
-        <v>-5848622000</v>
+        <v>11704386000</v>
       </c>
       <c r="O9">
-        <v>-1032800</v>
+        <v>586400</v>
       </c>
       <c r="P9">
-        <v>29872739000</v>
+        <v>32353419000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1672393500000</v>
+        <v>1672392360000</v>
       </c>
       <c r="B10">
-        <v>2178200</v>
+        <v>1099300</v>
       </c>
       <c r="C10">
-        <v>1087500</v>
+        <v>859500</v>
       </c>
       <c r="D10">
-        <v>29200</v>
+        <v>4000</v>
       </c>
       <c r="E10">
-        <v>32836022000</v>
+        <v>18342168000</v>
       </c>
       <c r="F10">
-        <v>19859274000</v>
+        <v>15372107000</v>
       </c>
       <c r="G10">
-        <v>653373000</v>
+        <v>69849000</v>
       </c>
       <c r="H10">
-        <v>3294900</v>
+        <v>1962800</v>
       </c>
       <c r="I10">
-        <v>53348669000</v>
+        <v>33784124000</v>
       </c>
       <c r="J10" t="str">
-        <v>2022-12-30T09:45:00.000Z</v>
+        <v>2022-12-30T09:26:00.000Z</v>
       </c>
       <c r="K10">
-        <v>578629180000</v>
+        <v>296188834000</v>
       </c>
       <c r="L10">
-        <v>32918300</v>
+        <v>16608900</v>
       </c>
       <c r="M10">
-        <v>-1090700</v>
+        <v>-239800</v>
       </c>
       <c r="N10">
-        <v>-12976748000</v>
+        <v>-2970061000</v>
       </c>
       <c r="O10">
-        <v>-2123500</v>
+        <v>346600</v>
       </c>
       <c r="P10">
-        <v>16895991000</v>
+        <v>29383358000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1672393800000</v>
+        <v>1672392480000</v>
       </c>
       <c r="B11">
-        <v>2688000</v>
+        <v>1027900</v>
       </c>
       <c r="C11">
-        <v>1587600</v>
+        <v>769200</v>
       </c>
       <c r="D11">
-        <v>36600</v>
+        <v>100</v>
       </c>
       <c r="E11">
-        <v>41891663000</v>
+        <v>16755204000</v>
       </c>
       <c r="F11">
-        <v>30408702000</v>
+        <v>13546856000</v>
       </c>
       <c r="G11">
-        <v>695974000</v>
+        <v>1245000</v>
       </c>
       <c r="H11">
-        <v>4312200</v>
+        <v>1797200</v>
       </c>
       <c r="I11">
-        <v>72996339000</v>
+        <v>30303305000</v>
       </c>
       <c r="J11" t="str">
-        <v>2022-12-30T09:50:00.000Z</v>
+        <v>2022-12-30T09:28:00.000Z</v>
       </c>
       <c r="K11">
-        <v>651625519000</v>
+        <v>326492139000</v>
       </c>
       <c r="L11">
-        <v>37230500</v>
+        <v>18406100</v>
       </c>
       <c r="M11">
-        <v>-1100400</v>
+        <v>-258700</v>
       </c>
       <c r="N11">
-        <v>-11482961000</v>
+        <v>-3208348000</v>
       </c>
       <c r="O11">
-        <v>-3223900</v>
+        <v>87900</v>
       </c>
       <c r="P11">
-        <v>5413030000</v>
+        <v>26175010000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1672394100000</v>
+        <v>1672392600000</v>
       </c>
       <c r="B12">
-        <v>1179900</v>
+        <v>917900</v>
       </c>
       <c r="C12">
-        <v>1348100</v>
+        <v>718500</v>
       </c>
       <c r="D12">
-        <v>14700</v>
+        <v>8300</v>
       </c>
       <c r="E12">
-        <v>20907150000</v>
+        <v>14577795000</v>
       </c>
       <c r="F12">
-        <v>24837147000</v>
+        <v>14045692000</v>
       </c>
       <c r="G12">
-        <v>226202000</v>
+        <v>122311000</v>
       </c>
       <c r="H12">
-        <v>2542700</v>
+        <v>1644700</v>
       </c>
       <c r="I12">
-        <v>45970499000</v>
+        <v>28745798000</v>
       </c>
       <c r="J12" t="str">
-        <v>2022-12-30T09:55:00.000Z</v>
+        <v>2022-12-30T09:30:00.000Z</v>
       </c>
       <c r="K12">
-        <v>697596018000</v>
+        <v>355237937000</v>
       </c>
       <c r="L12">
-        <v>39773200</v>
+        <v>20050800</v>
       </c>
       <c r="M12">
-        <v>168200</v>
+        <v>-199400</v>
       </c>
       <c r="N12">
-        <v>3929997000</v>
+        <v>-532103000</v>
       </c>
       <c r="O12">
-        <v>-3055700</v>
+        <v>-111500</v>
       </c>
       <c r="P12">
-        <v>9343027000</v>
+        <v>25642907000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1672394400000</v>
+        <v>1672392720000</v>
       </c>
       <c r="B13">
-        <v>1705400</v>
+        <v>832700</v>
       </c>
       <c r="C13">
-        <v>1191600</v>
+        <v>557000</v>
       </c>
       <c r="D13">
-        <v>24800</v>
+        <v>1500</v>
       </c>
       <c r="E13">
-        <v>28350253000</v>
+        <v>13408811000</v>
       </c>
       <c r="F13">
-        <v>29454368000</v>
+        <v>10650637000</v>
       </c>
       <c r="G13">
-        <v>485532000</v>
+        <v>18707000</v>
       </c>
       <c r="H13">
-        <v>2921800</v>
+        <v>1391200</v>
       </c>
       <c r="I13">
-        <v>58290153000</v>
+        <v>24078155000</v>
       </c>
       <c r="J13" t="str">
-        <v>2022-12-30T10:00:00.000Z</v>
+        <v>2022-12-30T09:32:00.000Z</v>
       </c>
       <c r="K13">
-        <v>755886171000</v>
+        <v>379316092000</v>
       </c>
       <c r="L13">
-        <v>42695000</v>
+        <v>21442000</v>
       </c>
       <c r="M13">
-        <v>-513800</v>
+        <v>-275700</v>
       </c>
       <c r="N13">
-        <v>1104115000</v>
+        <v>-2758174000</v>
       </c>
       <c r="O13">
-        <v>-3569500</v>
+        <v>-387200</v>
       </c>
       <c r="P13">
-        <v>10447142000</v>
+        <v>22884733000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1672394700000</v>
+        <v>1672392840000</v>
       </c>
       <c r="B14">
-        <v>3307100</v>
+        <v>798500</v>
       </c>
       <c r="C14">
-        <v>871800</v>
+        <v>564000</v>
       </c>
       <c r="D14">
-        <v>33200</v>
+        <v>18300</v>
       </c>
       <c r="E14">
-        <v>44639618000</v>
+        <v>12083193000</v>
       </c>
       <c r="F14">
-        <v>16534353000</v>
+        <v>13840919000</v>
       </c>
       <c r="G14">
-        <v>611789000</v>
+        <v>314044000</v>
       </c>
       <c r="H14">
-        <v>4212100</v>
+        <v>1380800</v>
       </c>
       <c r="I14">
-        <v>61785760000</v>
+        <v>26238156000</v>
       </c>
       <c r="J14" t="str">
-        <v>2022-12-30T10:05:00.000Z</v>
+        <v>2022-12-30T09:34:00.000Z</v>
       </c>
       <c r="K14">
-        <v>817671931000</v>
+        <v>405554248000</v>
       </c>
       <c r="L14">
-        <v>46907100</v>
+        <v>22822800</v>
       </c>
       <c r="M14">
-        <v>-2435300</v>
+        <v>-234500</v>
       </c>
       <c r="N14">
-        <v>-28105265000</v>
+        <v>1757726000</v>
       </c>
       <c r="O14">
-        <v>-6004800</v>
+        <v>-621700</v>
       </c>
       <c r="P14">
-        <v>-17658123000</v>
+        <v>24642459000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1672395000000</v>
+        <v>1672392960000</v>
       </c>
       <c r="B15">
-        <v>1723100</v>
+        <v>672500</v>
       </c>
       <c r="C15">
-        <v>999900</v>
+        <v>876500</v>
       </c>
       <c r="D15">
-        <v>10600</v>
+        <v>2900</v>
       </c>
       <c r="E15">
-        <v>23923723000</v>
+        <v>9423966000</v>
       </c>
       <c r="F15">
-        <v>17345693000</v>
+        <v>14143884000</v>
       </c>
       <c r="G15">
-        <v>158298000</v>
+        <v>34053000</v>
       </c>
       <c r="H15">
-        <v>2733600</v>
+        <v>1551900</v>
       </c>
       <c r="I15">
-        <v>41427714000</v>
+        <v>23601903000</v>
       </c>
       <c r="J15" t="str">
-        <v>2022-12-30T10:10:00.000Z</v>
+        <v>2022-12-30T09:36:00.000Z</v>
       </c>
       <c r="K15">
-        <v>859099645000</v>
+        <v>429156151000</v>
       </c>
       <c r="L15">
-        <v>49640700</v>
+        <v>24374700</v>
       </c>
       <c r="M15">
-        <v>-723200</v>
+        <v>204000</v>
       </c>
       <c r="N15">
-        <v>-6578030000</v>
+        <v>4719918000</v>
       </c>
       <c r="O15">
-        <v>-6728000</v>
+        <v>-417700</v>
       </c>
       <c r="P15">
-        <v>-24236153000</v>
+        <v>29362377000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1672395300000</v>
+        <v>1672393080000</v>
       </c>
       <c r="B16">
-        <v>1296800</v>
+        <v>550400</v>
       </c>
       <c r="C16">
-        <v>1166000</v>
+        <v>728200</v>
       </c>
       <c r="D16">
-        <v>13300</v>
+        <v>3300</v>
       </c>
       <c r="E16">
-        <v>23323823000</v>
+        <v>9802022000</v>
       </c>
       <c r="F16">
-        <v>19700647000</v>
+        <v>16161006000</v>
       </c>
       <c r="G16">
-        <v>191226000</v>
+        <v>44924000</v>
       </c>
       <c r="H16">
-        <v>2476100</v>
+        <v>1281900</v>
       </c>
       <c r="I16">
-        <v>43215696000</v>
+        <v>26007952000</v>
       </c>
       <c r="J16" t="str">
-        <v>2022-12-30T10:15:00.000Z</v>
+        <v>2022-12-30T09:38:00.000Z</v>
       </c>
       <c r="K16">
-        <v>902315341000</v>
+        <v>455164103000</v>
       </c>
       <c r="L16">
-        <v>52116800</v>
+        <v>25656600</v>
       </c>
       <c r="M16">
-        <v>-130800</v>
+        <v>177800</v>
       </c>
       <c r="N16">
-        <v>-3623176000</v>
+        <v>6358984000</v>
       </c>
       <c r="O16">
-        <v>-6858800</v>
+        <v>-239900</v>
       </c>
       <c r="P16">
-        <v>-27859329000</v>
+        <v>35721361000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1672395600000</v>
+        <v>1672393200000</v>
       </c>
       <c r="B17">
-        <v>1087400</v>
+        <v>513800</v>
       </c>
       <c r="C17">
-        <v>1727000</v>
+        <v>698800</v>
       </c>
       <c r="D17">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="E17">
-        <v>17806358000</v>
+        <v>7953625000</v>
       </c>
       <c r="F17">
-        <v>30461358000</v>
+        <v>13625898000</v>
       </c>
       <c r="G17">
-        <v>116098000</v>
+        <v>59124000</v>
       </c>
       <c r="H17">
-        <v>2820400</v>
+        <v>1218400</v>
       </c>
       <c r="I17">
-        <v>48383814000</v>
+        <v>21638647000</v>
       </c>
       <c r="J17" t="str">
-        <v>2022-12-30T10:20:00.000Z</v>
+        <v>2022-12-30T09:40:00.000Z</v>
       </c>
       <c r="K17">
-        <v>950699155000</v>
+        <v>476802750000</v>
       </c>
       <c r="L17">
-        <v>54937200</v>
+        <v>26875000</v>
       </c>
       <c r="M17">
-        <v>639600</v>
+        <v>185000</v>
       </c>
       <c r="N17">
-        <v>12655000000</v>
+        <v>5672273000</v>
       </c>
       <c r="O17">
-        <v>-6219200</v>
+        <v>-54900</v>
       </c>
       <c r="P17">
-        <v>-15204329000</v>
+        <v>41393634000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1672395900000</v>
+        <v>1672393320000</v>
       </c>
       <c r="B18">
-        <v>783900</v>
+        <v>1128600</v>
       </c>
       <c r="C18">
-        <v>2147800</v>
+        <v>621700</v>
       </c>
       <c r="D18">
-        <v>2400</v>
+        <v>12700</v>
       </c>
       <c r="E18">
-        <v>19587917000</v>
+        <v>18655716000</v>
       </c>
       <c r="F18">
-        <v>37561342000</v>
+        <v>13605268000</v>
       </c>
       <c r="G18">
-        <v>11664000</v>
+        <v>282695000</v>
       </c>
       <c r="H18">
-        <v>2934100</v>
+        <v>1763000</v>
       </c>
       <c r="I18">
-        <v>57160923000</v>
+        <v>32543679000</v>
       </c>
       <c r="J18" t="str">
-        <v>2022-12-30T10:25:00.000Z</v>
+        <v>2022-12-30T09:42:00.000Z</v>
       </c>
       <c r="K18">
-        <v>1007860078000</v>
+        <v>509346429000</v>
       </c>
       <c r="L18">
-        <v>57871300</v>
+        <v>28638000</v>
       </c>
       <c r="M18">
-        <v>1363900</v>
+        <v>-506900</v>
       </c>
       <c r="N18">
-        <v>17973425000</v>
+        <v>-5050448000</v>
       </c>
       <c r="O18">
-        <v>-4855300</v>
+        <v>-561800</v>
       </c>
       <c r="P18">
-        <v>2769096000</v>
+        <v>36343186000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1672396200000</v>
+        <v>1672393440000</v>
       </c>
       <c r="B19">
-        <v>1273200</v>
+        <v>1118200</v>
       </c>
       <c r="C19">
-        <v>2259700</v>
+        <v>520700</v>
       </c>
       <c r="D19">
-        <v>63800</v>
+        <v>29600</v>
       </c>
       <c r="E19">
-        <v>22849008000</v>
+        <v>17396064000</v>
       </c>
       <c r="F19">
-        <v>41351341000</v>
+        <v>9772300000</v>
       </c>
       <c r="G19">
-        <v>816019000</v>
+        <v>801630000</v>
       </c>
       <c r="H19">
-        <v>3596700</v>
+        <v>1668500</v>
       </c>
       <c r="I19">
-        <v>65016368000</v>
+        <v>27969994000</v>
       </c>
       <c r="J19" t="str">
-        <v>2022-12-30T10:30:00.000Z</v>
+        <v>2022-12-30T09:44:00.000Z</v>
       </c>
       <c r="K19">
-        <v>1072876446000</v>
+        <v>537316423000</v>
       </c>
       <c r="L19">
-        <v>61468000</v>
+        <v>30306500</v>
       </c>
       <c r="M19">
-        <v>986500</v>
+        <v>-597500</v>
       </c>
       <c r="N19">
-        <v>18502333000</v>
+        <v>-7623764000</v>
       </c>
       <c r="O19">
-        <v>-3868800</v>
+        <v>-1159300</v>
       </c>
       <c r="P19">
-        <v>21271429000</v>
+        <v>28719422000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1672396500000</v>
+        <v>1672393560000</v>
       </c>
       <c r="B20">
-        <v>919900</v>
+        <v>950700</v>
       </c>
       <c r="C20">
-        <v>2534000</v>
+        <v>338400</v>
       </c>
       <c r="D20">
-        <v>18200</v>
+        <v>4300</v>
       </c>
       <c r="E20">
-        <v>16281888000</v>
+        <v>13269582000</v>
       </c>
       <c r="F20">
-        <v>42975217000</v>
+        <v>6825916000</v>
       </c>
       <c r="G20">
-        <v>451281000</v>
+        <v>59888000</v>
       </c>
       <c r="H20">
-        <v>3472100</v>
+        <v>1293400</v>
       </c>
       <c r="I20">
-        <v>59708386000</v>
+        <v>20155386000</v>
       </c>
       <c r="J20" t="str">
-        <v>2022-12-30T10:35:00.000Z</v>
+        <v>2022-12-30T09:46:00.000Z</v>
       </c>
       <c r="K20">
-        <v>1132584832000</v>
+        <v>557471809000</v>
       </c>
       <c r="L20">
-        <v>64940100</v>
+        <v>31599900</v>
       </c>
       <c r="M20">
-        <v>1614100</v>
+        <v>-612300</v>
       </c>
       <c r="N20">
-        <v>26693329000</v>
+        <v>-6443666000</v>
       </c>
       <c r="O20">
-        <v>-2254700</v>
+        <v>-1771600</v>
       </c>
       <c r="P20">
-        <v>47964758000</v>
+        <v>22275756000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1672396800000</v>
+        <v>1672393680000</v>
       </c>
       <c r="B21">
-        <v>1110400</v>
+        <v>834900</v>
       </c>
       <c r="C21">
-        <v>1993600</v>
+        <v>483000</v>
       </c>
       <c r="D21">
-        <v>34900</v>
+        <v>500</v>
       </c>
       <c r="E21">
-        <v>18923075000</v>
+        <v>13266303000</v>
       </c>
       <c r="F21">
-        <v>32492989000</v>
+        <v>7886538000</v>
       </c>
       <c r="G21">
-        <v>300925000</v>
+        <v>4530000</v>
       </c>
       <c r="H21">
-        <v>3138900</v>
+        <v>1318400</v>
       </c>
       <c r="I21">
-        <v>51716989000</v>
+        <v>21157371000</v>
       </c>
       <c r="J21" t="str">
-        <v>2022-12-30T10:40:00.000Z</v>
+        <v>2022-12-30T09:48:00.000Z</v>
       </c>
       <c r="K21">
-        <v>1184301821000</v>
+        <v>578629180000</v>
       </c>
       <c r="L21">
-        <v>68079000</v>
+        <v>32918300</v>
       </c>
       <c r="M21">
-        <v>883200</v>
+        <v>-351900</v>
       </c>
       <c r="N21">
-        <v>13569914000</v>
+        <v>-5379765000</v>
       </c>
       <c r="O21">
-        <v>-1371500</v>
+        <v>-2123500</v>
       </c>
       <c r="P21">
-        <v>61534672000</v>
+        <v>16895991000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1672397100000</v>
+        <v>1672393800000</v>
       </c>
       <c r="B22">
-        <v>3415900</v>
+        <v>1255500</v>
       </c>
       <c r="C22">
-        <v>1375200</v>
+        <v>559100</v>
       </c>
       <c r="D22">
-        <v>27200</v>
+        <v>29100</v>
       </c>
       <c r="E22">
-        <v>63799182000</v>
+        <v>19152769000</v>
       </c>
       <c r="F22">
-        <v>25195185000</v>
+        <v>8801623000</v>
       </c>
       <c r="G22">
-        <v>500428000</v>
+        <v>398434000</v>
       </c>
       <c r="H22">
-        <v>4818300</v>
+        <v>1843700</v>
       </c>
       <c r="I22">
-        <v>89494795000</v>
+        <v>28352826000</v>
       </c>
       <c r="J22" t="str">
-        <v>2022-12-30T10:45:00.000Z</v>
+        <v>2022-12-30T09:50:00.000Z</v>
       </c>
       <c r="K22">
-        <v>1273796616000</v>
+        <v>606982006000</v>
       </c>
       <c r="L22">
-        <v>72897300</v>
+        <v>34762000</v>
       </c>
       <c r="M22">
-        <v>-2040700</v>
+        <v>-696400</v>
       </c>
       <c r="N22">
-        <v>-38603997000</v>
+        <v>-10351146000</v>
       </c>
       <c r="O22">
-        <v>-3412200</v>
+        <v>-2819900</v>
       </c>
       <c r="P22">
-        <v>22930675000</v>
+        <v>6544845000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1672397400000</v>
+        <v>1672393920000</v>
       </c>
       <c r="B23">
-        <v>2550000</v>
+        <v>1013900</v>
       </c>
       <c r="C23">
-        <v>638200</v>
+        <v>782400</v>
       </c>
       <c r="D23">
-        <v>8200</v>
+        <v>2500</v>
       </c>
       <c r="E23">
-        <v>40841794000</v>
+        <v>15615986000</v>
       </c>
       <c r="F23">
-        <v>12324555000</v>
+        <v>16715008000</v>
       </c>
       <c r="G23">
-        <v>122455000</v>
+        <v>36354000</v>
       </c>
       <c r="H23">
-        <v>3196400</v>
+        <v>1798800</v>
       </c>
       <c r="I23">
-        <v>53288804000</v>
+        <v>32367348000</v>
       </c>
       <c r="J23" t="str">
-        <v>2022-12-30T10:50:00.000Z</v>
+        <v>2022-12-30T09:52:00.000Z</v>
       </c>
       <c r="K23">
-        <v>1327085420000</v>
+        <v>639349354000</v>
       </c>
       <c r="L23">
-        <v>76093700</v>
+        <v>36560800</v>
       </c>
       <c r="M23">
-        <v>-1911800</v>
+        <v>-231500</v>
       </c>
       <c r="N23">
-        <v>-28517239000</v>
+        <v>1099022000</v>
       </c>
       <c r="O23">
-        <v>-5324000</v>
+        <v>-3051400</v>
       </c>
       <c r="P23">
-        <v>-5586564000</v>
+        <v>7643867000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1672397700000</v>
+        <v>1672394040000</v>
       </c>
       <c r="B24">
-        <v>1114600</v>
+        <v>784900</v>
       </c>
       <c r="C24">
-        <v>1462100</v>
+        <v>595700</v>
       </c>
       <c r="D24">
-        <v>2500</v>
+        <v>8600</v>
       </c>
       <c r="E24">
-        <v>16361772000</v>
+        <v>13035259000</v>
       </c>
       <c r="F24">
-        <v>24801242000</v>
+        <v>10920645000</v>
       </c>
       <c r="G24">
-        <v>60000000</v>
+        <v>288042000</v>
       </c>
       <c r="H24">
-        <v>2579200</v>
+        <v>1389200</v>
       </c>
       <c r="I24">
-        <v>41223014000</v>
+        <v>24243946000</v>
       </c>
       <c r="J24" t="str">
-        <v>2022-12-30T10:55:00.000Z</v>
+        <v>2022-12-30T09:54:00.000Z</v>
       </c>
       <c r="K24">
-        <v>1368308434000</v>
+        <v>663593300000</v>
       </c>
       <c r="L24">
-        <v>78672900</v>
+        <v>37950000</v>
       </c>
       <c r="M24">
-        <v>347500</v>
+        <v>-189200</v>
       </c>
       <c r="N24">
-        <v>8439470000</v>
+        <v>-2114614000</v>
       </c>
       <c r="O24">
-        <v>-4976500</v>
+        <v>-3240600</v>
       </c>
       <c r="P24">
-        <v>2852906000</v>
+        <v>5529253000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1672398000000</v>
+        <v>1672394160000</v>
       </c>
       <c r="B25">
-        <v>1089800</v>
+        <v>467000</v>
       </c>
       <c r="C25">
-        <v>1224700</v>
+        <v>559600</v>
       </c>
       <c r="D25">
-        <v>12800</v>
+        <v>6000</v>
       </c>
       <c r="E25">
-        <v>15941005000</v>
+        <v>8353504000</v>
       </c>
       <c r="F25">
-        <v>24007363000</v>
+        <v>10830444000</v>
       </c>
       <c r="G25">
-        <v>68640000</v>
+        <v>151350000</v>
       </c>
       <c r="H25">
-        <v>2327300</v>
+        <v>1032600</v>
       </c>
       <c r="I25">
-        <v>40017008000</v>
+        <v>19335298000</v>
       </c>
       <c r="J25" t="str">
-        <v>2022-12-30T11:00:00.000Z</v>
+        <v>2022-12-30T09:56:00.000Z</v>
       </c>
       <c r="K25">
-        <v>1408325442000</v>
+        <v>682928598000</v>
       </c>
       <c r="L25">
-        <v>81000200</v>
+        <v>38982600</v>
       </c>
       <c r="M25">
-        <v>134900</v>
+        <v>92600</v>
       </c>
       <c r="N25">
-        <v>8066358000</v>
+        <v>2476940000</v>
       </c>
       <c r="O25">
-        <v>-4841600</v>
+        <v>-3148000</v>
       </c>
       <c r="P25">
-        <v>10919264000</v>
+        <v>8006193000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1672398300000</v>
+        <v>1672394280000</v>
       </c>
       <c r="B26">
-        <v>1600400</v>
+        <v>346600</v>
       </c>
       <c r="C26">
-        <v>1331800</v>
+        <v>438900</v>
       </c>
       <c r="D26">
-        <v>27700</v>
+        <v>5100</v>
       </c>
       <c r="E26">
-        <v>26022461000</v>
+        <v>6641295000</v>
       </c>
       <c r="F26">
-        <v>24122918000</v>
+        <v>7978129000</v>
       </c>
       <c r="G26">
-        <v>257093000</v>
+        <v>47996000</v>
       </c>
       <c r="H26">
-        <v>2959900</v>
+        <v>790600</v>
       </c>
       <c r="I26">
-        <v>50402472000</v>
+        <v>14667420000</v>
       </c>
       <c r="J26" t="str">
-        <v>2022-12-30T11:05:00.000Z</v>
+        <v>2022-12-30T09:58:00.000Z</v>
       </c>
       <c r="K26">
-        <v>1458727914000</v>
+        <v>697596018000</v>
       </c>
       <c r="L26">
-        <v>83960100</v>
+        <v>39773200</v>
       </c>
       <c r="M26">
-        <v>-268600</v>
+        <v>92300</v>
       </c>
       <c r="N26">
-        <v>-1899543000</v>
+        <v>1336834000</v>
       </c>
       <c r="O26">
-        <v>-5110200</v>
+        <v>-3055700</v>
       </c>
       <c r="P26">
-        <v>9019721000</v>
+        <v>9343027000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1672398600000</v>
+        <v>1672394400000</v>
       </c>
       <c r="B27">
-        <v>1626100</v>
+        <v>451100</v>
       </c>
       <c r="C27">
-        <v>1852500</v>
+        <v>317500</v>
       </c>
       <c r="D27">
-        <v>12600</v>
+        <v>4500</v>
       </c>
       <c r="E27">
-        <v>22788071000</v>
+        <v>7389193000</v>
       </c>
       <c r="F27">
-        <v>34478608000</v>
+        <v>9246225000</v>
       </c>
       <c r="G27">
-        <v>445047000</v>
+        <v>48492000</v>
       </c>
       <c r="H27">
-        <v>3491200</v>
+        <v>773100</v>
       </c>
       <c r="I27">
-        <v>57711726000</v>
+        <v>16683910000</v>
       </c>
       <c r="J27" t="str">
-        <v>2022-12-30T11:10:00.000Z</v>
+        <v>2022-12-30T10:00:00.000Z</v>
       </c>
       <c r="K27">
-        <v>1516439640000</v>
+        <v>714279928000</v>
       </c>
       <c r="L27">
-        <v>87451300</v>
+        <v>40546300</v>
       </c>
       <c r="M27">
-        <v>226400</v>
+        <v>-133600</v>
       </c>
       <c r="N27">
-        <v>11690537000</v>
+        <v>1857032000</v>
       </c>
       <c r="O27">
-        <v>-4883800</v>
+        <v>-3189300</v>
       </c>
       <c r="P27">
-        <v>20710258000</v>
+        <v>11200059000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1672398900000</v>
+        <v>1672394520000</v>
       </c>
       <c r="B28">
-        <v>1648000</v>
+        <v>847400</v>
       </c>
       <c r="C28">
-        <v>3432900</v>
+        <v>599800</v>
       </c>
       <c r="D28">
-        <v>27400</v>
+        <v>20300</v>
       </c>
       <c r="E28">
-        <v>26948817000</v>
+        <v>13859452000</v>
       </c>
       <c r="F28">
-        <v>57912714000</v>
+        <v>15013424000</v>
       </c>
       <c r="G28">
-        <v>610927000</v>
+        <v>437040000</v>
       </c>
       <c r="H28">
-        <v>5108300</v>
+        <v>1467500</v>
       </c>
       <c r="I28">
-        <v>85472458000</v>
+        <v>29309916000</v>
       </c>
       <c r="J28" t="str">
-        <v>2022-12-30T11:15:00.000Z</v>
+        <v>2022-12-30T10:02:00.000Z</v>
       </c>
       <c r="K28">
-        <v>1601912098000</v>
+        <v>743589844000</v>
       </c>
       <c r="L28">
-        <v>92559600</v>
+        <v>42013800</v>
       </c>
       <c r="M28">
-        <v>1784900</v>
+        <v>-247600</v>
       </c>
       <c r="N28">
-        <v>30963897000</v>
+        <v>1153972000</v>
       </c>
       <c r="O28">
-        <v>-3098900</v>
+        <v>-3436900</v>
       </c>
       <c r="P28">
-        <v>51674155000</v>
+        <v>12354031000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1672399200000</v>
+        <v>1672394640000</v>
       </c>
       <c r="B29">
-        <v>1303500</v>
+        <v>1193000</v>
       </c>
       <c r="C29">
-        <v>3905900</v>
+        <v>421000</v>
       </c>
       <c r="D29">
-        <v>68500</v>
+        <v>3300</v>
       </c>
       <c r="E29">
-        <v>22347380000</v>
+        <v>17659613000</v>
       </c>
       <c r="F29">
-        <v>65165039000</v>
+        <v>8164260000</v>
       </c>
       <c r="G29">
-        <v>695732000</v>
+        <v>47355000</v>
       </c>
       <c r="H29">
-        <v>5277900</v>
+        <v>1617300</v>
       </c>
       <c r="I29">
-        <v>88208151000</v>
+        <v>25871228000</v>
       </c>
       <c r="J29" t="str">
-        <v>2022-12-30T11:20:00.000Z</v>
+        <v>2022-12-30T10:04:00.000Z</v>
       </c>
       <c r="K29">
-        <v>1690120249000</v>
+        <v>769461072000</v>
       </c>
       <c r="L29">
-        <v>97837500</v>
+        <v>43631100</v>
       </c>
       <c r="M29">
-        <v>2602400</v>
+        <v>-772000</v>
       </c>
       <c r="N29">
-        <v>42817659000</v>
+        <v>-9495353000</v>
       </c>
       <c r="O29">
-        <v>-496500</v>
+        <v>-4208900</v>
       </c>
       <c r="P29">
-        <v>94491814000</v>
+        <v>2858678000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1672399500000</v>
+        <v>1672394760000</v>
       </c>
       <c r="B30">
-        <v>1396200</v>
+        <v>1445400</v>
       </c>
       <c r="C30">
-        <v>2058600</v>
+        <v>338100</v>
       </c>
       <c r="D30">
-        <v>11700</v>
+        <v>25900</v>
       </c>
       <c r="E30">
-        <v>23008454000</v>
+        <v>19839575000</v>
       </c>
       <c r="F30">
-        <v>33827545000</v>
+        <v>5817260000</v>
       </c>
       <c r="G30">
-        <v>271638000</v>
+        <v>538696000</v>
       </c>
       <c r="H30">
-        <v>3466500</v>
+        <v>1809400</v>
       </c>
       <c r="I30">
-        <v>57107637000</v>
+        <v>26195531000</v>
       </c>
       <c r="J30" t="str">
-        <v>2022-12-30T11:25:00.000Z</v>
+        <v>2022-12-30T10:06:00.000Z</v>
       </c>
       <c r="K30">
-        <v>1747227886000</v>
+        <v>795656603000</v>
       </c>
       <c r="L30">
-        <v>101304000</v>
+        <v>45440500</v>
       </c>
       <c r="M30">
-        <v>662400</v>
+        <v>-1107300</v>
       </c>
       <c r="N30">
-        <v>10819091000</v>
+        <v>-14022315000</v>
       </c>
       <c r="O30">
-        <v>165900</v>
+        <v>-5316200</v>
       </c>
       <c r="P30">
-        <v>105310905000</v>
+        <v>-11163637000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1672399800000</v>
+        <v>1672394880000</v>
       </c>
       <c r="B31">
-        <v>1200</v>
+        <v>1075600</v>
       </c>
       <c r="C31">
-        <v>100</v>
+        <v>387000</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="E31">
-        <v>40169000</v>
+        <v>14242038000</v>
       </c>
       <c r="F31">
-        <v>1675000</v>
+        <v>7747552000</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>25738000</v>
       </c>
       <c r="H31">
-        <v>1300</v>
+        <v>1466600</v>
       </c>
       <c r="I31">
-        <v>41844000</v>
+        <v>22015328000</v>
       </c>
       <c r="J31" t="str">
-        <v>2022-12-30T11:30:00.000Z</v>
+        <v>2022-12-30T10:08:00.000Z</v>
       </c>
       <c r="K31">
-        <v>1747269730000</v>
+        <v>817671931000</v>
       </c>
       <c r="L31">
-        <v>101305300</v>
+        <v>46907100</v>
       </c>
       <c r="M31">
-        <v>-1100</v>
+        <v>-688600</v>
       </c>
       <c r="N31">
-        <v>-38494000</v>
+        <v>-6494486000</v>
       </c>
       <c r="O31">
-        <v>164800</v>
+        <v>-6004800</v>
       </c>
       <c r="P31">
-        <v>105272411000</v>
+        <v>-17658123000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1672405200000</v>
+        <v>1672395000000</v>
       </c>
       <c r="B32">
-        <v>5140700</v>
+        <v>760700</v>
       </c>
       <c r="C32">
-        <v>3362900</v>
+        <v>320700</v>
       </c>
       <c r="D32">
-        <v>225600</v>
+        <v>9200</v>
       </c>
       <c r="E32">
-        <v>75841957000</v>
+        <v>10009112000</v>
       </c>
       <c r="F32">
-        <v>49039768000</v>
+        <v>5793785000</v>
       </c>
       <c r="G32">
-        <v>2738765000</v>
+        <v>149661000</v>
       </c>
       <c r="H32">
-        <v>8729200</v>
+        <v>1090600</v>
       </c>
       <c r="I32">
-        <v>127620490000</v>
+        <v>15952558000</v>
       </c>
       <c r="J32" t="str">
-        <v>2022-12-30T13:00:00.000Z</v>
+        <v>2022-12-30T10:10:00.000Z</v>
       </c>
       <c r="K32">
-        <v>1874890220000</v>
+        <v>833624489000</v>
       </c>
       <c r="L32">
-        <v>110034500</v>
+        <v>47997700</v>
       </c>
       <c r="M32">
-        <v>-1777800</v>
+        <v>-440000</v>
       </c>
       <c r="N32">
-        <v>-26802189000</v>
+        <v>-4215327000</v>
       </c>
       <c r="O32">
-        <v>-1613000</v>
+        <v>-6444800</v>
       </c>
       <c r="P32">
-        <v>78470222000</v>
+        <v>-21873450000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1672405500000</v>
+        <v>1672395120000</v>
       </c>
       <c r="B33">
-        <v>3166300</v>
+        <v>802900</v>
       </c>
       <c r="C33">
-        <v>2342400</v>
+        <v>465500</v>
       </c>
       <c r="D33">
-        <v>23700</v>
+        <v>1400</v>
       </c>
       <c r="E33">
-        <v>43847339000</v>
+        <v>11603241000</v>
       </c>
       <c r="F33">
-        <v>42179996000</v>
+        <v>7841781000</v>
       </c>
       <c r="G33">
-        <v>621925000</v>
+        <v>8637000</v>
       </c>
       <c r="H33">
-        <v>5532400</v>
+        <v>1269800</v>
       </c>
       <c r="I33">
-        <v>86649260000</v>
+        <v>19453659000</v>
       </c>
       <c r="J33" t="str">
-        <v>2022-12-30T13:05:00.000Z</v>
+        <v>2022-12-30T10:12:00.000Z</v>
       </c>
       <c r="K33">
-        <v>1961539480000</v>
+        <v>853078148000</v>
       </c>
       <c r="L33">
-        <v>115566900</v>
+        <v>49267500</v>
       </c>
       <c r="M33">
-        <v>-823900</v>
+        <v>-337400</v>
       </c>
       <c r="N33">
-        <v>-1667343000</v>
+        <v>-3761460000</v>
       </c>
       <c r="O33">
-        <v>-2436900</v>
+        <v>-6782200</v>
       </c>
       <c r="P33">
-        <v>76802879000</v>
+        <v>-25634910000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1672405800000</v>
+        <v>1672395240000</v>
       </c>
       <c r="B34">
-        <v>2859400</v>
+        <v>427900</v>
       </c>
       <c r="C34">
-        <v>3221100</v>
+        <v>320300</v>
       </c>
       <c r="D34">
-        <v>27100</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>42539705000</v>
+        <v>7016660000</v>
       </c>
       <c r="F34">
-        <v>43100506000</v>
+        <v>6689070000</v>
       </c>
       <c r="G34">
-        <v>582461000</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>6107600</v>
+        <v>748200</v>
       </c>
       <c r="I34">
-        <v>86222672000</v>
+        <v>13705730000</v>
       </c>
       <c r="J34" t="str">
-        <v>2022-12-30T13:10:00.000Z</v>
+        <v>2022-12-30T10:14:00.000Z</v>
       </c>
       <c r="K34">
-        <v>2047762152000</v>
+        <v>866783878000</v>
       </c>
       <c r="L34">
-        <v>121674500</v>
+        <v>50015700</v>
       </c>
       <c r="M34">
-        <v>361700</v>
+        <v>-107600</v>
       </c>
       <c r="N34">
-        <v>560801000</v>
+        <v>-327590000</v>
       </c>
       <c r="O34">
-        <v>-2075200</v>
+        <v>-6889800</v>
       </c>
       <c r="P34">
-        <v>77363680000</v>
+        <v>-25962500000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1672406100000</v>
+        <v>1672395360000</v>
       </c>
       <c r="B35">
-        <v>3233700</v>
+        <v>526900</v>
       </c>
       <c r="C35">
-        <v>1559500</v>
+        <v>671200</v>
       </c>
       <c r="D35">
-        <v>21500</v>
+        <v>100</v>
       </c>
       <c r="E35">
-        <v>44528962000</v>
+        <v>8851093000</v>
       </c>
       <c r="F35">
-        <v>25324775000</v>
+        <v>10575148000</v>
       </c>
       <c r="G35">
-        <v>306910000</v>
+        <v>1190000</v>
       </c>
       <c r="H35">
-        <v>4814700</v>
+        <v>1198200</v>
       </c>
       <c r="I35">
-        <v>70160647000</v>
+        <v>19427431000</v>
       </c>
       <c r="J35" t="str">
-        <v>2022-12-30T13:15:00.000Z</v>
+        <v>2022-12-30T10:16:00.000Z</v>
       </c>
       <c r="K35">
-        <v>2117922799000</v>
+        <v>886211309000</v>
       </c>
       <c r="L35">
-        <v>126489200</v>
+        <v>51213900</v>
       </c>
       <c r="M35">
-        <v>-1674200</v>
+        <v>144300</v>
       </c>
       <c r="N35">
-        <v>-19204187000</v>
+        <v>1724055000</v>
       </c>
       <c r="O35">
-        <v>-3749400</v>
+        <v>-6745500</v>
       </c>
       <c r="P35">
-        <v>58159493000</v>
+        <v>-24238445000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1672406400000</v>
+        <v>1672395480000</v>
       </c>
       <c r="B36">
-        <v>3191100</v>
+        <v>501500</v>
       </c>
       <c r="C36">
-        <v>2482500</v>
+        <v>388200</v>
       </c>
       <c r="D36">
-        <v>44000</v>
+        <v>13200</v>
       </c>
       <c r="E36">
-        <v>42725204000</v>
+        <v>9767440000</v>
       </c>
       <c r="F36">
-        <v>40964260000</v>
+        <v>6146556000</v>
       </c>
       <c r="G36">
-        <v>912760000</v>
+        <v>190036000</v>
       </c>
       <c r="H36">
-        <v>5717600</v>
+        <v>902900</v>
       </c>
       <c r="I36">
-        <v>84602224000</v>
+        <v>16104032000</v>
       </c>
       <c r="J36" t="str">
-        <v>2022-12-30T13:20:00.000Z</v>
+        <v>2022-12-30T10:18:00.000Z</v>
       </c>
       <c r="K36">
-        <v>2202525023000</v>
+        <v>902315341000</v>
       </c>
       <c r="L36">
-        <v>132206800</v>
+        <v>52116800</v>
       </c>
       <c r="M36">
-        <v>-708600</v>
+        <v>-113300</v>
       </c>
       <c r="N36">
-        <v>-1760944000</v>
+        <v>-3620884000</v>
       </c>
       <c r="O36">
-        <v>-4458000</v>
+        <v>-6858800</v>
       </c>
       <c r="P36">
-        <v>56398549000</v>
+        <v>-27859329000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1672406700000</v>
+        <v>1672395600000</v>
       </c>
       <c r="B37">
-        <v>3279800</v>
+        <v>526800</v>
       </c>
       <c r="C37">
-        <v>2246000</v>
+        <v>833500</v>
       </c>
       <c r="D37">
-        <v>29100</v>
+        <v>3300</v>
       </c>
       <c r="E37">
-        <v>48560107000</v>
+        <v>7363836000</v>
       </c>
       <c r="F37">
-        <v>42949538000</v>
+        <v>13716905000</v>
       </c>
       <c r="G37">
-        <v>211546000</v>
+        <v>40671000</v>
       </c>
       <c r="H37">
-        <v>5554900</v>
+        <v>1363600</v>
       </c>
       <c r="I37">
-        <v>91721191000</v>
+        <v>21121412000</v>
       </c>
       <c r="J37" t="str">
-        <v>2022-12-30T13:25:00.000Z</v>
+        <v>2022-12-30T10:20:00.000Z</v>
       </c>
       <c r="K37">
-        <v>2294246214000</v>
+        <v>923436753000</v>
       </c>
       <c r="L37">
-        <v>137761700</v>
+        <v>53480400</v>
       </c>
       <c r="M37">
-        <v>-1033800</v>
+        <v>306700</v>
       </c>
       <c r="N37">
-        <v>-5610569000</v>
+        <v>6353069000</v>
       </c>
       <c r="O37">
-        <v>-5491800</v>
+        <v>-6552100</v>
       </c>
       <c r="P37">
-        <v>50787980000</v>
+        <v>-21506260000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1672407000000</v>
+        <v>1672395720000</v>
       </c>
       <c r="B38">
-        <v>2168300</v>
+        <v>393400</v>
       </c>
       <c r="C38">
-        <v>3099300</v>
+        <v>476700</v>
       </c>
       <c r="D38">
-        <v>32300</v>
+        <v>600</v>
       </c>
       <c r="E38">
-        <v>26779991000</v>
+        <v>6927800000</v>
       </c>
       <c r="F38">
-        <v>54382542000</v>
+        <v>8153483000</v>
       </c>
       <c r="G38">
-        <v>447468000</v>
+        <v>5292000</v>
       </c>
       <c r="H38">
-        <v>5299900</v>
+        <v>870700</v>
       </c>
       <c r="I38">
-        <v>81610001000</v>
+        <v>15086575000</v>
       </c>
       <c r="J38" t="str">
-        <v>2022-12-30T13:30:00.000Z</v>
+        <v>2022-12-30T10:22:00.000Z</v>
       </c>
       <c r="K38">
-        <v>2375856215000</v>
+        <v>938523328000</v>
       </c>
       <c r="L38">
-        <v>143061600</v>
+        <v>54351100</v>
       </c>
       <c r="M38">
-        <v>931000</v>
+        <v>83300</v>
       </c>
       <c r="N38">
-        <v>27602551000</v>
+        <v>1225683000</v>
       </c>
       <c r="O38">
-        <v>-4560800</v>
+        <v>-6468800</v>
       </c>
       <c r="P38">
-        <v>78390531000</v>
+        <v>-20280577000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1672407300000</v>
+        <v>1672395840000</v>
       </c>
       <c r="B39">
-        <v>1900800</v>
+        <v>370500</v>
       </c>
       <c r="C39">
-        <v>3717300</v>
+        <v>1239900</v>
       </c>
       <c r="D39">
-        <v>58100</v>
+        <v>4100</v>
       </c>
       <c r="E39">
-        <v>27753931000</v>
+        <v>8494339000</v>
       </c>
       <c r="F39">
-        <v>61157247000</v>
+        <v>22056521000</v>
       </c>
       <c r="G39">
-        <v>605436000</v>
+        <v>78846000</v>
       </c>
       <c r="H39">
-        <v>5676200</v>
+        <v>1614500</v>
       </c>
       <c r="I39">
-        <v>89516614000</v>
+        <v>30629706000</v>
       </c>
       <c r="J39" t="str">
-        <v>2022-12-30T13:35:00.000Z</v>
+        <v>2022-12-30T10:24:00.000Z</v>
       </c>
       <c r="K39">
-        <v>2465372829000</v>
+        <v>969153034000</v>
       </c>
       <c r="L39">
-        <v>148737800</v>
+        <v>55965600</v>
       </c>
       <c r="M39">
-        <v>1816500</v>
+        <v>869400</v>
       </c>
       <c r="N39">
-        <v>33403316000</v>
+        <v>13562182000</v>
       </c>
       <c r="O39">
-        <v>-2744300</v>
+        <v>-5599400</v>
       </c>
       <c r="P39">
-        <v>111793847000</v>
+        <v>-6718395000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1672407600000</v>
+        <v>1672395960000</v>
       </c>
       <c r="B40">
-        <v>2128200</v>
+        <v>284100</v>
       </c>
       <c r="C40">
-        <v>6514700</v>
+        <v>728400</v>
       </c>
       <c r="D40">
-        <v>81500</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>32939144000</v>
+        <v>7008045000</v>
       </c>
       <c r="F40">
-        <v>96029782000</v>
+        <v>12790456000</v>
       </c>
       <c r="G40">
-        <v>856674000</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>8724400</v>
+        <v>1012500</v>
       </c>
       <c r="I40">
-        <v>129825600000</v>
+        <v>19798501000</v>
       </c>
       <c r="J40" t="str">
-        <v>2022-12-30T13:40:00.000Z</v>
+        <v>2022-12-30T10:26:00.000Z</v>
       </c>
       <c r="K40">
-        <v>2595198429000</v>
+        <v>988951535000</v>
       </c>
       <c r="L40">
-        <v>157462200</v>
+        <v>56978100</v>
       </c>
       <c r="M40">
-        <v>4386500</v>
+        <v>444300</v>
       </c>
       <c r="N40">
-        <v>63090638000</v>
+        <v>5782411000</v>
       </c>
       <c r="O40">
-        <v>1642200</v>
+        <v>-5155100</v>
       </c>
       <c r="P40">
-        <v>174884485000</v>
+        <v>-935984000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1672407900000</v>
+        <v>1672396080000</v>
       </c>
       <c r="B41">
-        <v>3411200</v>
+        <v>296500</v>
       </c>
       <c r="C41">
-        <v>5645300</v>
+        <v>596300</v>
       </c>
       <c r="D41">
-        <v>44500</v>
+        <v>400</v>
       </c>
       <c r="E41">
-        <v>47963669000</v>
+        <v>7600255000</v>
       </c>
       <c r="F41">
-        <v>74852549000</v>
+        <v>11305335000</v>
       </c>
       <c r="G41">
-        <v>734375000</v>
+        <v>2953000</v>
       </c>
       <c r="H41">
-        <v>9101000</v>
+        <v>893200</v>
       </c>
       <c r="I41">
-        <v>123550593000</v>
+        <v>18908543000</v>
       </c>
       <c r="J41" t="str">
-        <v>2022-12-30T13:45:00.000Z</v>
+        <v>2022-12-30T10:28:00.000Z</v>
       </c>
       <c r="K41">
-        <v>2718749022000</v>
+        <v>1007860078000</v>
       </c>
       <c r="L41">
-        <v>166563200</v>
+        <v>57871300</v>
       </c>
       <c r="M41">
-        <v>2234100</v>
+        <v>299800</v>
       </c>
       <c r="N41">
-        <v>26888880000</v>
+        <v>3705080000</v>
       </c>
       <c r="O41">
-        <v>3876300</v>
+        <v>-4855300</v>
       </c>
       <c r="P41">
-        <v>201773365000</v>
+        <v>2769096000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1672408200000</v>
+        <v>1672396200000</v>
       </c>
       <c r="B42">
-        <v>5323900</v>
+        <v>476900</v>
       </c>
       <c r="C42">
-        <v>3633700</v>
+        <v>938100</v>
       </c>
       <c r="D42">
-        <v>24400</v>
+        <v>59100</v>
       </c>
       <c r="E42">
-        <v>79797108000</v>
+        <v>9549981000</v>
       </c>
       <c r="F42">
-        <v>58545245000</v>
+        <v>15773475000</v>
       </c>
       <c r="G42">
-        <v>354823000</v>
+        <v>695544000</v>
       </c>
       <c r="H42">
-        <v>8982000</v>
+        <v>1474100</v>
       </c>
       <c r="I42">
-        <v>138697176000</v>
+        <v>26019000000</v>
       </c>
       <c r="J42" t="str">
-        <v>2022-12-30T13:50:00.000Z</v>
+        <v>2022-12-30T10:30:00.000Z</v>
       </c>
       <c r="K42">
-        <v>2857446198000</v>
+        <v>1033879078000</v>
       </c>
       <c r="L42">
-        <v>175545200</v>
+        <v>59345400</v>
       </c>
       <c r="M42">
-        <v>-1690200</v>
+        <v>461200</v>
       </c>
       <c r="N42">
-        <v>-21251863000</v>
+        <v>6223494000</v>
       </c>
       <c r="O42">
-        <v>2186100</v>
+        <v>-4394100</v>
       </c>
       <c r="P42">
-        <v>180521502000</v>
+        <v>8992590000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1672408500000</v>
+        <v>1672396320000</v>
       </c>
       <c r="B43">
-        <v>5384000</v>
+        <v>413700</v>
       </c>
       <c r="C43">
-        <v>2639000</v>
+        <v>928500</v>
       </c>
       <c r="D43">
-        <v>66400</v>
+        <v>1000</v>
       </c>
       <c r="E43">
-        <v>79723398000</v>
+        <v>7649190000</v>
       </c>
       <c r="F43">
-        <v>45035431000</v>
+        <v>18351927000</v>
       </c>
       <c r="G43">
-        <v>1217811000</v>
+        <v>68500000</v>
       </c>
       <c r="H43">
-        <v>8089400</v>
+        <v>1343200</v>
       </c>
       <c r="I43">
-        <v>125976640000</v>
+        <v>26069617000</v>
       </c>
       <c r="J43" t="str">
-        <v>2022-12-30T13:55:00.000Z</v>
+        <v>2022-12-30T10:32:00.000Z</v>
       </c>
       <c r="K43">
-        <v>2983422838000</v>
+        <v>1059948695000</v>
       </c>
       <c r="L43">
-        <v>183634600</v>
+        <v>60688600</v>
       </c>
       <c r="M43">
-        <v>-2745000</v>
+        <v>514800</v>
       </c>
       <c r="N43">
-        <v>-34687967000</v>
+        <v>10702737000</v>
       </c>
       <c r="O43">
-        <v>-558900</v>
+        <v>-3879300</v>
       </c>
       <c r="P43">
-        <v>145833535000</v>
+        <v>19695327000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1672408800000</v>
+        <v>1672396440000</v>
       </c>
       <c r="B44">
-        <v>3230600</v>
+        <v>535300</v>
       </c>
       <c r="C44">
-        <v>3869300</v>
+        <v>1111100</v>
       </c>
       <c r="D44">
-        <v>155800</v>
+        <v>3700</v>
       </c>
       <c r="E44">
-        <v>50802518000</v>
+        <v>8522669000</v>
       </c>
       <c r="F44">
-        <v>59541995000</v>
+        <v>18072998000</v>
       </c>
       <c r="G44">
-        <v>1857391000</v>
+        <v>51975000</v>
       </c>
       <c r="H44">
-        <v>7255700</v>
+        <v>1650100</v>
       </c>
       <c r="I44">
-        <v>112201904000</v>
+        <v>26647642000</v>
       </c>
       <c r="J44" t="str">
-        <v>2022-12-30T14:00:00.000Z</v>
+        <v>2022-12-30T10:34:00.000Z</v>
       </c>
       <c r="K44">
-        <v>3095624742000</v>
+        <v>1086596337000</v>
       </c>
       <c r="L44">
-        <v>190890300</v>
+        <v>62338700</v>
       </c>
       <c r="M44">
-        <v>638700</v>
+        <v>575800</v>
       </c>
       <c r="N44">
-        <v>8739477000</v>
+        <v>9550329000</v>
       </c>
       <c r="O44">
-        <v>79800</v>
+        <v>-3303500</v>
       </c>
       <c r="P44">
-        <v>154573012000</v>
+        <v>29245656000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1672409100000</v>
+        <v>1672396560000</v>
       </c>
       <c r="B45">
-        <v>2761500</v>
+        <v>369100</v>
       </c>
       <c r="C45">
-        <v>4585900</v>
+        <v>977600</v>
       </c>
       <c r="D45">
-        <v>60600</v>
+        <v>6800</v>
       </c>
       <c r="E45">
-        <v>42112085000</v>
+        <v>5988818000</v>
       </c>
       <c r="F45">
-        <v>69230296000</v>
+        <v>17637854000</v>
       </c>
       <c r="G45">
-        <v>995928000</v>
+        <v>178026000</v>
       </c>
       <c r="H45">
-        <v>7408000</v>
+        <v>1353500</v>
       </c>
       <c r="I45">
-        <v>112338309000</v>
+        <v>23804698000</v>
       </c>
       <c r="J45" t="str">
-        <v>2022-12-30T14:05:00.000Z</v>
+        <v>2022-12-30T10:36:00.000Z</v>
       </c>
       <c r="K45">
-        <v>3207963051000</v>
+        <v>1110401035000</v>
       </c>
       <c r="L45">
-        <v>198298300</v>
+        <v>63692200</v>
       </c>
       <c r="M45">
-        <v>1824400</v>
+        <v>608500</v>
       </c>
       <c r="N45">
-        <v>27118211000</v>
+        <v>11649036000</v>
       </c>
       <c r="O45">
-        <v>1904200</v>
+        <v>-2695000</v>
       </c>
       <c r="P45">
-        <v>181691223000</v>
+        <v>40894692000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1672409400000</v>
+        <v>1672396680000</v>
       </c>
       <c r="B46">
-        <v>3224700</v>
+        <v>398100</v>
       </c>
       <c r="C46">
-        <v>9565600</v>
+        <v>838400</v>
       </c>
       <c r="D46">
-        <v>28000</v>
+        <v>11400</v>
       </c>
       <c r="E46">
-        <v>52582397000</v>
+        <v>7420238000</v>
       </c>
       <c r="F46">
-        <v>147501381000</v>
+        <v>14490304000</v>
       </c>
       <c r="G46">
-        <v>353611000</v>
+        <v>273255000</v>
       </c>
       <c r="H46">
-        <v>12818300</v>
+        <v>1247900</v>
       </c>
       <c r="I46">
-        <v>200437389000</v>
+        <v>22183797000</v>
       </c>
       <c r="J46" t="str">
-        <v>2022-12-30T14:10:00.000Z</v>
+        <v>2022-12-30T10:38:00.000Z</v>
       </c>
       <c r="K46">
-        <v>3408400440000</v>
+        <v>1132584832000</v>
       </c>
       <c r="L46">
-        <v>211116600</v>
+        <v>64940100</v>
       </c>
       <c r="M46">
-        <v>6340900</v>
+        <v>440300</v>
       </c>
       <c r="N46">
-        <v>94918984000</v>
+        <v>7070066000</v>
       </c>
       <c r="O46">
-        <v>8245100</v>
+        <v>-2254700</v>
       </c>
       <c r="P46">
-        <v>276610207000</v>
+        <v>47964758000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1672409700000</v>
+        <v>1672396800000</v>
       </c>
       <c r="B47">
-        <v>5882300</v>
+        <v>444600</v>
       </c>
       <c r="C47">
-        <v>8140500</v>
+        <v>1151200</v>
       </c>
       <c r="D47">
-        <v>51400</v>
+        <v>28300</v>
       </c>
       <c r="E47">
-        <v>95007651000</v>
+        <v>7310652000</v>
       </c>
       <c r="F47">
-        <v>135195558000</v>
+        <v>16485900000</v>
       </c>
       <c r="G47">
-        <v>776715000</v>
+        <v>252684000</v>
       </c>
       <c r="H47">
-        <v>14074200</v>
+        <v>1624100</v>
       </c>
       <c r="I47">
-        <v>230979924000</v>
+        <v>24049236000</v>
       </c>
       <c r="J47" t="str">
-        <v>2022-12-30T14:15:00.000Z</v>
+        <v>2022-12-30T10:40:00.000Z</v>
       </c>
       <c r="K47">
-        <v>3639380364000</v>
+        <v>1156634068000</v>
       </c>
       <c r="L47">
-        <v>225190800</v>
+        <v>66564200</v>
       </c>
       <c r="M47">
-        <v>2258200</v>
+        <v>706600</v>
       </c>
       <c r="N47">
-        <v>40187907000</v>
+        <v>9175248000</v>
       </c>
       <c r="O47">
-        <v>10503300</v>
+        <v>-1548100</v>
       </c>
       <c r="P47">
-        <v>316798114000</v>
+        <v>57140006000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1672410000000</v>
+        <v>1672396920000</v>
       </c>
       <c r="B48">
-        <v>7668300</v>
+        <v>432700</v>
       </c>
       <c r="C48">
-        <v>9613900</v>
+        <v>643000</v>
       </c>
       <c r="D48">
-        <v>50400</v>
+        <v>4600</v>
       </c>
       <c r="E48">
-        <v>127330730000</v>
+        <v>7483034000</v>
       </c>
       <c r="F48">
-        <v>178312631000</v>
+        <v>12551856000</v>
       </c>
       <c r="G48">
-        <v>743915000</v>
+        <v>32448000</v>
       </c>
       <c r="H48">
-        <v>17332600</v>
+        <v>1080300</v>
       </c>
       <c r="I48">
-        <v>306387276000</v>
+        <v>20067338000</v>
       </c>
       <c r="J48" t="str">
-        <v>2022-12-30T14:20:00.000Z</v>
+        <v>2022-12-30T10:42:00.000Z</v>
       </c>
       <c r="K48">
-        <v>3945767640000</v>
+        <v>1176701406000</v>
       </c>
       <c r="L48">
-        <v>242523400</v>
+        <v>67644500</v>
       </c>
       <c r="M48">
-        <v>1945600</v>
+        <v>210300</v>
       </c>
       <c r="N48">
-        <v>50981901000</v>
+        <v>5068822000</v>
       </c>
       <c r="O48">
-        <v>12448900</v>
+        <v>-1337800</v>
       </c>
       <c r="P48">
-        <v>367780015000</v>
+        <v>62208828000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1672410300000</v>
+        <v>1672397040000</v>
       </c>
       <c r="B49">
-        <v>13436900</v>
+        <v>518800</v>
       </c>
       <c r="C49">
-        <v>10978000</v>
+        <v>505900</v>
       </c>
       <c r="D49">
-        <v>219600</v>
+        <v>3200</v>
       </c>
       <c r="E49">
-        <v>196248492000</v>
+        <v>8834492000</v>
       </c>
       <c r="F49">
-        <v>207113238000</v>
+        <v>11115156000</v>
       </c>
       <c r="G49">
-        <v>3980607000</v>
+        <v>43078000</v>
       </c>
       <c r="H49">
-        <v>24634500</v>
+        <v>1027900</v>
       </c>
       <c r="I49">
-        <v>407342337000</v>
+        <v>19992726000</v>
       </c>
       <c r="J49" t="str">
-        <v>2022-12-30T14:25:00.000Z</v>
+        <v>2022-12-30T10:44:00.000Z</v>
       </c>
       <c r="K49">
-        <v>4353109977000</v>
+        <v>1196694132000</v>
       </c>
       <c r="L49">
-        <v>267157900</v>
+        <v>68672400</v>
       </c>
       <c r="M49">
-        <v>-2458900</v>
+        <v>-12900</v>
       </c>
       <c r="N49">
-        <v>10864746000</v>
+        <v>2280664000</v>
       </c>
       <c r="O49">
-        <v>9990000</v>
+        <v>-1350700</v>
       </c>
       <c r="P49">
-        <v>378644761000</v>
+        <v>64489492000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1672410600000</v>
+        <v>1672397160000</v>
       </c>
       <c r="B50">
-        <v>17600</v>
+        <v>1918000</v>
       </c>
       <c r="C50">
-        <v>86100</v>
+        <v>785700</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>22200</v>
       </c>
       <c r="E50">
-        <v>206536000</v>
+        <v>42105516000</v>
       </c>
       <c r="F50">
-        <v>1796190000</v>
+        <v>12335823000</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>313908000</v>
       </c>
       <c r="H50">
-        <v>103700</v>
+        <v>2725900</v>
       </c>
       <c r="I50">
-        <v>2002726000</v>
+        <v>54755247000</v>
       </c>
       <c r="J50" t="str">
-        <v>2022-12-30T14:30:00.000Z</v>
+        <v>2022-12-30T10:46:00.000Z</v>
       </c>
       <c r="K50">
-        <v>4355112703000</v>
+        <v>1251449379000</v>
       </c>
       <c r="L50">
-        <v>267261600</v>
+        <v>71398300</v>
       </c>
       <c r="M50">
-        <v>68500</v>
+        <v>-1132300</v>
       </c>
       <c r="N50">
-        <v>1589654000</v>
+        <v>-29769693000</v>
       </c>
       <c r="O50">
-        <v>10058500</v>
+        <v>-2483000</v>
       </c>
       <c r="P50">
-        <v>380234415000</v>
+        <v>34719799000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1672410900000</v>
+        <v>1672397280000</v>
       </c>
       <c r="B51">
-        <v>100</v>
+        <v>1212200</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>283000</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="E51">
-        <v>1150000</v>
+        <v>16988563000</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>5199439000</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>159235000</v>
       </c>
       <c r="H51">
-        <v>100</v>
+        <v>1499000</v>
       </c>
       <c r="I51">
-        <v>1150000</v>
+        <v>22347237000</v>
       </c>
       <c r="J51" t="str">
-        <v>2022-12-30T14:35:00.000Z</v>
+        <v>2022-12-30T10:48:00.000Z</v>
       </c>
       <c r="K51">
-        <v>4355113853000</v>
+        <v>1273796616000</v>
       </c>
       <c r="L51">
-        <v>267261700</v>
+        <v>72897300</v>
       </c>
       <c r="M51">
-        <v>-100</v>
+        <v>-929200</v>
       </c>
       <c r="N51">
-        <v>-1150000</v>
+        <v>-11789124000</v>
       </c>
       <c r="O51">
-        <v>10058400</v>
+        <v>-3412200</v>
       </c>
       <c r="P51">
-        <v>380233265000</v>
+        <v>22930675000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1672411200000</v>
+        <v>1672397400000</v>
       </c>
       <c r="B52">
-        <v>7000</v>
+        <v>1553900</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>211800</v>
       </c>
       <c r="D52">
-        <v>500</v>
+        <v>5500</v>
       </c>
       <c r="E52">
-        <v>80500000</v>
+        <v>23614421000</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>5079116000</v>
       </c>
       <c r="G52">
-        <v>5800000</v>
+        <v>78825000</v>
       </c>
       <c r="H52">
-        <v>7500</v>
+        <v>1771200</v>
       </c>
       <c r="I52">
-        <v>86300000</v>
+        <v>28772362000</v>
       </c>
       <c r="J52" t="str">
-        <v>2022-12-30T14:40:00.000Z</v>
+        <v>2022-12-30T10:50:00.000Z</v>
       </c>
       <c r="K52">
-        <v>4355200153000</v>
+        <v>1302568978000</v>
       </c>
       <c r="L52">
-        <v>267269200</v>
+        <v>74668500</v>
       </c>
       <c r="M52">
-        <v>-7000</v>
+        <v>-1342100</v>
       </c>
       <c r="N52">
-        <v>-80500000</v>
+        <v>-18535305000</v>
       </c>
       <c r="O52">
-        <v>10051400</v>
+        <v>-4754300</v>
       </c>
       <c r="P52">
-        <v>380152765000</v>
+        <v>4395370000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1672411500000</v>
+        <v>1672397520000</v>
       </c>
       <c r="B53">
-        <v>11339100</v>
+        <v>797600</v>
       </c>
       <c r="C53">
-        <v>7480900</v>
+        <v>287400</v>
       </c>
       <c r="D53">
-        <v>39232100</v>
+        <v>1700</v>
       </c>
       <c r="E53">
-        <v>230598959000</v>
+        <v>13442078000</v>
       </c>
       <c r="F53">
-        <v>152182167000</v>
+        <v>5422816000</v>
       </c>
       <c r="G53">
-        <v>812159504000</v>
+        <v>27230000</v>
       </c>
       <c r="H53">
-        <v>58052100</v>
+        <v>1086700</v>
       </c>
       <c r="I53">
-        <v>1194940630000</v>
+        <v>18892124000</v>
       </c>
       <c r="J53" t="str">
-        <v>2022-12-30T14:45:00.000Z</v>
+        <v>2022-12-30T10:52:00.000Z</v>
       </c>
       <c r="K53">
-        <v>5550140783000</v>
+        <v>1321461102000</v>
       </c>
       <c r="L53">
-        <v>325321300</v>
+        <v>75755200</v>
       </c>
       <c r="M53">
-        <v>-3858200</v>
+        <v>-510200</v>
       </c>
       <c r="N53">
-        <v>-78416792000</v>
+        <v>-8019262000</v>
       </c>
       <c r="O53">
-        <v>6193200</v>
+        <v>-5264500</v>
       </c>
       <c r="P53">
-        <v>301735973000</v>
+        <v>-3623892000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>1672411800000</v>
+        <v>1672397640000</v>
       </c>
       <c r="B54">
-        <v>2300</v>
+        <v>509200</v>
       </c>
       <c r="C54">
-        <v>2200</v>
+        <v>470700</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E54">
-        <v>26680000</v>
+        <v>7389070000</v>
       </c>
       <c r="F54">
-        <v>25740000</v>
+        <v>7762116000</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>16400000</v>
       </c>
       <c r="H54">
-        <v>4500</v>
+        <v>980900</v>
       </c>
       <c r="I54">
-        <v>52420000</v>
+        <v>15167586000</v>
       </c>
       <c r="J54" t="str">
-        <v>2022-12-30T14:50:00.000Z</v>
+        <v>2022-12-30T10:54:00.000Z</v>
       </c>
       <c r="K54">
-        <v>5550193203000</v>
+        <v>1336628688000</v>
       </c>
       <c r="L54">
-        <v>325325800</v>
+        <v>76736100</v>
       </c>
       <c r="M54">
-        <v>-100</v>
+        <v>-38500</v>
       </c>
       <c r="N54">
-        <v>-940000</v>
+        <v>373046000</v>
       </c>
       <c r="O54">
-        <v>6193100</v>
+        <v>-5303000</v>
       </c>
       <c r="P54">
-        <v>301735033000</v>
+        <v>-3250846000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>1672412100000</v>
+        <v>1672397760000</v>
       </c>
       <c r="B55">
-        <v>12700</v>
+        <v>400600</v>
       </c>
       <c r="C55">
-        <v>521100</v>
+        <v>670800</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>148590000</v>
+        <v>7009390000</v>
       </c>
       <c r="F55">
-        <v>7028980000</v>
+        <v>10331696000</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>533800</v>
+        <v>1071400</v>
       </c>
       <c r="I55">
-        <v>7177570000</v>
+        <v>17341086000</v>
       </c>
       <c r="J55" t="str">
-        <v>2022-12-30T14:55:00.000Z</v>
+        <v>2022-12-30T10:56:00.000Z</v>
       </c>
       <c r="K55">
+        <v>1353969774000</v>
+      </c>
+      <c r="L55">
+        <v>77807500</v>
+      </c>
+      <c r="M55">
+        <v>270200</v>
+      </c>
+      <c r="N55">
+        <v>3322306000</v>
+      </c>
+      <c r="O55">
+        <v>-5032800</v>
+      </c>
+      <c r="P55">
+        <v>71460000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1672397880000</v>
+      </c>
+      <c r="B56">
+        <v>403300</v>
+      </c>
+      <c r="C56">
+        <v>459600</v>
+      </c>
+      <c r="D56">
+        <v>2500</v>
+      </c>
+      <c r="E56">
+        <v>5748607000</v>
+      </c>
+      <c r="F56">
+        <v>8530053000</v>
+      </c>
+      <c r="G56">
+        <v>60000000</v>
+      </c>
+      <c r="H56">
+        <v>865400</v>
+      </c>
+      <c r="I56">
+        <v>14338660000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2022-12-30T10:58:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>1368308434000</v>
+      </c>
+      <c r="L56">
+        <v>78672900</v>
+      </c>
+      <c r="M56">
+        <v>56300</v>
+      </c>
+      <c r="N56">
+        <v>2781446000</v>
+      </c>
+      <c r="O56">
+        <v>-4976500</v>
+      </c>
+      <c r="P56">
+        <v>2852906000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1672398000000</v>
+      </c>
+      <c r="B57">
+        <v>397900</v>
+      </c>
+      <c r="C57">
+        <v>586100</v>
+      </c>
+      <c r="D57">
+        <v>12300</v>
+      </c>
+      <c r="E57">
+        <v>6169968000</v>
+      </c>
+      <c r="F57">
+        <v>12297293000</v>
+      </c>
+      <c r="G57">
+        <v>66825000</v>
+      </c>
+      <c r="H57">
+        <v>996300</v>
+      </c>
+      <c r="I57">
+        <v>18534086000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2022-12-30T11:00:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>1386842520000</v>
+      </c>
+      <c r="L57">
+        <v>79669200</v>
+      </c>
+      <c r="M57">
+        <v>188200</v>
+      </c>
+      <c r="N57">
+        <v>6127325000</v>
+      </c>
+      <c r="O57">
+        <v>-4788300</v>
+      </c>
+      <c r="P57">
+        <v>8980231000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1672398120000</v>
+      </c>
+      <c r="B58">
+        <v>456000</v>
+      </c>
+      <c r="C58">
+        <v>412400</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>6375837000</v>
+      </c>
+      <c r="F58">
+        <v>8042514000</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>868400</v>
+      </c>
+      <c r="I58">
+        <v>14418351000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2022-12-30T11:02:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>1401260871000</v>
+      </c>
+      <c r="L58">
+        <v>80537600</v>
+      </c>
+      <c r="M58">
+        <v>-43600</v>
+      </c>
+      <c r="N58">
+        <v>1666677000</v>
+      </c>
+      <c r="O58">
+        <v>-4831900</v>
+      </c>
+      <c r="P58">
+        <v>10646908000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1672398240000</v>
+      </c>
+      <c r="B59">
+        <v>479400</v>
+      </c>
+      <c r="C59">
+        <v>430300</v>
+      </c>
+      <c r="D59">
+        <v>900</v>
+      </c>
+      <c r="E59">
+        <v>6719329000</v>
+      </c>
+      <c r="F59">
+        <v>8562717000</v>
+      </c>
+      <c r="G59">
+        <v>10395000</v>
+      </c>
+      <c r="H59">
+        <v>910600</v>
+      </c>
+      <c r="I59">
+        <v>15292441000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2022-12-30T11:04:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>1416553312000</v>
+      </c>
+      <c r="L59">
+        <v>81448200</v>
+      </c>
+      <c r="M59">
+        <v>-49100</v>
+      </c>
+      <c r="N59">
+        <v>1843388000</v>
+      </c>
+      <c r="O59">
+        <v>-4881000</v>
+      </c>
+      <c r="P59">
+        <v>12490296000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1672398360000</v>
+      </c>
+      <c r="B60">
+        <v>600700</v>
+      </c>
+      <c r="C60">
+        <v>535400</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>11693730000</v>
+      </c>
+      <c r="F60">
+        <v>9844423000</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>1136100</v>
+      </c>
+      <c r="I60">
+        <v>21538153000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2022-12-30T11:06:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>1438091465000</v>
+      </c>
+      <c r="L60">
+        <v>82584300</v>
+      </c>
+      <c r="M60">
+        <v>-65300</v>
+      </c>
+      <c r="N60">
+        <v>-1849307000</v>
+      </c>
+      <c r="O60">
+        <v>-4946300</v>
+      </c>
+      <c r="P60">
+        <v>10640989000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1672398480000</v>
+      </c>
+      <c r="B61">
+        <v>756200</v>
+      </c>
+      <c r="C61">
+        <v>592300</v>
+      </c>
+      <c r="D61">
+        <v>27300</v>
+      </c>
+      <c r="E61">
+        <v>11004602000</v>
+      </c>
+      <c r="F61">
+        <v>9383334000</v>
+      </c>
+      <c r="G61">
+        <v>248513000</v>
+      </c>
+      <c r="H61">
+        <v>1375800</v>
+      </c>
+      <c r="I61">
+        <v>20636449000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2022-12-30T11:08:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>1458727914000</v>
+      </c>
+      <c r="L61">
+        <v>83960100</v>
+      </c>
+      <c r="M61">
+        <v>-163900</v>
+      </c>
+      <c r="N61">
+        <v>-1621268000</v>
+      </c>
+      <c r="O61">
+        <v>-5110200</v>
+      </c>
+      <c r="P61">
+        <v>9019721000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1672398600000</v>
+      </c>
+      <c r="B62">
+        <v>682800</v>
+      </c>
+      <c r="C62">
+        <v>604700</v>
+      </c>
+      <c r="D62">
+        <v>12500</v>
+      </c>
+      <c r="E62">
+        <v>8483726000</v>
+      </c>
+      <c r="F62">
+        <v>9284334000</v>
+      </c>
+      <c r="G62">
+        <v>442302000</v>
+      </c>
+      <c r="H62">
+        <v>1300000</v>
+      </c>
+      <c r="I62">
+        <v>18210362000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2022-12-30T11:10:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>1476938276000</v>
+      </c>
+      <c r="L62">
+        <v>85260100</v>
+      </c>
+      <c r="M62">
+        <v>-78100</v>
+      </c>
+      <c r="N62">
+        <v>800608000</v>
+      </c>
+      <c r="O62">
+        <v>-5188300</v>
+      </c>
+      <c r="P62">
+        <v>9820329000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1672398720000</v>
+      </c>
+      <c r="B63">
+        <v>561800</v>
+      </c>
+      <c r="C63">
+        <v>875300</v>
+      </c>
+      <c r="D63">
+        <v>100</v>
+      </c>
+      <c r="E63">
+        <v>9847792000</v>
+      </c>
+      <c r="F63">
+        <v>17661999000</v>
+      </c>
+      <c r="G63">
+        <v>2745000</v>
+      </c>
+      <c r="H63">
+        <v>1437200</v>
+      </c>
+      <c r="I63">
+        <v>27512536000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2022-12-30T11:12:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>1504450812000</v>
+      </c>
+      <c r="L63">
+        <v>86697300</v>
+      </c>
+      <c r="M63">
+        <v>313500</v>
+      </c>
+      <c r="N63">
+        <v>7814207000</v>
+      </c>
+      <c r="O63">
+        <v>-4874800</v>
+      </c>
+      <c r="P63">
+        <v>17634536000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1672398840000</v>
+      </c>
+      <c r="B64">
+        <v>625300</v>
+      </c>
+      <c r="C64">
+        <v>636700</v>
+      </c>
+      <c r="D64">
+        <v>500</v>
+      </c>
+      <c r="E64">
+        <v>9354728000</v>
+      </c>
+      <c r="F64">
+        <v>12326204000</v>
+      </c>
+      <c r="G64">
+        <v>8975000</v>
+      </c>
+      <c r="H64">
+        <v>1262500</v>
+      </c>
+      <c r="I64">
+        <v>21689907000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2022-12-30T11:14:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>1526140719000</v>
+      </c>
+      <c r="L64">
+        <v>87959800</v>
+      </c>
+      <c r="M64">
+        <v>11400</v>
+      </c>
+      <c r="N64">
+        <v>2971476000</v>
+      </c>
+      <c r="O64">
+        <v>-4863400</v>
+      </c>
+      <c r="P64">
+        <v>20606012000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1672398960000</v>
+      </c>
+      <c r="B65">
+        <v>691100</v>
+      </c>
+      <c r="C65">
+        <v>1530200</v>
+      </c>
+      <c r="D65">
+        <v>2700</v>
+      </c>
+      <c r="E65">
+        <v>10600661000</v>
+      </c>
+      <c r="F65">
+        <v>27377348000</v>
+      </c>
+      <c r="G65">
+        <v>48895000</v>
+      </c>
+      <c r="H65">
+        <v>2224000</v>
+      </c>
+      <c r="I65">
+        <v>38026904000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2022-12-30T11:16:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>1564167623000</v>
+      </c>
+      <c r="L65">
+        <v>90183800</v>
+      </c>
+      <c r="M65">
+        <v>839100</v>
+      </c>
+      <c r="N65">
+        <v>16776687000</v>
+      </c>
+      <c r="O65">
+        <v>-4024300</v>
+      </c>
+      <c r="P65">
+        <v>37382699000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1672399080000</v>
+      </c>
+      <c r="B66">
+        <v>713100</v>
+      </c>
+      <c r="C66">
+        <v>1638500</v>
+      </c>
+      <c r="D66">
+        <v>24200</v>
+      </c>
+      <c r="E66">
+        <v>11449981000</v>
+      </c>
+      <c r="F66">
+        <v>25741437000</v>
+      </c>
+      <c r="G66">
+        <v>553057000</v>
+      </c>
+      <c r="H66">
+        <v>2375800</v>
+      </c>
+      <c r="I66">
+        <v>37744475000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2022-12-30T11:18:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>1601912098000</v>
+      </c>
+      <c r="L66">
+        <v>92559600</v>
+      </c>
+      <c r="M66">
+        <v>925400</v>
+      </c>
+      <c r="N66">
+        <v>14291456000</v>
+      </c>
+      <c r="O66">
+        <v>-3098900</v>
+      </c>
+      <c r="P66">
+        <v>51674155000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1672399200000</v>
+      </c>
+      <c r="B67">
+        <v>498800</v>
+      </c>
+      <c r="C67">
+        <v>1326500</v>
+      </c>
+      <c r="D67">
+        <v>12700</v>
+      </c>
+      <c r="E67">
+        <v>8498985000</v>
+      </c>
+      <c r="F67">
+        <v>21458669000</v>
+      </c>
+      <c r="G67">
+        <v>184209000</v>
+      </c>
+      <c r="H67">
+        <v>1838000</v>
+      </c>
+      <c r="I67">
+        <v>30141863000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2022-12-30T11:20:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>1632053961000</v>
+      </c>
+      <c r="L67">
+        <v>94397600</v>
+      </c>
+      <c r="M67">
+        <v>827700</v>
+      </c>
+      <c r="N67">
+        <v>12959684000</v>
+      </c>
+      <c r="O67">
+        <v>-2271200</v>
+      </c>
+      <c r="P67">
+        <v>64633839000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1672399320000</v>
+      </c>
+      <c r="B68">
+        <v>511200</v>
+      </c>
+      <c r="C68">
+        <v>2059000</v>
+      </c>
+      <c r="D68">
+        <v>52800</v>
+      </c>
+      <c r="E68">
+        <v>9434395000</v>
+      </c>
+      <c r="F68">
+        <v>30893708000</v>
+      </c>
+      <c r="G68">
+        <v>497853000</v>
+      </c>
+      <c r="H68">
+        <v>2623000</v>
+      </c>
+      <c r="I68">
+        <v>40825956000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2022-12-30T11:22:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>1672879917000</v>
+      </c>
+      <c r="L68">
+        <v>97020600</v>
+      </c>
+      <c r="M68">
+        <v>1547800</v>
+      </c>
+      <c r="N68">
+        <v>21459313000</v>
+      </c>
+      <c r="O68">
+        <v>-723400</v>
+      </c>
+      <c r="P68">
+        <v>86093152000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1672399440000</v>
+      </c>
+      <c r="B69">
+        <v>517900</v>
+      </c>
+      <c r="C69">
+        <v>1014600</v>
+      </c>
+      <c r="D69">
+        <v>4600</v>
+      </c>
+      <c r="E69">
+        <v>8414965000</v>
+      </c>
+      <c r="F69">
+        <v>19485406000</v>
+      </c>
+      <c r="G69">
+        <v>34230000</v>
+      </c>
+      <c r="H69">
+        <v>1537100</v>
+      </c>
+      <c r="I69">
+        <v>27934601000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2022-12-30T11:24:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>1700814518000</v>
+      </c>
+      <c r="L69">
+        <v>98557700</v>
+      </c>
+      <c r="M69">
+        <v>496700</v>
+      </c>
+      <c r="N69">
+        <v>11070441000</v>
+      </c>
+      <c r="O69">
+        <v>-226700</v>
+      </c>
+      <c r="P69">
+        <v>97163593000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1672399560000</v>
+      </c>
+      <c r="B70">
+        <v>734600</v>
+      </c>
+      <c r="C70">
+        <v>935500</v>
+      </c>
+      <c r="D70">
+        <v>7800</v>
+      </c>
+      <c r="E70">
+        <v>11608145000</v>
+      </c>
+      <c r="F70">
+        <v>15663609000</v>
+      </c>
+      <c r="G70">
+        <v>197740000</v>
+      </c>
+      <c r="H70">
+        <v>1677900</v>
+      </c>
+      <c r="I70">
+        <v>27469494000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2022-12-30T11:26:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>1728284012000</v>
+      </c>
+      <c r="L70">
+        <v>100235600</v>
+      </c>
+      <c r="M70">
+        <v>200900</v>
+      </c>
+      <c r="N70">
+        <v>4055464000</v>
+      </c>
+      <c r="O70">
+        <v>-25800</v>
+      </c>
+      <c r="P70">
+        <v>101219057000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1672399680000</v>
+      </c>
+      <c r="B71">
+        <v>437200</v>
+      </c>
+      <c r="C71">
+        <v>628900</v>
+      </c>
+      <c r="D71">
+        <v>2300</v>
+      </c>
+      <c r="E71">
+        <v>7399344000</v>
+      </c>
+      <c r="F71">
+        <v>11491192000</v>
+      </c>
+      <c r="G71">
+        <v>53338000</v>
+      </c>
+      <c r="H71">
+        <v>1068400</v>
+      </c>
+      <c r="I71">
+        <v>18943874000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2022-12-30T11:28:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>1747227886000</v>
+      </c>
+      <c r="L71">
+        <v>101304000</v>
+      </c>
+      <c r="M71">
+        <v>191700</v>
+      </c>
+      <c r="N71">
+        <v>4091848000</v>
+      </c>
+      <c r="O71">
+        <v>165900</v>
+      </c>
+      <c r="P71">
+        <v>105310905000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1672399800000</v>
+      </c>
+      <c r="B72">
+        <v>1200</v>
+      </c>
+      <c r="C72">
+        <v>100</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>40169000</v>
+      </c>
+      <c r="F72">
+        <v>1675000</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>1300</v>
+      </c>
+      <c r="I72">
+        <v>41844000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2022-12-30T11:30:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>1747269730000</v>
+      </c>
+      <c r="L72">
+        <v>101305300</v>
+      </c>
+      <c r="M72">
+        <v>-1100</v>
+      </c>
+      <c r="N72">
+        <v>-38494000</v>
+      </c>
+      <c r="O72">
+        <v>164800</v>
+      </c>
+      <c r="P72">
+        <v>105272411000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1672405200000</v>
+      </c>
+      <c r="B73">
+        <v>2963000</v>
+      </c>
+      <c r="C73">
+        <v>1643700</v>
+      </c>
+      <c r="D73">
+        <v>135000</v>
+      </c>
+      <c r="E73">
+        <v>48347675000</v>
+      </c>
+      <c r="F73">
+        <v>24123751000</v>
+      </c>
+      <c r="G73">
+        <v>1961562000</v>
+      </c>
+      <c r="H73">
+        <v>4741700</v>
+      </c>
+      <c r="I73">
+        <v>74432988000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2022-12-30T13:00:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>1821702718000</v>
+      </c>
+      <c r="L73">
+        <v>106047000</v>
+      </c>
+      <c r="M73">
+        <v>-1319300</v>
+      </c>
+      <c r="N73">
+        <v>-24223924000</v>
+      </c>
+      <c r="O73">
+        <v>-1154500</v>
+      </c>
+      <c r="P73">
+        <v>81048487000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1672405320000</v>
+      </c>
+      <c r="B74">
+        <v>1540700</v>
+      </c>
+      <c r="C74">
+        <v>961300</v>
+      </c>
+      <c r="D74">
+        <v>84200</v>
+      </c>
+      <c r="E74">
+        <v>18471744000</v>
+      </c>
+      <c r="F74">
+        <v>12490194000</v>
+      </c>
+      <c r="G74">
+        <v>671938000</v>
+      </c>
+      <c r="H74">
+        <v>2586200</v>
+      </c>
+      <c r="I74">
+        <v>31633876000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2022-12-30T13:02:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>1853336594000</v>
+      </c>
+      <c r="L74">
+        <v>108633200</v>
+      </c>
+      <c r="M74">
+        <v>-579400</v>
+      </c>
+      <c r="N74">
+        <v>-5981550000</v>
+      </c>
+      <c r="O74">
+        <v>-1733900</v>
+      </c>
+      <c r="P74">
+        <v>75066937000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1672405440000</v>
+      </c>
+      <c r="B75">
+        <v>1252600</v>
+      </c>
+      <c r="C75">
+        <v>1402400</v>
+      </c>
+      <c r="D75">
+        <v>10900</v>
+      </c>
+      <c r="E75">
+        <v>17819051000</v>
+      </c>
+      <c r="F75">
+        <v>24199139000</v>
+      </c>
+      <c r="G75">
+        <v>200849000</v>
+      </c>
+      <c r="H75">
+        <v>2665900</v>
+      </c>
+      <c r="I75">
+        <v>42219039000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2022-12-30T13:04:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>1895555633000</v>
+      </c>
+      <c r="L75">
+        <v>111299100</v>
+      </c>
+      <c r="M75">
+        <v>149800</v>
+      </c>
+      <c r="N75">
+        <v>6380088000</v>
+      </c>
+      <c r="O75">
+        <v>-1584100</v>
+      </c>
+      <c r="P75">
+        <v>81447025000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1672405560000</v>
+      </c>
+      <c r="B76">
+        <v>1302000</v>
+      </c>
+      <c r="C76">
+        <v>867300</v>
+      </c>
+      <c r="D76">
+        <v>7000</v>
+      </c>
+      <c r="E76">
+        <v>18459583000</v>
+      </c>
+      <c r="F76">
+        <v>16683666000</v>
+      </c>
+      <c r="G76">
+        <v>168150000</v>
+      </c>
+      <c r="H76">
+        <v>2176300</v>
+      </c>
+      <c r="I76">
+        <v>35311399000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2022-12-30T13:06:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>1930867032000</v>
+      </c>
+      <c r="L76">
+        <v>113475400</v>
+      </c>
+      <c r="M76">
+        <v>-434700</v>
+      </c>
+      <c r="N76">
+        <v>-1775917000</v>
+      </c>
+      <c r="O76">
+        <v>-2018800</v>
+      </c>
+      <c r="P76">
+        <v>79671108000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1672405680000</v>
+      </c>
+      <c r="B77">
+        <v>1248700</v>
+      </c>
+      <c r="C77">
+        <v>830600</v>
+      </c>
+      <c r="D77">
+        <v>12200</v>
+      </c>
+      <c r="E77">
+        <v>16591243000</v>
+      </c>
+      <c r="F77">
+        <v>13723014000</v>
+      </c>
+      <c r="G77">
+        <v>358191000</v>
+      </c>
+      <c r="H77">
+        <v>2091500</v>
+      </c>
+      <c r="I77">
+        <v>30672448000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2022-12-30T13:08:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>1961539480000</v>
+      </c>
+      <c r="L77">
+        <v>115566900</v>
+      </c>
+      <c r="M77">
+        <v>-418100</v>
+      </c>
+      <c r="N77">
+        <v>-2868229000</v>
+      </c>
+      <c r="O77">
+        <v>-2436900</v>
+      </c>
+      <c r="P77">
+        <v>76802879000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1672405800000</v>
+      </c>
+      <c r="B78">
+        <v>1217500</v>
+      </c>
+      <c r="C78">
+        <v>844200</v>
+      </c>
+      <c r="D78">
+        <v>4200</v>
+      </c>
+      <c r="E78">
+        <v>19072083000</v>
+      </c>
+      <c r="F78">
+        <v>13375412000</v>
+      </c>
+      <c r="G78">
+        <v>67520000</v>
+      </c>
+      <c r="H78">
+        <v>2065900</v>
+      </c>
+      <c r="I78">
+        <v>32515015000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2022-12-30T13:10:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>1994054495000</v>
+      </c>
+      <c r="L78">
+        <v>117632800</v>
+      </c>
+      <c r="M78">
+        <v>-373300</v>
+      </c>
+      <c r="N78">
+        <v>-5696671000</v>
+      </c>
+      <c r="O78">
+        <v>-2810200</v>
+      </c>
+      <c r="P78">
+        <v>71106208000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1672405920000</v>
+      </c>
+      <c r="B79">
+        <v>1146000</v>
+      </c>
+      <c r="C79">
+        <v>1528600</v>
+      </c>
+      <c r="D79">
+        <v>22700</v>
+      </c>
+      <c r="E79">
+        <v>15789997000</v>
+      </c>
+      <c r="F79">
+        <v>21346383000</v>
+      </c>
+      <c r="G79">
+        <v>505551000</v>
+      </c>
+      <c r="H79">
+        <v>2697300</v>
+      </c>
+      <c r="I79">
+        <v>37641931000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2022-12-30T13:12:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>2031696426000</v>
+      </c>
+      <c r="L79">
+        <v>120330100</v>
+      </c>
+      <c r="M79">
+        <v>382600</v>
+      </c>
+      <c r="N79">
+        <v>5556386000</v>
+      </c>
+      <c r="O79">
+        <v>-2427600</v>
+      </c>
+      <c r="P79">
+        <v>76662594000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1672406040000</v>
+      </c>
+      <c r="B80">
+        <v>1142800</v>
+      </c>
+      <c r="C80">
+        <v>1160800</v>
+      </c>
+      <c r="D80">
+        <v>3400</v>
+      </c>
+      <c r="E80">
+        <v>16801728000</v>
+      </c>
+      <c r="F80">
+        <v>13752081000</v>
+      </c>
+      <c r="G80">
+        <v>34920000</v>
+      </c>
+      <c r="H80">
+        <v>2307000</v>
+      </c>
+      <c r="I80">
+        <v>30588729000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2022-12-30T13:14:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>2062285155000</v>
+      </c>
+      <c r="L80">
+        <v>122637100</v>
+      </c>
+      <c r="M80">
+        <v>18000</v>
+      </c>
+      <c r="N80">
+        <v>-3049647000</v>
+      </c>
+      <c r="O80">
+        <v>-2409600</v>
+      </c>
+      <c r="P80">
+        <v>73612947000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1672406160000</v>
+      </c>
+      <c r="B81">
+        <v>1354600</v>
+      </c>
+      <c r="C81">
+        <v>500500</v>
+      </c>
+      <c r="D81">
+        <v>3800</v>
+      </c>
+      <c r="E81">
+        <v>17376475000</v>
+      </c>
+      <c r="F81">
+        <v>8162739000</v>
+      </c>
+      <c r="G81">
+        <v>63660000</v>
+      </c>
+      <c r="H81">
+        <v>1858900</v>
+      </c>
+      <c r="I81">
+        <v>25602874000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2022-12-30T13:16:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>2087888029000</v>
+      </c>
+      <c r="L81">
+        <v>124496000</v>
+      </c>
+      <c r="M81">
+        <v>-854100</v>
+      </c>
+      <c r="N81">
+        <v>-9213736000</v>
+      </c>
+      <c r="O81">
+        <v>-3263700</v>
+      </c>
+      <c r="P81">
+        <v>64399211000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1672406280000</v>
+      </c>
+      <c r="B82">
+        <v>1232200</v>
+      </c>
+      <c r="C82">
+        <v>746500</v>
+      </c>
+      <c r="D82">
+        <v>14500</v>
+      </c>
+      <c r="E82">
+        <v>18028384000</v>
+      </c>
+      <c r="F82">
+        <v>11788666000</v>
+      </c>
+      <c r="G82">
+        <v>217720000</v>
+      </c>
+      <c r="H82">
+        <v>1993200</v>
+      </c>
+      <c r="I82">
+        <v>30034770000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2022-12-30T13:18:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>2117922799000</v>
+      </c>
+      <c r="L82">
+        <v>126489200</v>
+      </c>
+      <c r="M82">
+        <v>-485700</v>
+      </c>
+      <c r="N82">
+        <v>-6239718000</v>
+      </c>
+      <c r="O82">
+        <v>-3749400</v>
+      </c>
+      <c r="P82">
+        <v>58159493000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1672406400000</v>
+      </c>
+      <c r="B83">
+        <v>1565500</v>
+      </c>
+      <c r="C83">
+        <v>1083800</v>
+      </c>
+      <c r="D83">
+        <v>22700</v>
+      </c>
+      <c r="E83">
+        <v>20842343000</v>
+      </c>
+      <c r="F83">
+        <v>18542147000</v>
+      </c>
+      <c r="G83">
+        <v>609095000</v>
+      </c>
+      <c r="H83">
+        <v>2672000</v>
+      </c>
+      <c r="I83">
+        <v>39993585000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2022-12-30T13:20:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>2157916384000</v>
+      </c>
+      <c r="L83">
+        <v>129161200</v>
+      </c>
+      <c r="M83">
+        <v>-481700</v>
+      </c>
+      <c r="N83">
+        <v>-2300196000</v>
+      </c>
+      <c r="O83">
+        <v>-4231100</v>
+      </c>
+      <c r="P83">
+        <v>55859297000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1672406520000</v>
+      </c>
+      <c r="B84">
+        <v>1092800</v>
+      </c>
+      <c r="C84">
+        <v>937500</v>
+      </c>
+      <c r="D84">
+        <v>21300</v>
+      </c>
+      <c r="E84">
+        <v>14404046000</v>
+      </c>
+      <c r="F84">
+        <v>15860293000</v>
+      </c>
+      <c r="G84">
+        <v>303665000</v>
+      </c>
+      <c r="H84">
+        <v>2051600</v>
+      </c>
+      <c r="I84">
+        <v>30568004000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2022-12-30T13:22:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>2188484388000</v>
+      </c>
+      <c r="L84">
+        <v>131212800</v>
+      </c>
+      <c r="M84">
+        <v>-155300</v>
+      </c>
+      <c r="N84">
+        <v>1456247000</v>
+      </c>
+      <c r="O84">
+        <v>-4386400</v>
+      </c>
+      <c r="P84">
+        <v>57315544000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1672406640000</v>
+      </c>
+      <c r="B85">
+        <v>1197300</v>
+      </c>
+      <c r="C85">
+        <v>785400</v>
+      </c>
+      <c r="D85">
+        <v>2300</v>
+      </c>
+      <c r="E85">
+        <v>15896661000</v>
+      </c>
+      <c r="F85">
+        <v>13230997000</v>
+      </c>
+      <c r="G85">
+        <v>28785000</v>
+      </c>
+      <c r="H85">
+        <v>1985000</v>
+      </c>
+      <c r="I85">
+        <v>29156443000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2022-12-30T13:24:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>2217640831000</v>
+      </c>
+      <c r="L85">
+        <v>133197800</v>
+      </c>
+      <c r="M85">
+        <v>-411900</v>
+      </c>
+      <c r="N85">
+        <v>-2665664000</v>
+      </c>
+      <c r="O85">
+        <v>-4798300</v>
+      </c>
+      <c r="P85">
+        <v>54649880000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1672406760000</v>
+      </c>
+      <c r="B86">
+        <v>1678300</v>
+      </c>
+      <c r="C86">
+        <v>743400</v>
+      </c>
+      <c r="D86">
+        <v>25700</v>
+      </c>
+      <c r="E86">
+        <v>27086796000</v>
+      </c>
+      <c r="F86">
+        <v>14531738000</v>
+      </c>
+      <c r="G86">
+        <v>170845000</v>
+      </c>
+      <c r="H86">
+        <v>2447400</v>
+      </c>
+      <c r="I86">
+        <v>41789379000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2022-12-30T13:26:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>2259430210000</v>
+      </c>
+      <c r="L86">
+        <v>135645200</v>
+      </c>
+      <c r="M86">
+        <v>-934900</v>
+      </c>
+      <c r="N86">
+        <v>-12555058000</v>
+      </c>
+      <c r="O86">
+        <v>-5733200</v>
+      </c>
+      <c r="P86">
+        <v>42094822000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1672406880000</v>
+      </c>
+      <c r="B87">
+        <v>937000</v>
+      </c>
+      <c r="C87">
+        <v>1178400</v>
+      </c>
+      <c r="D87">
+        <v>1100</v>
+      </c>
+      <c r="E87">
+        <v>13055465000</v>
+      </c>
+      <c r="F87">
+        <v>21748623000</v>
+      </c>
+      <c r="G87">
+        <v>11916000</v>
+      </c>
+      <c r="H87">
+        <v>2116500</v>
+      </c>
+      <c r="I87">
+        <v>34816004000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2022-12-30T13:28:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>2294246214000</v>
+      </c>
+      <c r="L87">
+        <v>137761700</v>
+      </c>
+      <c r="M87">
+        <v>241400</v>
+      </c>
+      <c r="N87">
+        <v>8693158000</v>
+      </c>
+      <c r="O87">
+        <v>-5491800</v>
+      </c>
+      <c r="P87">
+        <v>50787980000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1672407000000</v>
+      </c>
+      <c r="B88">
+        <v>900700</v>
+      </c>
+      <c r="C88">
+        <v>1293700</v>
+      </c>
+      <c r="D88">
+        <v>25000</v>
+      </c>
+      <c r="E88">
+        <v>12134351000</v>
+      </c>
+      <c r="F88">
+        <v>24061366000</v>
+      </c>
+      <c r="G88">
+        <v>373145000</v>
+      </c>
+      <c r="H88">
+        <v>2219400</v>
+      </c>
+      <c r="I88">
+        <v>36568862000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2022-12-30T13:30:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>2330815076000</v>
+      </c>
+      <c r="L88">
+        <v>139981100</v>
+      </c>
+      <c r="M88">
+        <v>393000</v>
+      </c>
+      <c r="N88">
+        <v>11927015000</v>
+      </c>
+      <c r="O88">
+        <v>-5098800</v>
+      </c>
+      <c r="P88">
+        <v>62714995000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1672407120000</v>
+      </c>
+      <c r="B89">
+        <v>759100</v>
+      </c>
+      <c r="C89">
+        <v>1233300</v>
+      </c>
+      <c r="D89">
+        <v>3400</v>
+      </c>
+      <c r="E89">
+        <v>10280019000</v>
+      </c>
+      <c r="F89">
+        <v>18712480000</v>
+      </c>
+      <c r="G89">
+        <v>28443000</v>
+      </c>
+      <c r="H89">
+        <v>1995800</v>
+      </c>
+      <c r="I89">
+        <v>29020942000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2022-12-30T13:32:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>2359836018000</v>
+      </c>
+      <c r="L89">
+        <v>141976900</v>
+      </c>
+      <c r="M89">
+        <v>474200</v>
+      </c>
+      <c r="N89">
+        <v>8432461000</v>
+      </c>
+      <c r="O89">
+        <v>-4624600</v>
+      </c>
+      <c r="P89">
+        <v>71147456000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1672407240000</v>
+      </c>
+      <c r="B90">
+        <v>909900</v>
+      </c>
+      <c r="C90">
+        <v>1382400</v>
+      </c>
+      <c r="D90">
+        <v>23000</v>
+      </c>
+      <c r="E90">
+        <v>10335310000</v>
+      </c>
+      <c r="F90">
+        <v>24226773000</v>
+      </c>
+      <c r="G90">
+        <v>307695000</v>
+      </c>
+      <c r="H90">
+        <v>2315300</v>
+      </c>
+      <c r="I90">
+        <v>34869778000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2022-12-30T13:34:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>2394705796000</v>
+      </c>
+      <c r="L90">
+        <v>144292200</v>
+      </c>
+      <c r="M90">
+        <v>472500</v>
+      </c>
+      <c r="N90">
+        <v>13891463000</v>
+      </c>
+      <c r="O90">
+        <v>-4152100</v>
+      </c>
+      <c r="P90">
+        <v>85038919000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1672407360000</v>
+      </c>
+      <c r="B91">
+        <v>809000</v>
+      </c>
+      <c r="C91">
+        <v>1146300</v>
+      </c>
+      <c r="D91">
+        <v>32000</v>
+      </c>
+      <c r="E91">
+        <v>12181890000</v>
+      </c>
+      <c r="F91">
+        <v>20712202000</v>
+      </c>
+      <c r="G91">
+        <v>279387000</v>
+      </c>
+      <c r="H91">
+        <v>1987300</v>
+      </c>
+      <c r="I91">
+        <v>33173479000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2022-12-30T13:36:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>2427879275000</v>
+      </c>
+      <c r="L91">
+        <v>146279500</v>
+      </c>
+      <c r="M91">
+        <v>337300</v>
+      </c>
+      <c r="N91">
+        <v>8530312000</v>
+      </c>
+      <c r="O91">
+        <v>-3814800</v>
+      </c>
+      <c r="P91">
+        <v>93569231000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1672407480000</v>
+      </c>
+      <c r="B92">
+        <v>690400</v>
+      </c>
+      <c r="C92">
+        <v>1760900</v>
+      </c>
+      <c r="D92">
+        <v>7000</v>
+      </c>
+      <c r="E92">
+        <v>9602352000</v>
+      </c>
+      <c r="F92">
+        <v>27826968000</v>
+      </c>
+      <c r="G92">
+        <v>64234000</v>
+      </c>
+      <c r="H92">
+        <v>2458300</v>
+      </c>
+      <c r="I92">
+        <v>37493554000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2022-12-30T13:38:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>2465372829000</v>
+      </c>
+      <c r="L92">
+        <v>148737800</v>
+      </c>
+      <c r="M92">
+        <v>1070500</v>
+      </c>
+      <c r="N92">
+        <v>18224616000</v>
+      </c>
+      <c r="O92">
+        <v>-2744300</v>
+      </c>
+      <c r="P92">
+        <v>111793847000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1672407600000</v>
+      </c>
+      <c r="B93">
+        <v>607400</v>
+      </c>
+      <c r="C93">
+        <v>2796800</v>
+      </c>
+      <c r="D93">
+        <v>55200</v>
+      </c>
+      <c r="E93">
+        <v>10185595000</v>
+      </c>
+      <c r="F93">
+        <v>38694857000</v>
+      </c>
+      <c r="G93">
+        <v>572138000</v>
+      </c>
+      <c r="H93">
+        <v>3459400</v>
+      </c>
+      <c r="I93">
+        <v>49452590000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2022-12-30T13:40:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>2514825419000</v>
+      </c>
+      <c r="L93">
+        <v>152197200</v>
+      </c>
+      <c r="M93">
+        <v>2189400</v>
+      </c>
+      <c r="N93">
+        <v>28509262000</v>
+      </c>
+      <c r="O93">
+        <v>-554900</v>
+      </c>
+      <c r="P93">
+        <v>140303109000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1672407720000</v>
+      </c>
+      <c r="B94">
+        <v>1042000</v>
+      </c>
+      <c r="C94">
+        <v>2464700</v>
+      </c>
+      <c r="D94">
+        <v>7400</v>
+      </c>
+      <c r="E94">
+        <v>15351953000</v>
+      </c>
+      <c r="F94">
+        <v>38887599000</v>
+      </c>
+      <c r="G94">
+        <v>103383000</v>
+      </c>
+      <c r="H94">
+        <v>3514100</v>
+      </c>
+      <c r="I94">
+        <v>54342935000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2022-12-30T13:42:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>2569168354000</v>
+      </c>
+      <c r="L94">
+        <v>155711300</v>
+      </c>
+      <c r="M94">
+        <v>1422700</v>
+      </c>
+      <c r="N94">
+        <v>23535646000</v>
+      </c>
+      <c r="O94">
+        <v>867800</v>
+      </c>
+      <c r="P94">
+        <v>163838755000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1672407840000</v>
+      </c>
+      <c r="B95">
+        <v>1201600</v>
+      </c>
+      <c r="C95">
+        <v>2354300</v>
+      </c>
+      <c r="D95">
+        <v>30100</v>
+      </c>
+      <c r="E95">
+        <v>17871667000</v>
+      </c>
+      <c r="F95">
+        <v>33350296000</v>
+      </c>
+      <c r="G95">
+        <v>469873000</v>
+      </c>
+      <c r="H95">
+        <v>3586000</v>
+      </c>
+      <c r="I95">
+        <v>51691836000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2022-12-30T13:44:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>2620860190000</v>
+      </c>
+      <c r="L95">
+        <v>159297300</v>
+      </c>
+      <c r="M95">
+        <v>1152700</v>
+      </c>
+      <c r="N95">
+        <v>15478629000</v>
+      </c>
+      <c r="O95">
+        <v>2020500</v>
+      </c>
+      <c r="P95">
+        <v>179317384000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1672407960000</v>
+      </c>
+      <c r="B96">
+        <v>1121000</v>
+      </c>
+      <c r="C96">
+        <v>2615200</v>
+      </c>
+      <c r="D96">
+        <v>9300</v>
+      </c>
+      <c r="E96">
+        <v>16514521000</v>
+      </c>
+      <c r="F96">
+        <v>32890235000</v>
+      </c>
+      <c r="G96">
+        <v>114971000</v>
+      </c>
+      <c r="H96">
+        <v>3745500</v>
+      </c>
+      <c r="I96">
+        <v>49519727000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2022-12-30T13:46:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>2670379917000</v>
+      </c>
+      <c r="L96">
+        <v>163042800</v>
+      </c>
+      <c r="M96">
+        <v>1494200</v>
+      </c>
+      <c r="N96">
+        <v>16375714000</v>
+      </c>
+      <c r="O96">
+        <v>3514700</v>
+      </c>
+      <c r="P96">
+        <v>195693098000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1672408080000</v>
+      </c>
+      <c r="B97">
+        <v>1567400</v>
+      </c>
+      <c r="C97">
+        <v>1929000</v>
+      </c>
+      <c r="D97">
+        <v>24000</v>
+      </c>
+      <c r="E97">
+        <v>20979077000</v>
+      </c>
+      <c r="F97">
+        <v>27059344000</v>
+      </c>
+      <c r="G97">
+        <v>330684000</v>
+      </c>
+      <c r="H97">
+        <v>3520400</v>
+      </c>
+      <c r="I97">
+        <v>48369105000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2022-12-30T13:48:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>2718749022000</v>
+      </c>
+      <c r="L97">
+        <v>166563200</v>
+      </c>
+      <c r="M97">
+        <v>361600</v>
+      </c>
+      <c r="N97">
+        <v>6080267000</v>
+      </c>
+      <c r="O97">
+        <v>3876300</v>
+      </c>
+      <c r="P97">
+        <v>201773365000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1672408200000</v>
+      </c>
+      <c r="B98">
+        <v>2065700</v>
+      </c>
+      <c r="C98">
+        <v>1934900</v>
+      </c>
+      <c r="D98">
+        <v>11800</v>
+      </c>
+      <c r="E98">
+        <v>31694706000</v>
+      </c>
+      <c r="F98">
+        <v>28521427000</v>
+      </c>
+      <c r="G98">
+        <v>198029000</v>
+      </c>
+      <c r="H98">
+        <v>4012400</v>
+      </c>
+      <c r="I98">
+        <v>60414162000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2022-12-30T13:50:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>2779163184000</v>
+      </c>
+      <c r="L98">
+        <v>170575600</v>
+      </c>
+      <c r="M98">
+        <v>-130800</v>
+      </c>
+      <c r="N98">
+        <v>-3173279000</v>
+      </c>
+      <c r="O98">
+        <v>3745500</v>
+      </c>
+      <c r="P98">
+        <v>198600086000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1672408320000</v>
+      </c>
+      <c r="B99">
+        <v>2360000</v>
+      </c>
+      <c r="C99">
+        <v>1166700</v>
+      </c>
+      <c r="D99">
+        <v>12000</v>
+      </c>
+      <c r="E99">
+        <v>34184401000</v>
+      </c>
+      <c r="F99">
+        <v>19990424000</v>
+      </c>
+      <c r="G99">
+        <v>140499000</v>
+      </c>
+      <c r="H99">
+        <v>3538700</v>
+      </c>
+      <c r="I99">
+        <v>54315324000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2022-12-30T13:52:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>2833478508000</v>
+      </c>
+      <c r="L99">
+        <v>174114300</v>
+      </c>
+      <c r="M99">
+        <v>-1193300</v>
+      </c>
+      <c r="N99">
+        <v>-14193977000</v>
+      </c>
+      <c r="O99">
+        <v>2552200</v>
+      </c>
+      <c r="P99">
+        <v>184406109000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1672408440000</v>
+      </c>
+      <c r="B100">
+        <v>1786500</v>
+      </c>
+      <c r="C100">
+        <v>985400</v>
+      </c>
+      <c r="D100">
+        <v>15200</v>
+      </c>
+      <c r="E100">
+        <v>28411697000</v>
+      </c>
+      <c r="F100">
+        <v>18105822000</v>
+      </c>
+      <c r="G100">
+        <v>278542000</v>
+      </c>
+      <c r="H100">
+        <v>2787100</v>
+      </c>
+      <c r="I100">
+        <v>46796061000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2022-12-30T13:54:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>2880274569000</v>
+      </c>
+      <c r="L100">
+        <v>176901400</v>
+      </c>
+      <c r="M100">
+        <v>-801100</v>
+      </c>
+      <c r="N100">
+        <v>-10305875000</v>
+      </c>
+      <c r="O100">
+        <v>1751100</v>
+      </c>
+      <c r="P100">
+        <v>174100234000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1672408560000</v>
+      </c>
+      <c r="B101">
+        <v>2750800</v>
+      </c>
+      <c r="C101">
+        <v>1267700</v>
+      </c>
+      <c r="D101">
+        <v>27900</v>
+      </c>
+      <c r="E101">
+        <v>39271299000</v>
+      </c>
+      <c r="F101">
+        <v>21413403000</v>
+      </c>
+      <c r="G101">
+        <v>305802000</v>
+      </c>
+      <c r="H101">
+        <v>4046400</v>
+      </c>
+      <c r="I101">
+        <v>60990504000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2022-12-30T13:56:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>2941265073000</v>
+      </c>
+      <c r="L101">
+        <v>180947800</v>
+      </c>
+      <c r="M101">
+        <v>-1483100</v>
+      </c>
+      <c r="N101">
+        <v>-17857896000</v>
+      </c>
+      <c r="O101">
+        <v>268000</v>
+      </c>
+      <c r="P101">
+        <v>156242338000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1672408680000</v>
+      </c>
+      <c r="B102">
+        <v>1744900</v>
+      </c>
+      <c r="C102">
+        <v>918000</v>
+      </c>
+      <c r="D102">
+        <v>23900</v>
+      </c>
+      <c r="E102">
+        <v>25958403000</v>
+      </c>
+      <c r="F102">
+        <v>15549600000</v>
+      </c>
+      <c r="G102">
+        <v>649762000</v>
+      </c>
+      <c r="H102">
+        <v>2686800</v>
+      </c>
+      <c r="I102">
+        <v>42157765000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2022-12-30T13:58:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>2983422838000</v>
+      </c>
+      <c r="L102">
+        <v>183634600</v>
+      </c>
+      <c r="M102">
+        <v>-826900</v>
+      </c>
+      <c r="N102">
+        <v>-10408803000</v>
+      </c>
+      <c r="O102">
+        <v>-558900</v>
+      </c>
+      <c r="P102">
+        <v>145833535000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1672408800000</v>
+      </c>
+      <c r="B103">
+        <v>1256900</v>
+      </c>
+      <c r="C103">
+        <v>1538000</v>
+      </c>
+      <c r="D103">
+        <v>11500</v>
+      </c>
+      <c r="E103">
+        <v>20984333000</v>
+      </c>
+      <c r="F103">
+        <v>24634206000</v>
+      </c>
+      <c r="G103">
+        <v>214011000</v>
+      </c>
+      <c r="H103">
+        <v>2806400</v>
+      </c>
+      <c r="I103">
+        <v>45832550000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2022-12-30T14:00:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>3029255388000</v>
+      </c>
+      <c r="L103">
+        <v>186441000</v>
+      </c>
+      <c r="M103">
+        <v>281100</v>
+      </c>
+      <c r="N103">
+        <v>3649873000</v>
+      </c>
+      <c r="O103">
+        <v>-277800</v>
+      </c>
+      <c r="P103">
+        <v>149483408000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1672408920000</v>
+      </c>
+      <c r="B104">
+        <v>1287000</v>
+      </c>
+      <c r="C104">
+        <v>1158200</v>
+      </c>
+      <c r="D104">
+        <v>127800</v>
+      </c>
+      <c r="E104">
+        <v>19504597000</v>
+      </c>
+      <c r="F104">
+        <v>17128708000</v>
+      </c>
+      <c r="G104">
+        <v>1376180000</v>
+      </c>
+      <c r="H104">
+        <v>2573000</v>
+      </c>
+      <c r="I104">
+        <v>38009485000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2022-12-30T14:02:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>3067264873000</v>
+      </c>
+      <c r="L104">
+        <v>189014000</v>
+      </c>
+      <c r="M104">
+        <v>-128800</v>
+      </c>
+      <c r="N104">
+        <v>-2375889000</v>
+      </c>
+      <c r="O104">
+        <v>-406600</v>
+      </c>
+      <c r="P104">
+        <v>147107519000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1672409040000</v>
+      </c>
+      <c r="B105">
+        <v>1388300</v>
+      </c>
+      <c r="C105">
+        <v>1911200</v>
+      </c>
+      <c r="D105">
+        <v>33600</v>
+      </c>
+      <c r="E105">
+        <v>20538896000</v>
+      </c>
+      <c r="F105">
+        <v>31392044000</v>
+      </c>
+      <c r="G105">
+        <v>842001000</v>
+      </c>
+      <c r="H105">
+        <v>3333100</v>
+      </c>
+      <c r="I105">
+        <v>52772941000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2022-12-30T14:04:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>3120037814000</v>
+      </c>
+      <c r="L105">
+        <v>192347100</v>
+      </c>
+      <c r="M105">
+        <v>522900</v>
+      </c>
+      <c r="N105">
+        <v>10853148000</v>
+      </c>
+      <c r="O105">
+        <v>116300</v>
+      </c>
+      <c r="P105">
+        <v>157960667000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1672409160000</v>
+      </c>
+      <c r="B106">
+        <v>831000</v>
+      </c>
+      <c r="C106">
+        <v>1848600</v>
+      </c>
+      <c r="D106">
+        <v>30700</v>
+      </c>
+      <c r="E106">
+        <v>14327083000</v>
+      </c>
+      <c r="F106">
+        <v>28364350000</v>
+      </c>
+      <c r="G106">
+        <v>212507000</v>
+      </c>
+      <c r="H106">
+        <v>2710300</v>
+      </c>
+      <c r="I106">
+        <v>42903940000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2022-12-30T14:06:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>3162941754000</v>
+      </c>
+      <c r="L106">
+        <v>195057400</v>
+      </c>
+      <c r="M106">
+        <v>1017600</v>
+      </c>
+      <c r="N106">
+        <v>14037267000</v>
+      </c>
+      <c r="O106">
+        <v>1133900</v>
+      </c>
+      <c r="P106">
+        <v>171997934000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1672409280000</v>
+      </c>
+      <c r="B107">
+        <v>1228900</v>
+      </c>
+      <c r="C107">
+        <v>1999200</v>
+      </c>
+      <c r="D107">
+        <v>12800</v>
+      </c>
+      <c r="E107">
+        <v>17559694000</v>
+      </c>
+      <c r="F107">
+        <v>27252983000</v>
+      </c>
+      <c r="G107">
+        <v>208620000</v>
+      </c>
+      <c r="H107">
+        <v>3240900</v>
+      </c>
+      <c r="I107">
+        <v>45021297000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2022-12-30T14:08:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>3207963051000</v>
+      </c>
+      <c r="L107">
+        <v>198298300</v>
+      </c>
+      <c r="M107">
+        <v>770300</v>
+      </c>
+      <c r="N107">
+        <v>9693289000</v>
+      </c>
+      <c r="O107">
+        <v>1904200</v>
+      </c>
+      <c r="P107">
+        <v>181691223000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1672409400000</v>
+      </c>
+      <c r="B108">
+        <v>1333600</v>
+      </c>
+      <c r="C108">
+        <v>4247900</v>
+      </c>
+      <c r="D108">
+        <v>22500</v>
+      </c>
+      <c r="E108">
+        <v>22927467000</v>
+      </c>
+      <c r="F108">
+        <v>58804886000</v>
+      </c>
+      <c r="G108">
+        <v>264225000</v>
+      </c>
+      <c r="H108">
+        <v>5604000</v>
+      </c>
+      <c r="I108">
+        <v>81996578000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2022-12-30T14:10:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>3289959629000</v>
+      </c>
+      <c r="L108">
+        <v>203902300</v>
+      </c>
+      <c r="M108">
+        <v>2914300</v>
+      </c>
+      <c r="N108">
+        <v>35877419000</v>
+      </c>
+      <c r="O108">
+        <v>4818500</v>
+      </c>
+      <c r="P108">
+        <v>217568642000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1672409520000</v>
+      </c>
+      <c r="B109">
+        <v>1264100</v>
+      </c>
+      <c r="C109">
+        <v>3377600</v>
+      </c>
+      <c r="D109">
+        <v>3900</v>
+      </c>
+      <c r="E109">
+        <v>19516277000</v>
+      </c>
+      <c r="F109">
+        <v>57179624000</v>
+      </c>
+      <c r="G109">
+        <v>74208000</v>
+      </c>
+      <c r="H109">
+        <v>4645600</v>
+      </c>
+      <c r="I109">
+        <v>76770109000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2022-12-30T14:12:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>3366729738000</v>
+      </c>
+      <c r="L109">
+        <v>208547900</v>
+      </c>
+      <c r="M109">
+        <v>2113500</v>
+      </c>
+      <c r="N109">
+        <v>37663347000</v>
+      </c>
+      <c r="O109">
+        <v>6932000</v>
+      </c>
+      <c r="P109">
+        <v>255231989000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1672409640000</v>
+      </c>
+      <c r="B110">
+        <v>1404400</v>
+      </c>
+      <c r="C110">
+        <v>3657800</v>
+      </c>
+      <c r="D110">
+        <v>4700</v>
+      </c>
+      <c r="E110">
+        <v>23197582000</v>
+      </c>
+      <c r="F110">
+        <v>57740401000</v>
+      </c>
+      <c r="G110">
+        <v>68580000</v>
+      </c>
+      <c r="H110">
+        <v>5066900</v>
+      </c>
+      <c r="I110">
+        <v>81006563000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2022-12-30T14:14:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>3447736301000</v>
+      </c>
+      <c r="L110">
+        <v>213614800</v>
+      </c>
+      <c r="M110">
+        <v>2253400</v>
+      </c>
+      <c r="N110">
+        <v>34542819000</v>
+      </c>
+      <c r="O110">
+        <v>9185400</v>
+      </c>
+      <c r="P110">
+        <v>289774808000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1672409760000</v>
+      </c>
+      <c r="B111">
+        <v>2719900</v>
+      </c>
+      <c r="C111">
+        <v>2846600</v>
+      </c>
+      <c r="D111">
+        <v>19900</v>
+      </c>
+      <c r="E111">
+        <v>45130643000</v>
+      </c>
+      <c r="F111">
+        <v>51186854000</v>
+      </c>
+      <c r="G111">
+        <v>279763000</v>
+      </c>
+      <c r="H111">
+        <v>5586400</v>
+      </c>
+      <c r="I111">
+        <v>96597260000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2022-12-30T14:16:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>3544333561000</v>
+      </c>
+      <c r="L111">
+        <v>219201200</v>
+      </c>
+      <c r="M111">
+        <v>126700</v>
+      </c>
+      <c r="N111">
+        <v>6056211000</v>
+      </c>
+      <c r="O111">
+        <v>9312100</v>
+      </c>
+      <c r="P111">
+        <v>295831019000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1672409880000</v>
+      </c>
+      <c r="B112">
+        <v>2385000</v>
+      </c>
+      <c r="C112">
+        <v>3576200</v>
+      </c>
+      <c r="D112">
+        <v>28400</v>
+      </c>
+      <c r="E112">
+        <v>36818079000</v>
+      </c>
+      <c r="F112">
+        <v>57785174000</v>
+      </c>
+      <c r="G112">
+        <v>443550000</v>
+      </c>
+      <c r="H112">
+        <v>5989600</v>
+      </c>
+      <c r="I112">
+        <v>95046803000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2022-12-30T14:18:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>3639380364000</v>
+      </c>
+      <c r="L112">
+        <v>225190800</v>
+      </c>
+      <c r="M112">
+        <v>1191200</v>
+      </c>
+      <c r="N112">
+        <v>20967095000</v>
+      </c>
+      <c r="O112">
+        <v>10503300</v>
+      </c>
+      <c r="P112">
+        <v>316798114000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1672410000000</v>
+      </c>
+      <c r="B113">
+        <v>2806000</v>
+      </c>
+      <c r="C113">
+        <v>3054700</v>
+      </c>
+      <c r="D113">
+        <v>17400</v>
+      </c>
+      <c r="E113">
+        <v>51205724000</v>
+      </c>
+      <c r="F113">
+        <v>58089965000</v>
+      </c>
+      <c r="G113">
+        <v>391073000</v>
+      </c>
+      <c r="H113">
+        <v>5878100</v>
+      </c>
+      <c r="I113">
+        <v>109686762000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2022-12-30T14:20:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>3749067126000</v>
+      </c>
+      <c r="L113">
+        <v>231068900</v>
+      </c>
+      <c r="M113">
+        <v>248700</v>
+      </c>
+      <c r="N113">
+        <v>6884241000</v>
+      </c>
+      <c r="O113">
+        <v>10752000</v>
+      </c>
+      <c r="P113">
+        <v>323682355000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1672410120000</v>
+      </c>
+      <c r="B114">
+        <v>2969100</v>
+      </c>
+      <c r="C114">
+        <v>4670900</v>
+      </c>
+      <c r="D114">
+        <v>19800</v>
+      </c>
+      <c r="E114">
+        <v>47075748000</v>
+      </c>
+      <c r="F114">
+        <v>84229472000</v>
+      </c>
+      <c r="G114">
+        <v>176901000</v>
+      </c>
+      <c r="H114">
+        <v>7659800</v>
+      </c>
+      <c r="I114">
+        <v>131482121000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2022-12-30T14:22:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>3880549247000</v>
+      </c>
+      <c r="L114">
+        <v>238728700</v>
+      </c>
+      <c r="M114">
+        <v>1701800</v>
+      </c>
+      <c r="N114">
+        <v>37153724000</v>
+      </c>
+      <c r="O114">
+        <v>12453800</v>
+      </c>
+      <c r="P114">
+        <v>360836079000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1672410240000</v>
+      </c>
+      <c r="B115">
+        <v>3670400</v>
+      </c>
+      <c r="C115">
+        <v>3895000</v>
+      </c>
+      <c r="D115">
+        <v>34600</v>
+      </c>
+      <c r="E115">
+        <v>55446891000</v>
+      </c>
+      <c r="F115">
+        <v>76576277000</v>
+      </c>
+      <c r="G115">
+        <v>325433000</v>
+      </c>
+      <c r="H115">
+        <v>7600000</v>
+      </c>
+      <c r="I115">
+        <v>132348601000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2022-12-30T14:24:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>4012897848000</v>
+      </c>
+      <c r="L115">
+        <v>246328700</v>
+      </c>
+      <c r="M115">
+        <v>224600</v>
+      </c>
+      <c r="N115">
+        <v>21129386000</v>
+      </c>
+      <c r="O115">
+        <v>12678400</v>
+      </c>
+      <c r="P115">
+        <v>381965465000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1672410360000</v>
+      </c>
+      <c r="B116">
+        <v>4975400</v>
+      </c>
+      <c r="C116">
+        <v>4693300</v>
+      </c>
+      <c r="D116">
+        <v>95600</v>
+      </c>
+      <c r="E116">
+        <v>74872294000</v>
+      </c>
+      <c r="F116">
+        <v>88926652000</v>
+      </c>
+      <c r="G116">
+        <v>1914464000</v>
+      </c>
+      <c r="H116">
+        <v>9764300</v>
+      </c>
+      <c r="I116">
+        <v>165713410000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2022-12-30T14:26:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>4178611258000</v>
+      </c>
+      <c r="L116">
+        <v>256093000</v>
+      </c>
+      <c r="M116">
+        <v>-282100</v>
+      </c>
+      <c r="N116">
+        <v>14054358000</v>
+      </c>
+      <c r="O116">
+        <v>12396300</v>
+      </c>
+      <c r="P116">
+        <v>396019823000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1672410480000</v>
+      </c>
+      <c r="B117">
+        <v>6684300</v>
+      </c>
+      <c r="C117">
+        <v>4278000</v>
+      </c>
+      <c r="D117">
+        <v>102600</v>
+      </c>
+      <c r="E117">
+        <v>94978565000</v>
+      </c>
+      <c r="F117">
+        <v>77603503000</v>
+      </c>
+      <c r="G117">
+        <v>1916651000</v>
+      </c>
+      <c r="H117">
+        <v>11064900</v>
+      </c>
+      <c r="I117">
+        <v>174498719000</v>
+      </c>
+      <c r="J117" t="str">
+        <v>2022-12-30T14:28:00.000Z</v>
+      </c>
+      <c r="K117">
+        <v>4353109977000</v>
+      </c>
+      <c r="L117">
+        <v>267157900</v>
+      </c>
+      <c r="M117">
+        <v>-2406300</v>
+      </c>
+      <c r="N117">
+        <v>-17375062000</v>
+      </c>
+      <c r="O117">
+        <v>9990000</v>
+      </c>
+      <c r="P117">
+        <v>378644761000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>1672410600000</v>
+      </c>
+      <c r="B118">
+        <v>17600</v>
+      </c>
+      <c r="C118">
+        <v>86100</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>206536000</v>
+      </c>
+      <c r="F118">
+        <v>1796190000</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>103700</v>
+      </c>
+      <c r="I118">
+        <v>2002726000</v>
+      </c>
+      <c r="J118" t="str">
+        <v>2022-12-30T14:30:00.000Z</v>
+      </c>
+      <c r="K118">
+        <v>4355112703000</v>
+      </c>
+      <c r="L118">
+        <v>267261600</v>
+      </c>
+      <c r="M118">
+        <v>68500</v>
+      </c>
+      <c r="N118">
+        <v>1589654000</v>
+      </c>
+      <c r="O118">
+        <v>10058500</v>
+      </c>
+      <c r="P118">
+        <v>380234415000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>1672411080000</v>
+      </c>
+      <c r="B119">
+        <v>100</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>1150000</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>100</v>
+      </c>
+      <c r="I119">
+        <v>1150000</v>
+      </c>
+      <c r="J119" t="str">
+        <v>2022-12-30T14:38:00.000Z</v>
+      </c>
+      <c r="K119">
+        <v>4355113853000</v>
+      </c>
+      <c r="L119">
+        <v>267261700</v>
+      </c>
+      <c r="M119">
+        <v>-100</v>
+      </c>
+      <c r="N119">
+        <v>-1150000</v>
+      </c>
+      <c r="O119">
+        <v>10058400</v>
+      </c>
+      <c r="P119">
+        <v>380233265000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>1672411200000</v>
+      </c>
+      <c r="B120">
+        <v>7000</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>80500000</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>7000</v>
+      </c>
+      <c r="I120">
+        <v>80500000</v>
+      </c>
+      <c r="J120" t="str">
+        <v>2022-12-30T14:40:00.000Z</v>
+      </c>
+      <c r="K120">
+        <v>4355194353000</v>
+      </c>
+      <c r="L120">
+        <v>267268700</v>
+      </c>
+      <c r="M120">
+        <v>-7000</v>
+      </c>
+      <c r="N120">
+        <v>-80500000</v>
+      </c>
+      <c r="O120">
+        <v>10051400</v>
+      </c>
+      <c r="P120">
+        <v>380152765000</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>1672411320000</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>500</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>5800000</v>
+      </c>
+      <c r="H121">
+        <v>500</v>
+      </c>
+      <c r="I121">
+        <v>5800000</v>
+      </c>
+      <c r="J121" t="str">
+        <v>2022-12-30T14:42:00.000Z</v>
+      </c>
+      <c r="K121">
+        <v>4355200153000</v>
+      </c>
+      <c r="L121">
+        <v>267269200</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>10051400</v>
+      </c>
+      <c r="P121">
+        <v>380152765000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>1672411440000</v>
+      </c>
+      <c r="B122">
+        <v>11338300</v>
+      </c>
+      <c r="C122">
+        <v>7480600</v>
+      </c>
+      <c r="D122">
+        <v>39230700</v>
+      </c>
+      <c r="E122">
+        <v>230589599000</v>
+      </c>
+      <c r="F122">
+        <v>152178627000</v>
+      </c>
+      <c r="G122">
+        <v>812143124000</v>
+      </c>
+      <c r="H122">
+        <v>58049600</v>
+      </c>
+      <c r="I122">
+        <v>1194911350000</v>
+      </c>
+      <c r="J122" t="str">
+        <v>2022-12-30T14:44:00.000Z</v>
+      </c>
+      <c r="K122">
+        <v>5550111503000</v>
+      </c>
+      <c r="L122">
+        <v>325318800</v>
+      </c>
+      <c r="M122">
+        <v>-3857700</v>
+      </c>
+      <c r="N122">
+        <v>-78410972000</v>
+      </c>
+      <c r="O122">
+        <v>6193700</v>
+      </c>
+      <c r="P122">
+        <v>301741793000</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>1672411560000</v>
+      </c>
+      <c r="B123">
+        <v>500</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>1400</v>
+      </c>
+      <c r="E123">
+        <v>5850000</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>16379999.999999998</v>
+      </c>
+      <c r="H123">
+        <v>1900</v>
+      </c>
+      <c r="I123">
+        <v>22230000</v>
+      </c>
+      <c r="J123" t="str">
+        <v>2022-12-30T14:46:00.000Z</v>
+      </c>
+      <c r="K123">
+        <v>5550133733000</v>
+      </c>
+      <c r="L123">
+        <v>325320700</v>
+      </c>
+      <c r="M123">
+        <v>-500</v>
+      </c>
+      <c r="N123">
+        <v>-5850000</v>
+      </c>
+      <c r="O123">
+        <v>6193200</v>
+      </c>
+      <c r="P123">
+        <v>301735943000</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>1672411680000</v>
+      </c>
+      <c r="B124">
+        <v>300</v>
+      </c>
+      <c r="C124">
+        <v>300</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>3510000</v>
+      </c>
+      <c r="F124">
+        <v>3540000</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>600</v>
+      </c>
+      <c r="I124">
+        <v>7050000</v>
+      </c>
+      <c r="J124" t="str">
+        <v>2022-12-30T14:48:00.000Z</v>
+      </c>
+      <c r="K124">
+        <v>5550140783000</v>
+      </c>
+      <c r="L124">
+        <v>325321300</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>30000</v>
+      </c>
+      <c r="O124">
+        <v>6193200</v>
+      </c>
+      <c r="P124">
+        <v>301735973000</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>1672411800000</v>
+      </c>
+      <c r="B125">
+        <v>2300</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>26680000</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>2300</v>
+      </c>
+      <c r="I125">
+        <v>26680000</v>
+      </c>
+      <c r="J125" t="str">
+        <v>2022-12-30T14:50:00.000Z</v>
+      </c>
+      <c r="K125">
+        <v>5550167463000</v>
+      </c>
+      <c r="L125">
+        <v>325323600</v>
+      </c>
+      <c r="M125">
+        <v>-2300</v>
+      </c>
+      <c r="N125">
+        <v>-26680000</v>
+      </c>
+      <c r="O125">
+        <v>6190900</v>
+      </c>
+      <c r="P125">
+        <v>301709293000</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>1672411920000</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>2200</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>25740000</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>2200</v>
+      </c>
+      <c r="I126">
+        <v>25740000</v>
+      </c>
+      <c r="J126" t="str">
+        <v>2022-12-30T14:52:00.000Z</v>
+      </c>
+      <c r="K126">
+        <v>5550193203000</v>
+      </c>
+      <c r="L126">
+        <v>325325800</v>
+      </c>
+      <c r="M126">
+        <v>2200</v>
+      </c>
+      <c r="N126">
+        <v>25740000</v>
+      </c>
+      <c r="O126">
+        <v>6193100</v>
+      </c>
+      <c r="P126">
+        <v>301735033000</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>1672412040000</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>400</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>4720000</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>400</v>
+      </c>
+      <c r="I127">
+        <v>4720000</v>
+      </c>
+      <c r="J127" t="str">
+        <v>2022-12-30T14:54:00.000Z</v>
+      </c>
+      <c r="K127">
+        <v>5550197923000</v>
+      </c>
+      <c r="L127">
+        <v>325326200</v>
+      </c>
+      <c r="M127">
+        <v>400</v>
+      </c>
+      <c r="N127">
+        <v>4720000</v>
+      </c>
+      <c r="O127">
+        <v>6193500</v>
+      </c>
+      <c r="P127">
+        <v>301739753000</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>1672412160000</v>
+      </c>
+      <c r="B128">
+        <v>8600</v>
+      </c>
+      <c r="C128">
+        <v>700</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>100620000</v>
+      </c>
+      <c r="F128">
+        <v>8260000</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>9300</v>
+      </c>
+      <c r="I128">
+        <v>108880000</v>
+      </c>
+      <c r="J128" t="str">
+        <v>2022-12-30T14:56:00.000Z</v>
+      </c>
+      <c r="K128">
+        <v>5550306803000</v>
+      </c>
+      <c r="L128">
+        <v>325335500</v>
+      </c>
+      <c r="M128">
+        <v>-7900</v>
+      </c>
+      <c r="N128">
+        <v>-92360000</v>
+      </c>
+      <c r="O128">
+        <v>6185600</v>
+      </c>
+      <c r="P128">
+        <v>301647393000</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>1672412280000</v>
+      </c>
+      <c r="B129">
+        <v>4100</v>
+      </c>
+      <c r="C129">
+        <v>520000</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>47970000</v>
+      </c>
+      <c r="F129">
+        <v>7016000000</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>524100</v>
+      </c>
+      <c r="I129">
+        <v>7063970000</v>
+      </c>
+      <c r="J129" t="str">
+        <v>2022-12-30T14:58:00.000Z</v>
+      </c>
+      <c r="K129">
         <v>5557370773000</v>
       </c>
-      <c r="L55">
+      <c r="L129">
         <v>325859600</v>
       </c>
-      <c r="M55">
-        <v>508400</v>
-      </c>
-      <c r="N55">
-        <v>6880390000</v>
-      </c>
-      <c r="O55">
+      <c r="M129">
+        <v>515900</v>
+      </c>
+      <c r="N129">
+        <v>6968030000</v>
+      </c>
+      <c r="O129">
         <v>6701500</v>
       </c>
-      <c r="P55">
+      <c r="P129">
         <v>308615423000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P55"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P129"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20221230/VNINDEX_HOSE_5p_20221230.xlsx
+++ b/name/vnindex/20221230/VNINDEX_HOSE_5p_20221230.xlsx
@@ -566,25 +566,25 @@
         <v>1782600</v>
       </c>
       <c r="E4">
-        <v>18036987000</v>
+        <v>17360164500</v>
       </c>
       <c r="F4">
-        <v>23888650000</v>
+        <v>19717025800</v>
       </c>
       <c r="G4">
-        <v>31787288000</v>
+        <v>23424659000</v>
       </c>
       <c r="H4">
         <v>4479300</v>
       </c>
       <c r="I4">
-        <v>73712925000</v>
+        <v>60501849300</v>
       </c>
       <c r="J4" t="str">
         <v>2022-12-30T09:14:00.000Z</v>
       </c>
       <c r="K4">
-        <v>73720065000</v>
+        <v>60508989300</v>
       </c>
       <c r="L4">
         <v>4479900</v>
@@ -593,13 +593,13 @@
         <v>-83100</v>
       </c>
       <c r="N4">
-        <v>5851663000</v>
+        <v>2356861300</v>
       </c>
       <c r="O4">
         <v>-82500</v>
       </c>
       <c r="P4">
-        <v>5858803000</v>
+        <v>2364001300</v>
       </c>
     </row>
     <row r="5">
@@ -616,10 +616,10 @@
         <v>19000</v>
       </c>
       <c r="E5">
-        <v>17891360000</v>
+        <v>14882072300</v>
       </c>
       <c r="F5">
-        <v>24629123000</v>
+        <v>21533022200</v>
       </c>
       <c r="G5">
         <v>422076000</v>
@@ -628,13 +628,13 @@
         <v>2263100</v>
       </c>
       <c r="I5">
-        <v>42942559000</v>
+        <v>36837170500</v>
       </c>
       <c r="J5" t="str">
         <v>2022-12-30T09:16:00.000Z</v>
       </c>
       <c r="K5">
-        <v>116662624000</v>
+        <v>97346159800</v>
       </c>
       <c r="L5">
         <v>6743000</v>
@@ -643,13 +643,13 @@
         <v>428100</v>
       </c>
       <c r="N5">
-        <v>6737763000</v>
+        <v>6650949900</v>
       </c>
       <c r="O5">
         <v>345600</v>
       </c>
       <c r="P5">
-        <v>12596566000</v>
+        <v>9014951200</v>
       </c>
     </row>
     <row r="6">
@@ -666,25 +666,25 @@
         <v>6200</v>
       </c>
       <c r="E6">
-        <v>16459118000</v>
+        <v>12812168600</v>
       </c>
       <c r="F6">
-        <v>21412508000</v>
+        <v>20047674200</v>
       </c>
       <c r="G6">
-        <v>252845000</v>
+        <v>249248600</v>
       </c>
       <c r="H6">
         <v>1932500</v>
       </c>
       <c r="I6">
-        <v>38124471000</v>
+        <v>33109091400</v>
       </c>
       <c r="J6" t="str">
         <v>2022-12-30T09:18:00.000Z</v>
       </c>
       <c r="K6">
-        <v>154787095000</v>
+        <v>130455251200</v>
       </c>
       <c r="L6">
         <v>8675500</v>
@@ -693,13 +693,13 @@
         <v>58900</v>
       </c>
       <c r="N6">
-        <v>4953390000</v>
+        <v>7235505600</v>
       </c>
       <c r="O6">
         <v>404500</v>
       </c>
       <c r="P6">
-        <v>17549956000</v>
+        <v>16250456800</v>
       </c>
     </row>
     <row r="7">
@@ -716,10 +716,10 @@
         <v>27300</v>
       </c>
       <c r="E7">
-        <v>16226543000</v>
+        <v>14392978400</v>
       </c>
       <c r="F7">
-        <v>13231641000</v>
+        <v>11656218000</v>
       </c>
       <c r="G7">
         <v>323414000</v>
@@ -728,13 +728,13 @@
         <v>1701100</v>
       </c>
       <c r="I7">
-        <v>29781598000</v>
+        <v>26372610400</v>
       </c>
       <c r="J7" t="str">
         <v>2022-12-30T09:20:00.000Z</v>
       </c>
       <c r="K7">
-        <v>184568693000</v>
+        <v>156827861600</v>
       </c>
       <c r="L7">
         <v>10376600</v>
@@ -743,13 +743,13 @@
         <v>-336400</v>
       </c>
       <c r="N7">
-        <v>-2994902000</v>
+        <v>-2736760400</v>
       </c>
       <c r="O7">
         <v>68100</v>
       </c>
       <c r="P7">
-        <v>14555054000</v>
+        <v>13513696400</v>
       </c>
     </row>
     <row r="8">
@@ -766,10 +766,10 @@
         <v>12400</v>
       </c>
       <c r="E8">
-        <v>13656569000</v>
+        <v>13337788100</v>
       </c>
       <c r="F8">
-        <v>19750548000</v>
+        <v>18540259500</v>
       </c>
       <c r="G8">
         <v>231492000</v>
@@ -778,13 +778,13 @@
         <v>1923200</v>
       </c>
       <c r="I8">
-        <v>33638609000</v>
+        <v>32109539600</v>
       </c>
       <c r="J8" t="str">
         <v>2022-12-30T09:22:00.000Z</v>
       </c>
       <c r="K8">
-        <v>218207302000</v>
+        <v>188937401200</v>
       </c>
       <c r="L8">
         <v>12299800</v>
@@ -793,13 +793,13 @@
         <v>-31000</v>
       </c>
       <c r="N8">
-        <v>6093979000</v>
+        <v>5202471400</v>
       </c>
       <c r="O8">
         <v>37100</v>
       </c>
       <c r="P8">
-        <v>20649033000</v>
+        <v>18716167800</v>
       </c>
     </row>
     <row r="9">
@@ -816,25 +816,25 @@
         <v>22200</v>
       </c>
       <c r="E9">
-        <v>16170542000</v>
+        <v>14103611000</v>
       </c>
       <c r="F9">
-        <v>27874928000</v>
+        <v>18228783800</v>
       </c>
       <c r="G9">
-        <v>151938000</v>
+        <v>133556400</v>
       </c>
       <c r="H9">
         <v>2346300</v>
       </c>
       <c r="I9">
-        <v>44197408000</v>
+        <v>32465951200</v>
       </c>
       <c r="J9" t="str">
         <v>2022-12-30T09:24:00.000Z</v>
       </c>
       <c r="K9">
-        <v>262404710000</v>
+        <v>221403352400</v>
       </c>
       <c r="L9">
         <v>14646100</v>
@@ -843,13 +843,13 @@
         <v>549300</v>
       </c>
       <c r="N9">
-        <v>11704386000</v>
+        <v>4125172800</v>
       </c>
       <c r="O9">
         <v>586400</v>
       </c>
       <c r="P9">
-        <v>32353419000</v>
+        <v>22841340600</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>4000</v>
       </c>
       <c r="E10">
-        <v>18342168000</v>
+        <v>16055257200</v>
       </c>
       <c r="F10">
-        <v>15372107000</v>
+        <v>14455124900</v>
       </c>
       <c r="G10">
         <v>69849000</v>
@@ -878,13 +878,13 @@
         <v>1962800</v>
       </c>
       <c r="I10">
-        <v>33784124000</v>
+        <v>30580231100</v>
       </c>
       <c r="J10" t="str">
         <v>2022-12-30T09:26:00.000Z</v>
       </c>
       <c r="K10">
-        <v>296188834000</v>
+        <v>251983583500</v>
       </c>
       <c r="L10">
         <v>16608900</v>
@@ -893,13 +893,13 @@
         <v>-239800</v>
       </c>
       <c r="N10">
-        <v>-2970061000</v>
+        <v>-1600132300</v>
       </c>
       <c r="O10">
         <v>346600</v>
       </c>
       <c r="P10">
-        <v>29383358000</v>
+        <v>21241208300</v>
       </c>
     </row>
     <row r="11">
@@ -916,10 +916,10 @@
         <v>100</v>
       </c>
       <c r="E11">
-        <v>16755204000</v>
+        <v>15413047500</v>
       </c>
       <c r="F11">
-        <v>13546856000</v>
+        <v>13184019200</v>
       </c>
       <c r="G11">
         <v>1245000</v>
@@ -928,13 +928,13 @@
         <v>1797200</v>
       </c>
       <c r="I11">
-        <v>30303305000</v>
+        <v>28598311700</v>
       </c>
       <c r="J11" t="str">
         <v>2022-12-30T09:28:00.000Z</v>
       </c>
       <c r="K11">
-        <v>326492139000</v>
+        <v>280581895200</v>
       </c>
       <c r="L11">
         <v>18406100</v>
@@ -943,13 +943,13 @@
         <v>-258700</v>
       </c>
       <c r="N11">
-        <v>-3208348000</v>
+        <v>-2229028300</v>
       </c>
       <c r="O11">
         <v>87900</v>
       </c>
       <c r="P11">
-        <v>26175010000</v>
+        <v>19012180000</v>
       </c>
     </row>
     <row r="12">
@@ -966,10 +966,10 @@
         <v>8300</v>
       </c>
       <c r="E12">
-        <v>14577795000</v>
+        <v>10545231600</v>
       </c>
       <c r="F12">
-        <v>14045692000</v>
+        <v>12527311900</v>
       </c>
       <c r="G12">
         <v>122311000</v>
@@ -978,13 +978,13 @@
         <v>1644700</v>
       </c>
       <c r="I12">
-        <v>28745798000</v>
+        <v>23194854500</v>
       </c>
       <c r="J12" t="str">
         <v>2022-12-30T09:30:00.000Z</v>
       </c>
       <c r="K12">
-        <v>355237937000</v>
+        <v>303776749700</v>
       </c>
       <c r="L12">
         <v>20050800</v>
@@ -993,13 +993,13 @@
         <v>-199400</v>
       </c>
       <c r="N12">
-        <v>-532103000</v>
+        <v>1982080300</v>
       </c>
       <c r="O12">
         <v>-111500</v>
       </c>
       <c r="P12">
-        <v>25642907000</v>
+        <v>20994260300</v>
       </c>
     </row>
     <row r="13">
@@ -1016,10 +1016,10 @@
         <v>1500</v>
       </c>
       <c r="E13">
-        <v>13408811000</v>
+        <v>12181139900</v>
       </c>
       <c r="F13">
-        <v>10650637000</v>
+        <v>9187601500</v>
       </c>
       <c r="G13">
         <v>18707000</v>
@@ -1028,13 +1028,13 @@
         <v>1391200</v>
       </c>
       <c r="I13">
-        <v>24078155000</v>
+        <v>21387448400</v>
       </c>
       <c r="J13" t="str">
         <v>2022-12-30T09:32:00.000Z</v>
       </c>
       <c r="K13">
-        <v>379316092000</v>
+        <v>325164198100</v>
       </c>
       <c r="L13">
         <v>21442000</v>
@@ -1043,13 +1043,13 @@
         <v>-275700</v>
       </c>
       <c r="N13">
-        <v>-2758174000</v>
+        <v>-2993538400</v>
       </c>
       <c r="O13">
         <v>-387200</v>
       </c>
       <c r="P13">
-        <v>22884733000</v>
+        <v>18000721900</v>
       </c>
     </row>
     <row r="14">
@@ -1066,10 +1066,10 @@
         <v>18300</v>
       </c>
       <c r="E14">
-        <v>12083193000</v>
+        <v>11578498200</v>
       </c>
       <c r="F14">
-        <v>13840919000</v>
+        <v>13280280200</v>
       </c>
       <c r="G14">
         <v>314044000</v>
@@ -1078,13 +1078,13 @@
         <v>1380800</v>
       </c>
       <c r="I14">
-        <v>26238156000</v>
+        <v>25172822400</v>
       </c>
       <c r="J14" t="str">
         <v>2022-12-30T09:34:00.000Z</v>
       </c>
       <c r="K14">
-        <v>405554248000</v>
+        <v>350337020500</v>
       </c>
       <c r="L14">
         <v>22822800</v>
@@ -1093,13 +1093,13 @@
         <v>-234500</v>
       </c>
       <c r="N14">
-        <v>1757726000</v>
+        <v>1701782000</v>
       </c>
       <c r="O14">
         <v>-621700</v>
       </c>
       <c r="P14">
-        <v>24642459000</v>
+        <v>19702503900</v>
       </c>
     </row>
     <row r="15">
@@ -1116,25 +1116,25 @@
         <v>2900</v>
       </c>
       <c r="E15">
-        <v>9423966000</v>
+        <v>8020071300</v>
       </c>
       <c r="F15">
-        <v>14143884000</v>
+        <v>13098430500</v>
       </c>
       <c r="G15">
-        <v>34053000</v>
+        <v>30856200</v>
       </c>
       <c r="H15">
         <v>1551900</v>
       </c>
       <c r="I15">
-        <v>23601903000</v>
+        <v>21149358000</v>
       </c>
       <c r="J15" t="str">
         <v>2022-12-30T09:36:00.000Z</v>
       </c>
       <c r="K15">
-        <v>429156151000</v>
+        <v>371486378500</v>
       </c>
       <c r="L15">
         <v>24374700</v>
@@ -1143,13 +1143,13 @@
         <v>204000</v>
       </c>
       <c r="N15">
-        <v>4719918000</v>
+        <v>5078359200</v>
       </c>
       <c r="O15">
         <v>-417700</v>
       </c>
       <c r="P15">
-        <v>29362377000</v>
+        <v>24780863100</v>
       </c>
     </row>
     <row r="16">
@@ -1166,10 +1166,10 @@
         <v>3300</v>
       </c>
       <c r="E16">
-        <v>9802022000</v>
+        <v>9193531100</v>
       </c>
       <c r="F16">
-        <v>16161006000</v>
+        <v>14760008400</v>
       </c>
       <c r="G16">
         <v>44924000</v>
@@ -1178,13 +1178,13 @@
         <v>1281900</v>
       </c>
       <c r="I16">
-        <v>26007952000</v>
+        <v>23998463500</v>
       </c>
       <c r="J16" t="str">
         <v>2022-12-30T09:38:00.000Z</v>
       </c>
       <c r="K16">
-        <v>455164103000</v>
+        <v>395484842000</v>
       </c>
       <c r="L16">
         <v>25656600</v>
@@ -1193,13 +1193,13 @@
         <v>177800</v>
       </c>
       <c r="N16">
-        <v>6358984000</v>
+        <v>5566477300</v>
       </c>
       <c r="O16">
         <v>-239900</v>
       </c>
       <c r="P16">
-        <v>35721361000</v>
+        <v>30347340400</v>
       </c>
     </row>
     <row r="17">
@@ -1216,10 +1216,10 @@
         <v>5800</v>
       </c>
       <c r="E17">
-        <v>7953625000</v>
+        <v>7878700000</v>
       </c>
       <c r="F17">
-        <v>13625898000</v>
+        <v>13108815600</v>
       </c>
       <c r="G17">
         <v>59124000</v>
@@ -1228,13 +1228,13 @@
         <v>1218400</v>
       </c>
       <c r="I17">
-        <v>21638647000</v>
+        <v>21046639600</v>
       </c>
       <c r="J17" t="str">
         <v>2022-12-30T09:40:00.000Z</v>
       </c>
       <c r="K17">
-        <v>476802750000</v>
+        <v>416531481600</v>
       </c>
       <c r="L17">
         <v>26875000</v>
@@ -1243,13 +1243,13 @@
         <v>185000</v>
       </c>
       <c r="N17">
-        <v>5672273000</v>
+        <v>5230115600</v>
       </c>
       <c r="O17">
         <v>-54900</v>
       </c>
       <c r="P17">
-        <v>41393634000</v>
+        <v>35577456000</v>
       </c>
     </row>
     <row r="18">
@@ -1266,10 +1266,10 @@
         <v>12700</v>
       </c>
       <c r="E18">
-        <v>18655716000</v>
+        <v>12138040200</v>
       </c>
       <c r="F18">
-        <v>13605268000</v>
+        <v>9791185900</v>
       </c>
       <c r="G18">
         <v>282695000</v>
@@ -1278,13 +1278,13 @@
         <v>1763000</v>
       </c>
       <c r="I18">
-        <v>32543679000</v>
+        <v>22211921100</v>
       </c>
       <c r="J18" t="str">
         <v>2022-12-30T09:42:00.000Z</v>
       </c>
       <c r="K18">
-        <v>509346429000</v>
+        <v>438743402700</v>
       </c>
       <c r="L18">
         <v>28638000</v>
@@ -1293,13 +1293,13 @@
         <v>-506900</v>
       </c>
       <c r="N18">
-        <v>-5050448000</v>
+        <v>-2346854300</v>
       </c>
       <c r="O18">
         <v>-561800</v>
       </c>
       <c r="P18">
-        <v>36343186000</v>
+        <v>33230601700</v>
       </c>
     </row>
     <row r="19">
@@ -1316,10 +1316,10 @@
         <v>29600</v>
       </c>
       <c r="E19">
-        <v>17396064000</v>
+        <v>14271791400</v>
       </c>
       <c r="F19">
-        <v>9772300000</v>
+        <v>9440532100</v>
       </c>
       <c r="G19">
         <v>801630000</v>
@@ -1328,13 +1328,13 @@
         <v>1668500</v>
       </c>
       <c r="I19">
-        <v>27969994000</v>
+        <v>24513953500</v>
       </c>
       <c r="J19" t="str">
         <v>2022-12-30T09:44:00.000Z</v>
       </c>
       <c r="K19">
-        <v>537316423000</v>
+        <v>463257356200</v>
       </c>
       <c r="L19">
         <v>30306500</v>
@@ -1343,13 +1343,13 @@
         <v>-597500</v>
       </c>
       <c r="N19">
-        <v>-7623764000</v>
+        <v>-4831259300</v>
       </c>
       <c r="O19">
         <v>-1159300</v>
       </c>
       <c r="P19">
-        <v>28719422000</v>
+        <v>28399342400</v>
       </c>
     </row>
     <row r="20">
@@ -1366,25 +1366,25 @@
         <v>4300</v>
       </c>
       <c r="E20">
-        <v>13269582000</v>
+        <v>12690861300</v>
       </c>
       <c r="F20">
-        <v>6825916000</v>
+        <v>6162180400</v>
       </c>
       <c r="G20">
-        <v>59888000</v>
+        <v>53294600</v>
       </c>
       <c r="H20">
         <v>1293400</v>
       </c>
       <c r="I20">
-        <v>20155386000</v>
+        <v>18906336300</v>
       </c>
       <c r="J20" t="str">
         <v>2022-12-30T09:46:00.000Z</v>
       </c>
       <c r="K20">
-        <v>557471809000</v>
+        <v>482163692500</v>
       </c>
       <c r="L20">
         <v>31599900</v>
@@ -1393,13 +1393,13 @@
         <v>-612300</v>
       </c>
       <c r="N20">
-        <v>-6443666000</v>
+        <v>-6528680900</v>
       </c>
       <c r="O20">
         <v>-1771600</v>
       </c>
       <c r="P20">
-        <v>22275756000</v>
+        <v>21870661500</v>
       </c>
     </row>
     <row r="21">
@@ -1416,10 +1416,10 @@
         <v>500</v>
       </c>
       <c r="E21">
-        <v>13266303000</v>
+        <v>8397476700</v>
       </c>
       <c r="F21">
-        <v>7886538000</v>
+        <v>7658566200</v>
       </c>
       <c r="G21">
         <v>4530000</v>
@@ -1428,13 +1428,13 @@
         <v>1318400</v>
       </c>
       <c r="I21">
-        <v>21157371000</v>
+        <v>16060572900</v>
       </c>
       <c r="J21" t="str">
         <v>2022-12-30T09:48:00.000Z</v>
       </c>
       <c r="K21">
-        <v>578629180000</v>
+        <v>498224265400</v>
       </c>
       <c r="L21">
         <v>32918300</v>
@@ -1443,13 +1443,13 @@
         <v>-351900</v>
       </c>
       <c r="N21">
-        <v>-5379765000</v>
+        <v>-738910500</v>
       </c>
       <c r="O21">
         <v>-2123500</v>
       </c>
       <c r="P21">
-        <v>16895991000</v>
+        <v>21131751000</v>
       </c>
     </row>
     <row r="22">
@@ -1466,10 +1466,10 @@
         <v>29100</v>
       </c>
       <c r="E22">
-        <v>19152769000</v>
+        <v>18499123300</v>
       </c>
       <c r="F22">
-        <v>8801623000</v>
+        <v>8505619300</v>
       </c>
       <c r="G22">
         <v>398434000</v>
@@ -1478,13 +1478,13 @@
         <v>1843700</v>
       </c>
       <c r="I22">
-        <v>28352826000</v>
+        <v>27403176600</v>
       </c>
       <c r="J22" t="str">
         <v>2022-12-30T09:50:00.000Z</v>
       </c>
       <c r="K22">
-        <v>606982006000</v>
+        <v>525627442000</v>
       </c>
       <c r="L22">
         <v>34762000</v>
@@ -1493,13 +1493,13 @@
         <v>-696400</v>
       </c>
       <c r="N22">
-        <v>-10351146000</v>
+        <v>-9993504000</v>
       </c>
       <c r="O22">
         <v>-2819900</v>
       </c>
       <c r="P22">
-        <v>6544845000</v>
+        <v>11138247000</v>
       </c>
     </row>
     <row r="23">
@@ -1516,10 +1516,10 @@
         <v>2500</v>
       </c>
       <c r="E23">
-        <v>15615986000</v>
+        <v>14735167700</v>
       </c>
       <c r="F23">
-        <v>16715008000</v>
+        <v>16023999700</v>
       </c>
       <c r="G23">
         <v>36354000</v>
@@ -1528,13 +1528,13 @@
         <v>1798800</v>
       </c>
       <c r="I23">
-        <v>32367348000</v>
+        <v>30795521400</v>
       </c>
       <c r="J23" t="str">
         <v>2022-12-30T09:52:00.000Z</v>
       </c>
       <c r="K23">
-        <v>639349354000</v>
+        <v>556422963400</v>
       </c>
       <c r="L23">
         <v>36560800</v>
@@ -1543,13 +1543,13 @@
         <v>-231500</v>
       </c>
       <c r="N23">
-        <v>1099022000</v>
+        <v>1288832000</v>
       </c>
       <c r="O23">
         <v>-3051400</v>
       </c>
       <c r="P23">
-        <v>7643867000</v>
+        <v>12427079000</v>
       </c>
     </row>
     <row r="24">
@@ -1566,10 +1566,10 @@
         <v>8600</v>
       </c>
       <c r="E24">
-        <v>13035259000</v>
+        <v>12985608700</v>
       </c>
       <c r="F24">
-        <v>10920645000</v>
+        <v>10564901100</v>
       </c>
       <c r="G24">
         <v>288042000</v>
@@ -1578,13 +1578,13 @@
         <v>1389200</v>
       </c>
       <c r="I24">
-        <v>24243946000</v>
+        <v>23838551800</v>
       </c>
       <c r="J24" t="str">
         <v>2022-12-30T09:54:00.000Z</v>
       </c>
       <c r="K24">
-        <v>663593300000</v>
+        <v>580261515200</v>
       </c>
       <c r="L24">
         <v>37950000</v>
@@ -1593,13 +1593,13 @@
         <v>-189200</v>
       </c>
       <c r="N24">
-        <v>-2114614000</v>
+        <v>-2420707600</v>
       </c>
       <c r="O24">
         <v>-3240600</v>
       </c>
       <c r="P24">
-        <v>5529253000</v>
+        <v>10006371400</v>
       </c>
     </row>
     <row r="25">
@@ -1616,10 +1616,10 @@
         <v>6000</v>
       </c>
       <c r="E25">
-        <v>8353504000</v>
+        <v>7492665700</v>
       </c>
       <c r="F25">
-        <v>10830444000</v>
+        <v>9311964000</v>
       </c>
       <c r="G25">
         <v>151350000</v>
@@ -1628,13 +1628,13 @@
         <v>1032600</v>
       </c>
       <c r="I25">
-        <v>19335298000</v>
+        <v>16955979700</v>
       </c>
       <c r="J25" t="str">
         <v>2022-12-30T09:56:00.000Z</v>
       </c>
       <c r="K25">
-        <v>682928598000</v>
+        <v>597217494900</v>
       </c>
       <c r="L25">
         <v>38982600</v>
@@ -1643,13 +1643,13 @@
         <v>92600</v>
       </c>
       <c r="N25">
-        <v>2476940000</v>
+        <v>1819298300</v>
       </c>
       <c r="O25">
         <v>-3148000</v>
       </c>
       <c r="P25">
-        <v>8006193000</v>
+        <v>11825669700</v>
       </c>
     </row>
     <row r="26">
@@ -1666,10 +1666,10 @@
         <v>5100</v>
       </c>
       <c r="E26">
-        <v>6641295000</v>
+        <v>6477459000</v>
       </c>
       <c r="F26">
-        <v>7978129000</v>
+        <v>7283824000</v>
       </c>
       <c r="G26">
         <v>47996000</v>
@@ -1678,13 +1678,13 @@
         <v>790600</v>
       </c>
       <c r="I26">
-        <v>14667420000</v>
+        <v>13809279000</v>
       </c>
       <c r="J26" t="str">
         <v>2022-12-30T09:58:00.000Z</v>
       </c>
       <c r="K26">
-        <v>697596018000</v>
+        <v>611026773900</v>
       </c>
       <c r="L26">
         <v>39773200</v>
@@ -1693,13 +1693,13 @@
         <v>92300</v>
       </c>
       <c r="N26">
-        <v>1336834000</v>
+        <v>806365000</v>
       </c>
       <c r="O26">
         <v>-3055700</v>
       </c>
       <c r="P26">
-        <v>9343027000</v>
+        <v>12632034700</v>
       </c>
     </row>
     <row r="27">
@@ -1716,10 +1716,10 @@
         <v>4500</v>
       </c>
       <c r="E27">
-        <v>7389193000</v>
+        <v>7252929400</v>
       </c>
       <c r="F27">
-        <v>9246225000</v>
+        <v>7953918600</v>
       </c>
       <c r="G27">
         <v>48492000</v>
@@ -1728,13 +1728,13 @@
         <v>773100</v>
       </c>
       <c r="I27">
-        <v>16683910000</v>
+        <v>15255340000</v>
       </c>
       <c r="J27" t="str">
         <v>2022-12-30T10:00:00.000Z</v>
       </c>
       <c r="K27">
-        <v>714279928000</v>
+        <v>626282113900</v>
       </c>
       <c r="L27">
         <v>40546300</v>
@@ -1743,13 +1743,13 @@
         <v>-133600</v>
       </c>
       <c r="N27">
-        <v>1857032000</v>
+        <v>700989200</v>
       </c>
       <c r="O27">
         <v>-3189300</v>
       </c>
       <c r="P27">
-        <v>11200059000</v>
+        <v>13333023900</v>
       </c>
     </row>
     <row r="28">
@@ -1766,10 +1766,10 @@
         <v>20300</v>
       </c>
       <c r="E28">
-        <v>13859452000</v>
+        <v>13193019100</v>
       </c>
       <c r="F28">
-        <v>15013424000</v>
+        <v>13877461100</v>
       </c>
       <c r="G28">
         <v>437040000</v>
@@ -1778,13 +1778,13 @@
         <v>1467500</v>
       </c>
       <c r="I28">
-        <v>29309916000</v>
+        <v>27507520200</v>
       </c>
       <c r="J28" t="str">
         <v>2022-12-30T10:02:00.000Z</v>
       </c>
       <c r="K28">
-        <v>743589844000</v>
+        <v>653789634100</v>
       </c>
       <c r="L28">
         <v>42013800</v>
@@ -1793,13 +1793,13 @@
         <v>-247600</v>
       </c>
       <c r="N28">
-        <v>1153972000</v>
+        <v>684442000</v>
       </c>
       <c r="O28">
         <v>-3436900</v>
       </c>
       <c r="P28">
-        <v>12354031000</v>
+        <v>14017465900</v>
       </c>
     </row>
     <row r="29">
@@ -1816,10 +1816,10 @@
         <v>3300</v>
       </c>
       <c r="E29">
-        <v>17659613000</v>
+        <v>16435138700</v>
       </c>
       <c r="F29">
-        <v>8164260000</v>
+        <v>6785540100</v>
       </c>
       <c r="G29">
         <v>47355000</v>
@@ -1828,13 +1828,13 @@
         <v>1617300</v>
       </c>
       <c r="I29">
-        <v>25871228000</v>
+        <v>23268033800</v>
       </c>
       <c r="J29" t="str">
         <v>2022-12-30T10:04:00.000Z</v>
       </c>
       <c r="K29">
-        <v>769461072000</v>
+        <v>677057667900</v>
       </c>
       <c r="L29">
         <v>43631100</v>
@@ -1843,13 +1843,13 @@
         <v>-772000</v>
       </c>
       <c r="N29">
-        <v>-9495353000</v>
+        <v>-9649598600</v>
       </c>
       <c r="O29">
         <v>-4208900</v>
       </c>
       <c r="P29">
-        <v>2858678000</v>
+        <v>4367867300</v>
       </c>
     </row>
     <row r="30">
@@ -1866,25 +1866,25 @@
         <v>25900</v>
       </c>
       <c r="E30">
-        <v>19839575000</v>
+        <v>19400414600</v>
       </c>
       <c r="F30">
-        <v>5817260000</v>
+        <v>5501076500</v>
       </c>
       <c r="G30">
-        <v>538696000</v>
+        <v>499135600</v>
       </c>
       <c r="H30">
         <v>1809400</v>
       </c>
       <c r="I30">
-        <v>26195531000</v>
+        <v>25400626700</v>
       </c>
       <c r="J30" t="str">
         <v>2022-12-30T10:06:00.000Z</v>
       </c>
       <c r="K30">
-        <v>795656603000</v>
+        <v>702458294600</v>
       </c>
       <c r="L30">
         <v>45440500</v>
@@ -1893,13 +1893,13 @@
         <v>-1107300</v>
       </c>
       <c r="N30">
-        <v>-14022315000</v>
+        <v>-13899338100</v>
       </c>
       <c r="O30">
         <v>-5316200</v>
       </c>
       <c r="P30">
-        <v>-11163637000</v>
+        <v>-9531470800</v>
       </c>
     </row>
     <row r="31">
@@ -1916,10 +1916,10 @@
         <v>4000</v>
       </c>
       <c r="E31">
-        <v>14242038000</v>
+        <v>13626853800</v>
       </c>
       <c r="F31">
-        <v>7747552000</v>
+        <v>6447553300</v>
       </c>
       <c r="G31">
         <v>25738000</v>
@@ -1928,13 +1928,13 @@
         <v>1466600</v>
       </c>
       <c r="I31">
-        <v>22015328000</v>
+        <v>20100145100</v>
       </c>
       <c r="J31" t="str">
         <v>2022-12-30T10:08:00.000Z</v>
       </c>
       <c r="K31">
-        <v>817671931000</v>
+        <v>722558439700</v>
       </c>
       <c r="L31">
         <v>46907100</v>
@@ -1943,13 +1943,13 @@
         <v>-688600</v>
       </c>
       <c r="N31">
-        <v>-6494486000</v>
+        <v>-7179300500</v>
       </c>
       <c r="O31">
         <v>-6004800</v>
       </c>
       <c r="P31">
-        <v>-17658123000</v>
+        <v>-16710771300</v>
       </c>
     </row>
     <row r="32">
@@ -1966,10 +1966,10 @@
         <v>9200</v>
       </c>
       <c r="E32">
-        <v>10009112000</v>
+        <v>9501620000</v>
       </c>
       <c r="F32">
-        <v>5793785000</v>
+        <v>5165114300</v>
       </c>
       <c r="G32">
         <v>149661000</v>
@@ -1978,13 +1978,13 @@
         <v>1090600</v>
       </c>
       <c r="I32">
-        <v>15952558000</v>
+        <v>14816395300</v>
       </c>
       <c r="J32" t="str">
         <v>2022-12-30T10:10:00.000Z</v>
       </c>
       <c r="K32">
-        <v>833624489000</v>
+        <v>737374835000</v>
       </c>
       <c r="L32">
         <v>47997700</v>
@@ -1993,13 +1993,13 @@
         <v>-440000</v>
       </c>
       <c r="N32">
-        <v>-4215327000</v>
+        <v>-4336505700</v>
       </c>
       <c r="O32">
         <v>-6444800</v>
       </c>
       <c r="P32">
-        <v>-21873450000</v>
+        <v>-21047277000</v>
       </c>
     </row>
     <row r="33">
@@ -2016,10 +2016,10 @@
         <v>1400</v>
       </c>
       <c r="E33">
-        <v>11603241000</v>
+        <v>11517826500</v>
       </c>
       <c r="F33">
-        <v>7841781000</v>
+        <v>6989833800</v>
       </c>
       <c r="G33">
         <v>8637000</v>
@@ -2028,13 +2028,13 @@
         <v>1269800</v>
       </c>
       <c r="I33">
-        <v>19453659000</v>
+        <v>18516297300</v>
       </c>
       <c r="J33" t="str">
         <v>2022-12-30T10:12:00.000Z</v>
       </c>
       <c r="K33">
-        <v>853078148000</v>
+        <v>755891132300</v>
       </c>
       <c r="L33">
         <v>49267500</v>
@@ -2043,13 +2043,13 @@
         <v>-337400</v>
       </c>
       <c r="N33">
-        <v>-3761460000</v>
+        <v>-4527992700</v>
       </c>
       <c r="O33">
         <v>-6782200</v>
       </c>
       <c r="P33">
-        <v>-25634910000</v>
+        <v>-25575269700</v>
       </c>
     </row>
     <row r="34">
@@ -2066,10 +2066,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>7016660000</v>
+        <v>6487489700</v>
       </c>
       <c r="F34">
-        <v>6689070000</v>
+        <v>5646813300</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         <v>748200</v>
       </c>
       <c r="I34">
-        <v>13705730000</v>
+        <v>12134303000</v>
       </c>
       <c r="J34" t="str">
         <v>2022-12-30T10:14:00.000Z</v>
       </c>
       <c r="K34">
-        <v>866783878000</v>
+        <v>768025435300</v>
       </c>
       <c r="L34">
         <v>50015700</v>
@@ -2093,13 +2093,13 @@
         <v>-107600</v>
       </c>
       <c r="N34">
-        <v>-327590000</v>
+        <v>-840676400</v>
       </c>
       <c r="O34">
         <v>-6889800</v>
       </c>
       <c r="P34">
-        <v>-25962500000</v>
+        <v>-26415946100</v>
       </c>
     </row>
     <row r="35">
@@ -2116,10 +2116,10 @@
         <v>100</v>
       </c>
       <c r="E35">
-        <v>8851093000</v>
+        <v>8383860700</v>
       </c>
       <c r="F35">
-        <v>10575148000</v>
+        <v>9499624600</v>
       </c>
       <c r="G35">
         <v>1190000</v>
@@ -2128,13 +2128,13 @@
         <v>1198200</v>
       </c>
       <c r="I35">
-        <v>19427431000</v>
+        <v>17884675300</v>
       </c>
       <c r="J35" t="str">
         <v>2022-12-30T10:16:00.000Z</v>
       </c>
       <c r="K35">
-        <v>886211309000</v>
+        <v>785910110600</v>
       </c>
       <c r="L35">
         <v>51213900</v>
@@ -2143,13 +2143,13 @@
         <v>144300</v>
       </c>
       <c r="N35">
-        <v>1724055000</v>
+        <v>1115763900</v>
       </c>
       <c r="O35">
         <v>-6745500</v>
       </c>
       <c r="P35">
-        <v>-24238445000</v>
+        <v>-25300182200</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>13200</v>
       </c>
       <c r="E36">
-        <v>9767440000</v>
+        <v>7699310200</v>
       </c>
       <c r="F36">
-        <v>6146556000</v>
+        <v>5804997900</v>
       </c>
       <c r="G36">
         <v>190036000</v>
@@ -2178,13 +2178,13 @@
         <v>902900</v>
       </c>
       <c r="I36">
-        <v>16104032000</v>
+        <v>13694344100</v>
       </c>
       <c r="J36" t="str">
         <v>2022-12-30T10:18:00.000Z</v>
       </c>
       <c r="K36">
-        <v>902315341000</v>
+        <v>799604454700</v>
       </c>
       <c r="L36">
         <v>52116800</v>
@@ -2193,13 +2193,13 @@
         <v>-113300</v>
       </c>
       <c r="N36">
-        <v>-3620884000</v>
+        <v>-1894312300</v>
       </c>
       <c r="O36">
         <v>-6858800</v>
       </c>
       <c r="P36">
-        <v>-27859329000</v>
+        <v>-27194494500</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>3300</v>
       </c>
       <c r="E37">
-        <v>7363836000</v>
+        <v>6858741600</v>
       </c>
       <c r="F37">
-        <v>13716905000</v>
+        <v>12572150900</v>
       </c>
       <c r="G37">
         <v>40671000</v>
@@ -2228,13 +2228,13 @@
         <v>1363600</v>
       </c>
       <c r="I37">
-        <v>21121412000</v>
+        <v>19471563500</v>
       </c>
       <c r="J37" t="str">
         <v>2022-12-30T10:20:00.000Z</v>
       </c>
       <c r="K37">
-        <v>923436753000</v>
+        <v>819076018200</v>
       </c>
       <c r="L37">
         <v>53480400</v>
@@ -2243,13 +2243,13 @@
         <v>306700</v>
       </c>
       <c r="N37">
-        <v>6353069000</v>
+        <v>5713409300</v>
       </c>
       <c r="O37">
         <v>-6552100</v>
       </c>
       <c r="P37">
-        <v>-21506260000</v>
+        <v>-21481085200</v>
       </c>
     </row>
     <row r="38">
@@ -2266,10 +2266,10 @@
         <v>600</v>
       </c>
       <c r="E38">
-        <v>6927800000</v>
+        <v>6747480500</v>
       </c>
       <c r="F38">
-        <v>8153483000</v>
+        <v>7631205800</v>
       </c>
       <c r="G38">
         <v>5292000</v>
@@ -2278,13 +2278,13 @@
         <v>870700</v>
       </c>
       <c r="I38">
-        <v>15086575000</v>
+        <v>14383978300</v>
       </c>
       <c r="J38" t="str">
         <v>2022-12-30T10:22:00.000Z</v>
       </c>
       <c r="K38">
-        <v>938523328000</v>
+        <v>833459996500</v>
       </c>
       <c r="L38">
         <v>54351100</v>
@@ -2293,13 +2293,13 @@
         <v>83300</v>
       </c>
       <c r="N38">
-        <v>1225683000</v>
+        <v>883725300</v>
       </c>
       <c r="O38">
         <v>-6468800</v>
       </c>
       <c r="P38">
-        <v>-20280577000</v>
+        <v>-20597359900</v>
       </c>
     </row>
     <row r="39">
@@ -2316,10 +2316,10 @@
         <v>4100</v>
       </c>
       <c r="E39">
-        <v>8494339000</v>
+        <v>8185648000</v>
       </c>
       <c r="F39">
-        <v>22056521000</v>
+        <v>19905374300</v>
       </c>
       <c r="G39">
         <v>78846000</v>
@@ -2328,13 +2328,13 @@
         <v>1614500</v>
       </c>
       <c r="I39">
-        <v>30629706000</v>
+        <v>28169868300</v>
       </c>
       <c r="J39" t="str">
         <v>2022-12-30T10:24:00.000Z</v>
       </c>
       <c r="K39">
-        <v>969153034000</v>
+        <v>861629864800</v>
       </c>
       <c r="L39">
         <v>55965600</v>
@@ -2343,13 +2343,13 @@
         <v>869400</v>
       </c>
       <c r="N39">
-        <v>13562182000</v>
+        <v>11719726300</v>
       </c>
       <c r="O39">
         <v>-5599400</v>
       </c>
       <c r="P39">
-        <v>-6718395000</v>
+        <v>-8877633600</v>
       </c>
     </row>
     <row r="40">
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>7008045000</v>
+        <v>6300852900</v>
       </c>
       <c r="F40">
-        <v>12790456000</v>
+        <v>9586063600</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>1012500</v>
       </c>
       <c r="I40">
-        <v>19798501000</v>
+        <v>15886916500</v>
       </c>
       <c r="J40" t="str">
         <v>2022-12-30T10:26:00.000Z</v>
       </c>
       <c r="K40">
-        <v>988951535000</v>
+        <v>877516781300</v>
       </c>
       <c r="L40">
         <v>56978100</v>
@@ -2393,13 +2393,13 @@
         <v>444300</v>
       </c>
       <c r="N40">
-        <v>5782411000</v>
+        <v>3285210700</v>
       </c>
       <c r="O40">
         <v>-5155100</v>
       </c>
       <c r="P40">
-        <v>-935984000</v>
+        <v>-5592422900</v>
       </c>
     </row>
     <row r="41">
@@ -2416,10 +2416,10 @@
         <v>400</v>
       </c>
       <c r="E41">
-        <v>7600255000</v>
+        <v>7409645800</v>
       </c>
       <c r="F41">
-        <v>11305335000</v>
+        <v>10893347400</v>
       </c>
       <c r="G41">
         <v>2953000</v>
@@ -2428,13 +2428,13 @@
         <v>893200</v>
       </c>
       <c r="I41">
-        <v>18908543000</v>
+        <v>18305946200</v>
       </c>
       <c r="J41" t="str">
         <v>2022-12-30T10:28:00.000Z</v>
       </c>
       <c r="K41">
-        <v>1007860078000</v>
+        <v>895822727500</v>
       </c>
       <c r="L41">
         <v>57871300</v>
@@ -2443,13 +2443,13 @@
         <v>299800</v>
       </c>
       <c r="N41">
-        <v>3705080000</v>
+        <v>3483701600</v>
       </c>
       <c r="O41">
         <v>-4855300</v>
       </c>
       <c r="P41">
-        <v>2769096000</v>
+        <v>-2108721300</v>
       </c>
     </row>
     <row r="42">
@@ -2466,10 +2466,10 @@
         <v>59100</v>
       </c>
       <c r="E42">
-        <v>9549981000</v>
+        <v>9451479600</v>
       </c>
       <c r="F42">
-        <v>15773475000</v>
+        <v>15220928100</v>
       </c>
       <c r="G42">
         <v>695544000</v>
@@ -2478,13 +2478,13 @@
         <v>1474100</v>
       </c>
       <c r="I42">
-        <v>26019000000</v>
+        <v>25367951700</v>
       </c>
       <c r="J42" t="str">
         <v>2022-12-30T10:30:00.000Z</v>
       </c>
       <c r="K42">
-        <v>1033879078000</v>
+        <v>921190679200</v>
       </c>
       <c r="L42">
         <v>59345400</v>
@@ -2493,13 +2493,13 @@
         <v>461200</v>
       </c>
       <c r="N42">
-        <v>6223494000</v>
+        <v>5769448500</v>
       </c>
       <c r="O42">
         <v>-4394100</v>
       </c>
       <c r="P42">
-        <v>8992590000</v>
+        <v>3660727200</v>
       </c>
     </row>
     <row r="43">
@@ -2516,10 +2516,10 @@
         <v>1000</v>
       </c>
       <c r="E43">
-        <v>7649190000</v>
+        <v>7191248400</v>
       </c>
       <c r="F43">
-        <v>18351927000</v>
+        <v>18154224900</v>
       </c>
       <c r="G43">
         <v>68500000</v>
@@ -2528,13 +2528,13 @@
         <v>1343200</v>
       </c>
       <c r="I43">
-        <v>26069617000</v>
+        <v>25413973300</v>
       </c>
       <c r="J43" t="str">
         <v>2022-12-30T10:32:00.000Z</v>
       </c>
       <c r="K43">
-        <v>1059948695000</v>
+        <v>946604652500</v>
       </c>
       <c r="L43">
         <v>60688600</v>
@@ -2543,13 +2543,13 @@
         <v>514800</v>
       </c>
       <c r="N43">
-        <v>10702737000</v>
+        <v>10962976500</v>
       </c>
       <c r="O43">
         <v>-3879300</v>
       </c>
       <c r="P43">
-        <v>19695327000</v>
+        <v>14623703700</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>3700</v>
       </c>
       <c r="E44">
-        <v>8522669000</v>
+        <v>7264028900</v>
       </c>
       <c r="F44">
-        <v>18072998000</v>
+        <v>16846525700</v>
       </c>
       <c r="G44">
         <v>51975000</v>
@@ -2578,13 +2578,13 @@
         <v>1650100</v>
       </c>
       <c r="I44">
-        <v>26647642000</v>
+        <v>24162529600</v>
       </c>
       <c r="J44" t="str">
         <v>2022-12-30T10:34:00.000Z</v>
       </c>
       <c r="K44">
-        <v>1086596337000</v>
+        <v>970767182100</v>
       </c>
       <c r="L44">
         <v>62338700</v>
@@ -2593,13 +2593,13 @@
         <v>575800</v>
       </c>
       <c r="N44">
-        <v>9550329000</v>
+        <v>9582496800</v>
       </c>
       <c r="O44">
         <v>-3303500</v>
       </c>
       <c r="P44">
-        <v>29245656000</v>
+        <v>24206200500</v>
       </c>
     </row>
     <row r="45">
@@ -2616,10 +2616,10 @@
         <v>6800</v>
       </c>
       <c r="E45">
-        <v>5988818000</v>
+        <v>5627479700</v>
       </c>
       <c r="F45">
-        <v>17637854000</v>
+        <v>16692500300</v>
       </c>
       <c r="G45">
         <v>178026000</v>
@@ -2628,13 +2628,13 @@
         <v>1353500</v>
       </c>
       <c r="I45">
-        <v>23804698000</v>
+        <v>22498006000</v>
       </c>
       <c r="J45" t="str">
         <v>2022-12-30T10:36:00.000Z</v>
       </c>
       <c r="K45">
-        <v>1110401035000</v>
+        <v>993265188100</v>
       </c>
       <c r="L45">
         <v>63692200</v>
@@ -2643,13 +2643,13 @@
         <v>608500</v>
       </c>
       <c r="N45">
-        <v>11649036000</v>
+        <v>11065020600</v>
       </c>
       <c r="O45">
         <v>-2695000</v>
       </c>
       <c r="P45">
-        <v>40894692000</v>
+        <v>35271221100</v>
       </c>
     </row>
     <row r="46">
@@ -2666,10 +2666,10 @@
         <v>11400</v>
       </c>
       <c r="E46">
-        <v>7420238000</v>
+        <v>6836422400</v>
       </c>
       <c r="F46">
-        <v>14490304000</v>
+        <v>13525469800</v>
       </c>
       <c r="G46">
         <v>273255000</v>
@@ -2678,13 +2678,13 @@
         <v>1247900</v>
       </c>
       <c r="I46">
-        <v>22183797000</v>
+        <v>20635147200</v>
       </c>
       <c r="J46" t="str">
         <v>2022-12-30T10:38:00.000Z</v>
       </c>
       <c r="K46">
-        <v>1132584832000</v>
+        <v>1013900335300</v>
       </c>
       <c r="L46">
         <v>64940100</v>
@@ -2693,13 +2693,13 @@
         <v>440300</v>
       </c>
       <c r="N46">
-        <v>7070066000</v>
+        <v>6689047400</v>
       </c>
       <c r="O46">
         <v>-2254700</v>
       </c>
       <c r="P46">
-        <v>47964758000</v>
+        <v>41960268500</v>
       </c>
     </row>
     <row r="47">
@@ -2716,10 +2716,10 @@
         <v>28300</v>
       </c>
       <c r="E47">
-        <v>7310652000</v>
+        <v>7209952800</v>
       </c>
       <c r="F47">
-        <v>16485900000</v>
+        <v>12528061800</v>
       </c>
       <c r="G47">
         <v>252684000</v>
@@ -2728,13 +2728,13 @@
         <v>1624100</v>
       </c>
       <c r="I47">
-        <v>24049236000</v>
+        <v>19990698600</v>
       </c>
       <c r="J47" t="str">
         <v>2022-12-30T10:40:00.000Z</v>
       </c>
       <c r="K47">
-        <v>1156634068000</v>
+        <v>1033891033900</v>
       </c>
       <c r="L47">
         <v>66564200</v>
@@ -2743,13 +2743,13 @@
         <v>706600</v>
       </c>
       <c r="N47">
-        <v>9175248000</v>
+        <v>5318109000</v>
       </c>
       <c r="O47">
         <v>-1548100</v>
       </c>
       <c r="P47">
-        <v>57140006000</v>
+        <v>47278377500</v>
       </c>
     </row>
     <row r="48">
@@ -2766,10 +2766,10 @@
         <v>4600</v>
       </c>
       <c r="E48">
-        <v>7483034000</v>
+        <v>7287130100</v>
       </c>
       <c r="F48">
-        <v>12551856000</v>
+        <v>11615193600</v>
       </c>
       <c r="G48">
         <v>32448000</v>
@@ -2778,13 +2778,13 @@
         <v>1080300</v>
       </c>
       <c r="I48">
-        <v>20067338000</v>
+        <v>18934771700</v>
       </c>
       <c r="J48" t="str">
         <v>2022-12-30T10:42:00.000Z</v>
       </c>
       <c r="K48">
-        <v>1176701406000</v>
+        <v>1052825805600</v>
       </c>
       <c r="L48">
         <v>67644500</v>
@@ -2793,13 +2793,13 @@
         <v>210300</v>
       </c>
       <c r="N48">
-        <v>5068822000</v>
+        <v>4328063500</v>
       </c>
       <c r="O48">
         <v>-1337800</v>
       </c>
       <c r="P48">
-        <v>62208828000</v>
+        <v>51606441000</v>
       </c>
     </row>
     <row r="49">
@@ -2816,10 +2816,10 @@
         <v>3200</v>
       </c>
       <c r="E49">
-        <v>8834492000</v>
+        <v>7985142200</v>
       </c>
       <c r="F49">
-        <v>11115156000</v>
+        <v>10414457400</v>
       </c>
       <c r="G49">
         <v>43078000</v>
@@ -2828,13 +2828,13 @@
         <v>1027900</v>
       </c>
       <c r="I49">
-        <v>19992726000</v>
+        <v>18442677600</v>
       </c>
       <c r="J49" t="str">
         <v>2022-12-30T10:44:00.000Z</v>
       </c>
       <c r="K49">
-        <v>1196694132000</v>
+        <v>1071268483200</v>
       </c>
       <c r="L49">
         <v>68672400</v>
@@ -2843,13 +2843,13 @@
         <v>-12900</v>
       </c>
       <c r="N49">
-        <v>2280664000</v>
+        <v>2429315200</v>
       </c>
       <c r="O49">
         <v>-1350700</v>
       </c>
       <c r="P49">
-        <v>64489492000</v>
+        <v>54035756200</v>
       </c>
     </row>
     <row r="50">
@@ -2866,10 +2866,10 @@
         <v>22200</v>
       </c>
       <c r="E50">
-        <v>42105516000</v>
+        <v>32752878000</v>
       </c>
       <c r="F50">
-        <v>12335823000</v>
+        <v>11486972700</v>
       </c>
       <c r="G50">
         <v>313908000</v>
@@ -2878,13 +2878,13 @@
         <v>2725900</v>
       </c>
       <c r="I50">
-        <v>54755247000</v>
+        <v>44553758700</v>
       </c>
       <c r="J50" t="str">
         <v>2022-12-30T10:46:00.000Z</v>
       </c>
       <c r="K50">
-        <v>1251449379000</v>
+        <v>1115822241900</v>
       </c>
       <c r="L50">
         <v>71398300</v>
@@ -2893,13 +2893,13 @@
         <v>-1132300</v>
       </c>
       <c r="N50">
-        <v>-29769693000</v>
+        <v>-21265905300</v>
       </c>
       <c r="O50">
         <v>-2483000</v>
       </c>
       <c r="P50">
-        <v>34719799000</v>
+        <v>32769850900</v>
       </c>
     </row>
     <row r="51">
@@ -2916,25 +2916,25 @@
         <v>3800</v>
       </c>
       <c r="E51">
-        <v>16988563000</v>
+        <v>16367684500</v>
       </c>
       <c r="F51">
-        <v>5199439000</v>
+        <v>4000938700</v>
       </c>
       <c r="G51">
-        <v>159235000</v>
+        <v>69724600</v>
       </c>
       <c r="H51">
         <v>1499000</v>
       </c>
       <c r="I51">
-        <v>22347237000</v>
+        <v>20438347800</v>
       </c>
       <c r="J51" t="str">
         <v>2022-12-30T10:48:00.000Z</v>
       </c>
       <c r="K51">
-        <v>1273796616000</v>
+        <v>1136260589700</v>
       </c>
       <c r="L51">
         <v>72897300</v>
@@ -2943,13 +2943,13 @@
         <v>-929200</v>
       </c>
       <c r="N51">
-        <v>-11789124000</v>
+        <v>-12366745800</v>
       </c>
       <c r="O51">
         <v>-3412200</v>
       </c>
       <c r="P51">
-        <v>22930675000</v>
+        <v>20403105100</v>
       </c>
     </row>
     <row r="52">
@@ -2966,10 +2966,10 @@
         <v>5500</v>
       </c>
       <c r="E52">
-        <v>23614421000</v>
+        <v>22262574200</v>
       </c>
       <c r="F52">
-        <v>5079116000</v>
+        <v>4869725600</v>
       </c>
       <c r="G52">
         <v>78825000</v>
@@ -2978,13 +2978,13 @@
         <v>1771200</v>
       </c>
       <c r="I52">
-        <v>28772362000</v>
+        <v>27211124800</v>
       </c>
       <c r="J52" t="str">
         <v>2022-12-30T10:50:00.000Z</v>
       </c>
       <c r="K52">
-        <v>1302568978000</v>
+        <v>1163471714500</v>
       </c>
       <c r="L52">
         <v>74668500</v>
@@ -2993,13 +2993,13 @@
         <v>-1342100</v>
       </c>
       <c r="N52">
-        <v>-18535305000</v>
+        <v>-17392848600</v>
       </c>
       <c r="O52">
         <v>-4754300</v>
       </c>
       <c r="P52">
-        <v>4395370000</v>
+        <v>3010256500</v>
       </c>
     </row>
     <row r="53">
@@ -3016,10 +3016,10 @@
         <v>1700</v>
       </c>
       <c r="E53">
-        <v>13442078000</v>
+        <v>12719301500</v>
       </c>
       <c r="F53">
-        <v>5422816000</v>
+        <v>5276362600</v>
       </c>
       <c r="G53">
         <v>27230000</v>
@@ -3028,13 +3028,13 @@
         <v>1086700</v>
       </c>
       <c r="I53">
-        <v>18892124000</v>
+        <v>18022894100</v>
       </c>
       <c r="J53" t="str">
         <v>2022-12-30T10:52:00.000Z</v>
       </c>
       <c r="K53">
-        <v>1321461102000</v>
+        <v>1181494608600</v>
       </c>
       <c r="L53">
         <v>75755200</v>
@@ -3043,13 +3043,13 @@
         <v>-510200</v>
       </c>
       <c r="N53">
-        <v>-8019262000</v>
+        <v>-7442938900</v>
       </c>
       <c r="O53">
         <v>-5264500</v>
       </c>
       <c r="P53">
-        <v>-3623892000</v>
+        <v>-4432682400</v>
       </c>
     </row>
     <row r="54">
@@ -3066,10 +3066,10 @@
         <v>1000</v>
       </c>
       <c r="E54">
-        <v>7389070000</v>
+        <v>7360598500</v>
       </c>
       <c r="F54">
-        <v>7762116000</v>
+        <v>6383595900</v>
       </c>
       <c r="G54">
         <v>16400000</v>
@@ -3078,13 +3078,13 @@
         <v>980900</v>
       </c>
       <c r="I54">
-        <v>15167586000</v>
+        <v>13760594400</v>
       </c>
       <c r="J54" t="str">
         <v>2022-12-30T10:54:00.000Z</v>
       </c>
       <c r="K54">
-        <v>1336628688000</v>
+        <v>1195255203000</v>
       </c>
       <c r="L54">
         <v>76736100</v>
@@ -3093,13 +3093,13 @@
         <v>-38500</v>
       </c>
       <c r="N54">
-        <v>373046000</v>
+        <v>-977002600</v>
       </c>
       <c r="O54">
         <v>-5303000</v>
       </c>
       <c r="P54">
-        <v>-3250846000</v>
+        <v>-5409685000</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>7009390000</v>
+        <v>6564635200</v>
       </c>
       <c r="F55">
-        <v>10331696000</v>
+        <v>8632097300</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -3128,13 +3128,13 @@
         <v>1071400</v>
       </c>
       <c r="I55">
-        <v>17341086000</v>
+        <v>15196732500</v>
       </c>
       <c r="J55" t="str">
         <v>2022-12-30T10:56:00.000Z</v>
       </c>
       <c r="K55">
-        <v>1353969774000</v>
+        <v>1210451935500</v>
       </c>
       <c r="L55">
         <v>77807500</v>
@@ -3143,13 +3143,13 @@
         <v>270200</v>
       </c>
       <c r="N55">
-        <v>3322306000</v>
+        <v>2067462100</v>
       </c>
       <c r="O55">
         <v>-5032800</v>
       </c>
       <c r="P55">
-        <v>71460000</v>
+        <v>-3342222900</v>
       </c>
     </row>
     <row r="56">
@@ -3166,25 +3166,25 @@
         <v>2500</v>
       </c>
       <c r="E56">
-        <v>5748607000</v>
+        <v>5035321000</v>
       </c>
       <c r="F56">
-        <v>8530053000</v>
+        <v>7850433300</v>
       </c>
       <c r="G56">
-        <v>60000000</v>
+        <v>60000</v>
       </c>
       <c r="H56">
         <v>865400</v>
       </c>
       <c r="I56">
-        <v>14338660000</v>
+        <v>12885814300</v>
       </c>
       <c r="J56" t="str">
         <v>2022-12-30T10:58:00.000Z</v>
       </c>
       <c r="K56">
-        <v>1368308434000</v>
+        <v>1223337749800</v>
       </c>
       <c r="L56">
         <v>78672900</v>
@@ -3193,13 +3193,13 @@
         <v>56300</v>
       </c>
       <c r="N56">
-        <v>2781446000</v>
+        <v>2815112300</v>
       </c>
       <c r="O56">
         <v>-4976500</v>
       </c>
       <c r="P56">
-        <v>2852906000</v>
+        <v>-527110600</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>12300</v>
       </c>
       <c r="E57">
-        <v>6169968000</v>
+        <v>5534404200</v>
       </c>
       <c r="F57">
-        <v>12297293000</v>
+        <v>10607384600</v>
       </c>
       <c r="G57">
         <v>66825000</v>
@@ -3228,13 +3228,13 @@
         <v>996300</v>
       </c>
       <c r="I57">
-        <v>18534086000</v>
+        <v>16208613800</v>
       </c>
       <c r="J57" t="str">
         <v>2022-12-30T11:00:00.000Z</v>
       </c>
       <c r="K57">
-        <v>1386842520000</v>
+        <v>1239546363600</v>
       </c>
       <c r="L57">
         <v>79669200</v>
@@ -3243,13 +3243,13 @@
         <v>188200</v>
       </c>
       <c r="N57">
-        <v>6127325000</v>
+        <v>5072980400</v>
       </c>
       <c r="O57">
         <v>-4788300</v>
       </c>
       <c r="P57">
-        <v>8980231000</v>
+        <v>4545869800</v>
       </c>
     </row>
     <row r="58">
@@ -3266,10 +3266,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>6375837000</v>
+        <v>6074338800</v>
       </c>
       <c r="F58">
-        <v>8042514000</v>
+        <v>6933024600</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -3278,13 +3278,13 @@
         <v>868400</v>
       </c>
       <c r="I58">
-        <v>14418351000</v>
+        <v>13007363400</v>
       </c>
       <c r="J58" t="str">
         <v>2022-12-30T11:02:00.000Z</v>
       </c>
       <c r="K58">
-        <v>1401260871000</v>
+        <v>1252553727000</v>
       </c>
       <c r="L58">
         <v>80537600</v>
@@ -3293,13 +3293,13 @@
         <v>-43600</v>
       </c>
       <c r="N58">
-        <v>1666677000</v>
+        <v>858685800</v>
       </c>
       <c r="O58">
         <v>-4831900</v>
       </c>
       <c r="P58">
-        <v>10646908000</v>
+        <v>5404555600</v>
       </c>
     </row>
     <row r="59">
@@ -3316,10 +3316,10 @@
         <v>900</v>
       </c>
       <c r="E59">
-        <v>6719329000</v>
+        <v>5527022500</v>
       </c>
       <c r="F59">
-        <v>8562717000</v>
+        <v>8315564400</v>
       </c>
       <c r="G59">
         <v>10395000</v>
@@ -3328,13 +3328,13 @@
         <v>910600</v>
       </c>
       <c r="I59">
-        <v>15292441000</v>
+        <v>13852981900</v>
       </c>
       <c r="J59" t="str">
         <v>2022-12-30T11:04:00.000Z</v>
       </c>
       <c r="K59">
-        <v>1416553312000</v>
+        <v>1266406708900</v>
       </c>
       <c r="L59">
         <v>81448200</v>
@@ -3343,13 +3343,13 @@
         <v>-49100</v>
       </c>
       <c r="N59">
-        <v>1843388000</v>
+        <v>2788541900</v>
       </c>
       <c r="O59">
         <v>-4881000</v>
       </c>
       <c r="P59">
-        <v>12490296000</v>
+        <v>8193097500</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>11693730000</v>
+        <v>10428196800</v>
       </c>
       <c r="F60">
-        <v>9844423000</v>
+        <v>8988280000</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -3378,13 +3378,13 @@
         <v>1136100</v>
       </c>
       <c r="I60">
-        <v>21538153000</v>
+        <v>19416476800</v>
       </c>
       <c r="J60" t="str">
         <v>2022-12-30T11:06:00.000Z</v>
       </c>
       <c r="K60">
-        <v>1438091465000</v>
+        <v>1285823185700</v>
       </c>
       <c r="L60">
         <v>82584300</v>
@@ -3393,13 +3393,13 @@
         <v>-65300</v>
       </c>
       <c r="N60">
-        <v>-1849307000</v>
+        <v>-1439916800</v>
       </c>
       <c r="O60">
         <v>-4946300</v>
       </c>
       <c r="P60">
-        <v>10640989000</v>
+        <v>6753180700</v>
       </c>
     </row>
     <row r="61">
@@ -3416,25 +3416,25 @@
         <v>27300</v>
       </c>
       <c r="E61">
-        <v>11004602000</v>
+        <v>10444063100</v>
       </c>
       <c r="F61">
-        <v>9383334000</v>
+        <v>8634883200</v>
       </c>
       <c r="G61">
-        <v>248513000</v>
+        <v>201060500</v>
       </c>
       <c r="H61">
         <v>1375800</v>
       </c>
       <c r="I61">
-        <v>20636449000</v>
+        <v>19280006800</v>
       </c>
       <c r="J61" t="str">
         <v>2022-12-30T11:08:00.000Z</v>
       </c>
       <c r="K61">
-        <v>1458727914000</v>
+        <v>1305103192500</v>
       </c>
       <c r="L61">
         <v>83960100</v>
@@ -3443,13 +3443,13 @@
         <v>-163900</v>
       </c>
       <c r="N61">
-        <v>-1621268000</v>
+        <v>-1809179900</v>
       </c>
       <c r="O61">
         <v>-5110200</v>
       </c>
       <c r="P61">
-        <v>9019721000</v>
+        <v>4944000800</v>
       </c>
     </row>
     <row r="62">
@@ -3466,10 +3466,10 @@
         <v>12500</v>
       </c>
       <c r="E62">
-        <v>8483726000</v>
+        <v>8118291800</v>
       </c>
       <c r="F62">
-        <v>9284334000</v>
+        <v>8759859000</v>
       </c>
       <c r="G62">
         <v>442302000</v>
@@ -3478,13 +3478,13 @@
         <v>1300000</v>
       </c>
       <c r="I62">
-        <v>18210362000</v>
+        <v>17320452800</v>
       </c>
       <c r="J62" t="str">
         <v>2022-12-30T11:10:00.000Z</v>
       </c>
       <c r="K62">
-        <v>1476938276000</v>
+        <v>1322423645300</v>
       </c>
       <c r="L62">
         <v>85260100</v>
@@ -3493,13 +3493,13 @@
         <v>-78100</v>
       </c>
       <c r="N62">
-        <v>800608000</v>
+        <v>641567200</v>
       </c>
       <c r="O62">
         <v>-5188300</v>
       </c>
       <c r="P62">
-        <v>9820329000</v>
+        <v>5585568000</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>100</v>
       </c>
       <c r="E63">
-        <v>9847792000</v>
+        <v>9135505000</v>
       </c>
       <c r="F63">
-        <v>17661999000</v>
+        <v>16046915700</v>
       </c>
       <c r="G63">
         <v>2745000</v>
@@ -3528,13 +3528,13 @@
         <v>1437200</v>
       </c>
       <c r="I63">
-        <v>27512536000</v>
+        <v>25185165700</v>
       </c>
       <c r="J63" t="str">
         <v>2022-12-30T11:12:00.000Z</v>
       </c>
       <c r="K63">
-        <v>1504450812000</v>
+        <v>1347608811000</v>
       </c>
       <c r="L63">
         <v>86697300</v>
@@ -3543,13 +3543,13 @@
         <v>313500</v>
       </c>
       <c r="N63">
-        <v>7814207000</v>
+        <v>6911410700</v>
       </c>
       <c r="O63">
         <v>-4874800</v>
       </c>
       <c r="P63">
-        <v>17634536000</v>
+        <v>12496978700</v>
       </c>
     </row>
     <row r="64">
@@ -3566,10 +3566,10 @@
         <v>500</v>
       </c>
       <c r="E64">
-        <v>9354728000</v>
+        <v>8570213300</v>
       </c>
       <c r="F64">
-        <v>12326204000</v>
+        <v>11189342000</v>
       </c>
       <c r="G64">
         <v>8975000</v>
@@ -3578,13 +3578,13 @@
         <v>1262500</v>
       </c>
       <c r="I64">
-        <v>21689907000</v>
+        <v>19768530300</v>
       </c>
       <c r="J64" t="str">
         <v>2022-12-30T11:14:00.000Z</v>
       </c>
       <c r="K64">
-        <v>1526140719000</v>
+        <v>1367377341300</v>
       </c>
       <c r="L64">
         <v>87959800</v>
@@ -3593,13 +3593,13 @@
         <v>11400</v>
       </c>
       <c r="N64">
-        <v>2971476000</v>
+        <v>2619128700</v>
       </c>
       <c r="O64">
         <v>-4863400</v>
       </c>
       <c r="P64">
-        <v>20606012000</v>
+        <v>15116107400</v>
       </c>
     </row>
     <row r="65">
@@ -3616,25 +3616,25 @@
         <v>2700</v>
       </c>
       <c r="E65">
-        <v>10600661000</v>
+        <v>10523338400</v>
       </c>
       <c r="F65">
-        <v>27377348000</v>
+        <v>25866760100</v>
       </c>
       <c r="G65">
-        <v>48895000</v>
+        <v>29114800</v>
       </c>
       <c r="H65">
         <v>2224000</v>
       </c>
       <c r="I65">
-        <v>38026904000</v>
+        <v>36419213300</v>
       </c>
       <c r="J65" t="str">
         <v>2022-12-30T11:16:00.000Z</v>
       </c>
       <c r="K65">
-        <v>1564167623000</v>
+        <v>1403796554600</v>
       </c>
       <c r="L65">
         <v>90183800</v>
@@ -3643,13 +3643,13 @@
         <v>839100</v>
       </c>
       <c r="N65">
-        <v>16776687000</v>
+        <v>15343421700</v>
       </c>
       <c r="O65">
         <v>-4024300</v>
       </c>
       <c r="P65">
-        <v>37382699000</v>
+        <v>30459529100</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>24200</v>
       </c>
       <c r="E66">
-        <v>11449981000</v>
+        <v>10705326400</v>
       </c>
       <c r="F66">
-        <v>25741437000</v>
+        <v>24715563900</v>
       </c>
       <c r="G66">
         <v>553057000</v>
@@ -3678,13 +3678,13 @@
         <v>2375800</v>
       </c>
       <c r="I66">
-        <v>37744475000</v>
+        <v>35973947300</v>
       </c>
       <c r="J66" t="str">
         <v>2022-12-30T11:18:00.000Z</v>
       </c>
       <c r="K66">
-        <v>1601912098000</v>
+        <v>1439770501900</v>
       </c>
       <c r="L66">
         <v>92559600</v>
@@ -3693,13 +3693,13 @@
         <v>925400</v>
       </c>
       <c r="N66">
-        <v>14291456000</v>
+        <v>14010237500</v>
       </c>
       <c r="O66">
         <v>-3098900</v>
       </c>
       <c r="P66">
-        <v>51674155000</v>
+        <v>44469766600</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>12700</v>
       </c>
       <c r="E67">
-        <v>8498985000</v>
+        <v>8016268200</v>
       </c>
       <c r="F67">
-        <v>21458669000</v>
+        <v>19499630000</v>
       </c>
       <c r="G67">
         <v>184209000</v>
@@ -3728,13 +3728,13 @@
         <v>1838000</v>
       </c>
       <c r="I67">
-        <v>30141863000</v>
+        <v>27700107200</v>
       </c>
       <c r="J67" t="str">
         <v>2022-12-30T11:20:00.000Z</v>
       </c>
       <c r="K67">
-        <v>1632053961000</v>
+        <v>1467470609100</v>
       </c>
       <c r="L67">
         <v>94397600</v>
@@ -3743,13 +3743,13 @@
         <v>827700</v>
       </c>
       <c r="N67">
-        <v>12959684000</v>
+        <v>11483361800</v>
       </c>
       <c r="O67">
         <v>-2271200</v>
       </c>
       <c r="P67">
-        <v>64633839000</v>
+        <v>55953128400</v>
       </c>
     </row>
     <row r="68">
@@ -3766,25 +3766,25 @@
         <v>52800</v>
       </c>
       <c r="E68">
-        <v>9434395000</v>
+        <v>8930799100</v>
       </c>
       <c r="F68">
-        <v>30893708000</v>
+        <v>30078124400</v>
       </c>
       <c r="G68">
-        <v>497853000</v>
+        <v>374976000</v>
       </c>
       <c r="H68">
         <v>2623000</v>
       </c>
       <c r="I68">
-        <v>40825956000</v>
+        <v>39383899500</v>
       </c>
       <c r="J68" t="str">
         <v>2022-12-30T11:22:00.000Z</v>
       </c>
       <c r="K68">
-        <v>1672879917000</v>
+        <v>1506854508600</v>
       </c>
       <c r="L68">
         <v>97020600</v>
@@ -3793,13 +3793,13 @@
         <v>1547800</v>
       </c>
       <c r="N68">
-        <v>21459313000</v>
+        <v>21147325300</v>
       </c>
       <c r="O68">
         <v>-723400</v>
       </c>
       <c r="P68">
-        <v>86093152000</v>
+        <v>77100453700</v>
       </c>
     </row>
     <row r="69">
@@ -3816,10 +3816,10 @@
         <v>4600</v>
       </c>
       <c r="E69">
-        <v>8414965000</v>
+        <v>8076603700</v>
       </c>
       <c r="F69">
-        <v>19485406000</v>
+        <v>15342952600</v>
       </c>
       <c r="G69">
         <v>34230000</v>
@@ -3828,13 +3828,13 @@
         <v>1537100</v>
       </c>
       <c r="I69">
-        <v>27934601000</v>
+        <v>23453786300</v>
       </c>
       <c r="J69" t="str">
         <v>2022-12-30T11:24:00.000Z</v>
       </c>
       <c r="K69">
-        <v>1700814518000</v>
+        <v>1530308294900</v>
       </c>
       <c r="L69">
         <v>98557700</v>
@@ -3843,13 +3843,13 @@
         <v>496700</v>
       </c>
       <c r="N69">
-        <v>11070441000</v>
+        <v>7266348900</v>
       </c>
       <c r="O69">
         <v>-226700</v>
       </c>
       <c r="P69">
-        <v>97163593000</v>
+        <v>84366802600</v>
       </c>
     </row>
     <row r="70">
@@ -3866,25 +3866,25 @@
         <v>7800</v>
       </c>
       <c r="E70">
-        <v>11608145000</v>
+        <v>10927526300</v>
       </c>
       <c r="F70">
-        <v>15663609000</v>
+        <v>14431342500</v>
       </c>
       <c r="G70">
-        <v>197740000</v>
+        <v>195142600</v>
       </c>
       <c r="H70">
         <v>1677900</v>
       </c>
       <c r="I70">
-        <v>27469494000</v>
+        <v>25554011400</v>
       </c>
       <c r="J70" t="str">
         <v>2022-12-30T11:26:00.000Z</v>
       </c>
       <c r="K70">
-        <v>1728284012000</v>
+        <v>1555862306300</v>
       </c>
       <c r="L70">
         <v>100235600</v>
@@ -3893,13 +3893,13 @@
         <v>200900</v>
       </c>
       <c r="N70">
-        <v>4055464000</v>
+        <v>3503816200</v>
       </c>
       <c r="O70">
         <v>-25800</v>
       </c>
       <c r="P70">
-        <v>101219057000</v>
+        <v>87870618800</v>
       </c>
     </row>
     <row r="71">
@@ -3916,10 +3916,10 @@
         <v>2300</v>
       </c>
       <c r="E71">
-        <v>7399344000</v>
+        <v>7110533100</v>
       </c>
       <c r="F71">
-        <v>11491192000</v>
+        <v>10278705700</v>
       </c>
       <c r="G71">
         <v>53338000</v>
@@ -3928,13 +3928,13 @@
         <v>1068400</v>
       </c>
       <c r="I71">
-        <v>18943874000</v>
+        <v>17442576800</v>
       </c>
       <c r="J71" t="str">
         <v>2022-12-30T11:28:00.000Z</v>
       </c>
       <c r="K71">
-        <v>1747227886000</v>
+        <v>1573304883100</v>
       </c>
       <c r="L71">
         <v>101304000</v>
@@ -3943,13 +3943,13 @@
         <v>191700</v>
       </c>
       <c r="N71">
-        <v>4091848000</v>
+        <v>3168172600</v>
       </c>
       <c r="O71">
         <v>165900</v>
       </c>
       <c r="P71">
-        <v>105310905000</v>
+        <v>91038791400</v>
       </c>
     </row>
     <row r="72">
@@ -3984,7 +3984,7 @@
         <v>2022-12-30T11:30:00.000Z</v>
       </c>
       <c r="K72">
-        <v>1747269730000</v>
+        <v>1573346727100</v>
       </c>
       <c r="L72">
         <v>101305300</v>
@@ -3999,7 +3999,7 @@
         <v>164800</v>
       </c>
       <c r="P72">
-        <v>105272411000</v>
+        <v>91000297400</v>
       </c>
     </row>
     <row r="73">
@@ -4016,25 +4016,25 @@
         <v>135000</v>
       </c>
       <c r="E73">
-        <v>48347675000</v>
+        <v>44164262600</v>
       </c>
       <c r="F73">
-        <v>24123751000</v>
+        <v>22744331800</v>
       </c>
       <c r="G73">
-        <v>1961562000</v>
+        <v>1906617000</v>
       </c>
       <c r="H73">
         <v>4741700</v>
       </c>
       <c r="I73">
-        <v>74432988000</v>
+        <v>68815211400</v>
       </c>
       <c r="J73" t="str">
         <v>2022-12-30T13:00:00.000Z</v>
       </c>
       <c r="K73">
-        <v>1821702718000</v>
+        <v>1642161938500</v>
       </c>
       <c r="L73">
         <v>106047000</v>
@@ -4043,13 +4043,13 @@
         <v>-1319300</v>
       </c>
       <c r="N73">
-        <v>-24223924000</v>
+        <v>-21419930800</v>
       </c>
       <c r="O73">
         <v>-1154500</v>
       </c>
       <c r="P73">
-        <v>81048487000</v>
+        <v>69580366600</v>
       </c>
     </row>
     <row r="74">
@@ -4066,10 +4066,10 @@
         <v>84200</v>
       </c>
       <c r="E74">
-        <v>18471744000</v>
+        <v>17761754700</v>
       </c>
       <c r="F74">
-        <v>12490194000</v>
+        <v>12124460100</v>
       </c>
       <c r="G74">
         <v>671938000</v>
@@ -4078,13 +4078,13 @@
         <v>2586200</v>
       </c>
       <c r="I74">
-        <v>31633876000</v>
+        <v>30558152800</v>
       </c>
       <c r="J74" t="str">
         <v>2022-12-30T13:02:00.000Z</v>
       </c>
       <c r="K74">
-        <v>1853336594000</v>
+        <v>1672720091300</v>
       </c>
       <c r="L74">
         <v>108633200</v>
@@ -4093,13 +4093,13 @@
         <v>-579400</v>
       </c>
       <c r="N74">
-        <v>-5981550000</v>
+        <v>-5637294600</v>
       </c>
       <c r="O74">
         <v>-1733900</v>
       </c>
       <c r="P74">
-        <v>75066937000</v>
+        <v>63943072000</v>
       </c>
     </row>
     <row r="75">
@@ -4116,10 +4116,10 @@
         <v>10900</v>
       </c>
       <c r="E75">
-        <v>17819051000</v>
+        <v>17476793600</v>
       </c>
       <c r="F75">
-        <v>24199139000</v>
+        <v>23579359400</v>
       </c>
       <c r="G75">
         <v>200849000</v>
@@ -4128,13 +4128,13 @@
         <v>2665900</v>
       </c>
       <c r="I75">
-        <v>42219039000</v>
+        <v>41257002000</v>
       </c>
       <c r="J75" t="str">
         <v>2022-12-30T13:04:00.000Z</v>
       </c>
       <c r="K75">
-        <v>1895555633000</v>
+        <v>1713977093300</v>
       </c>
       <c r="L75">
         <v>111299100</v>
@@ -4143,13 +4143,13 @@
         <v>149800</v>
       </c>
       <c r="N75">
-        <v>6380088000</v>
+        <v>6102565800</v>
       </c>
       <c r="O75">
         <v>-1584100</v>
       </c>
       <c r="P75">
-        <v>81447025000</v>
+        <v>70045637800</v>
       </c>
     </row>
     <row r="76">
@@ -4166,10 +4166,10 @@
         <v>7000</v>
       </c>
       <c r="E76">
-        <v>18459583000</v>
+        <v>16967176900</v>
       </c>
       <c r="F76">
-        <v>16683666000</v>
+        <v>16472277600</v>
       </c>
       <c r="G76">
         <v>168150000</v>
@@ -4178,13 +4178,13 @@
         <v>2176300</v>
       </c>
       <c r="I76">
-        <v>35311399000</v>
+        <v>33607604500</v>
       </c>
       <c r="J76" t="str">
         <v>2022-12-30T13:06:00.000Z</v>
       </c>
       <c r="K76">
-        <v>1930867032000</v>
+        <v>1747584697800</v>
       </c>
       <c r="L76">
         <v>113475400</v>
@@ -4193,13 +4193,13 @@
         <v>-434700</v>
       </c>
       <c r="N76">
-        <v>-1775917000</v>
+        <v>-494899300</v>
       </c>
       <c r="O76">
         <v>-2018800</v>
       </c>
       <c r="P76">
-        <v>79671108000</v>
+        <v>69550738500</v>
       </c>
     </row>
     <row r="77">
@@ -4216,10 +4216,10 @@
         <v>12200</v>
       </c>
       <c r="E77">
-        <v>16591243000</v>
+        <v>15835699300</v>
       </c>
       <c r="F77">
-        <v>13723014000</v>
+        <v>13406031300</v>
       </c>
       <c r="G77">
         <v>358191000</v>
@@ -4228,13 +4228,13 @@
         <v>2091500</v>
       </c>
       <c r="I77">
-        <v>30672448000</v>
+        <v>29599921600</v>
       </c>
       <c r="J77" t="str">
         <v>2022-12-30T13:08:00.000Z</v>
       </c>
       <c r="K77">
-        <v>1961539480000</v>
+        <v>1777184619400</v>
       </c>
       <c r="L77">
         <v>115566900</v>
@@ -4243,13 +4243,13 @@
         <v>-418100</v>
       </c>
       <c r="N77">
-        <v>-2868229000</v>
+        <v>-2429668000</v>
       </c>
       <c r="O77">
         <v>-2436900</v>
       </c>
       <c r="P77">
-        <v>76802879000</v>
+        <v>67121070500</v>
       </c>
     </row>
     <row r="78">
@@ -4266,25 +4266,25 @@
         <v>4200</v>
       </c>
       <c r="E78">
-        <v>19072083000</v>
+        <v>18769685700</v>
       </c>
       <c r="F78">
-        <v>13375412000</v>
+        <v>13118569100</v>
       </c>
       <c r="G78">
-        <v>67520000</v>
+        <v>59727800</v>
       </c>
       <c r="H78">
         <v>2065900</v>
       </c>
       <c r="I78">
-        <v>32515015000</v>
+        <v>31947982600</v>
       </c>
       <c r="J78" t="str">
         <v>2022-12-30T13:10:00.000Z</v>
       </c>
       <c r="K78">
-        <v>1994054495000</v>
+        <v>1809132602000</v>
       </c>
       <c r="L78">
         <v>117632800</v>
@@ -4293,13 +4293,13 @@
         <v>-373300</v>
       </c>
       <c r="N78">
-        <v>-5696671000</v>
+        <v>-5651116600</v>
       </c>
       <c r="O78">
         <v>-2810200</v>
       </c>
       <c r="P78">
-        <v>71106208000</v>
+        <v>61469953900</v>
       </c>
     </row>
     <row r="79">
@@ -4316,25 +4316,25 @@
         <v>22700</v>
       </c>
       <c r="E79">
-        <v>15789997000</v>
+        <v>13066323400</v>
       </c>
       <c r="F79">
-        <v>21346383000</v>
+        <v>20517412800</v>
       </c>
       <c r="G79">
-        <v>505551000</v>
+        <v>497459100</v>
       </c>
       <c r="H79">
         <v>2697300</v>
       </c>
       <c r="I79">
-        <v>37641931000</v>
+        <v>34081195300</v>
       </c>
       <c r="J79" t="str">
         <v>2022-12-30T13:12:00.000Z</v>
       </c>
       <c r="K79">
-        <v>2031696426000</v>
+        <v>1843213797300</v>
       </c>
       <c r="L79">
         <v>120330100</v>
@@ -4343,13 +4343,13 @@
         <v>382600</v>
       </c>
       <c r="N79">
-        <v>5556386000</v>
+        <v>7451089400</v>
       </c>
       <c r="O79">
         <v>-2427600</v>
       </c>
       <c r="P79">
-        <v>76662594000</v>
+        <v>68921043300</v>
       </c>
     </row>
     <row r="80">
@@ -4366,10 +4366,10 @@
         <v>3400</v>
       </c>
       <c r="E80">
-        <v>16801728000</v>
+        <v>14813518200</v>
       </c>
       <c r="F80">
-        <v>13752081000</v>
+        <v>12600433800</v>
       </c>
       <c r="G80">
         <v>34920000</v>
@@ -4378,13 +4378,13 @@
         <v>2307000</v>
       </c>
       <c r="I80">
-        <v>30588729000</v>
+        <v>27448872000</v>
       </c>
       <c r="J80" t="str">
         <v>2022-12-30T13:14:00.000Z</v>
       </c>
       <c r="K80">
-        <v>2062285155000</v>
+        <v>1870662669300</v>
       </c>
       <c r="L80">
         <v>122637100</v>
@@ -4393,13 +4393,13 @@
         <v>18000</v>
       </c>
       <c r="N80">
-        <v>-3049647000</v>
+        <v>-2213084400</v>
       </c>
       <c r="O80">
         <v>-2409600</v>
       </c>
       <c r="P80">
-        <v>73612947000</v>
+        <v>66707958900</v>
       </c>
     </row>
     <row r="81">
@@ -4416,10 +4416,10 @@
         <v>3800</v>
       </c>
       <c r="E81">
-        <v>17376475000</v>
+        <v>16608843400</v>
       </c>
       <c r="F81">
-        <v>8162739000</v>
+        <v>6755247900</v>
       </c>
       <c r="G81">
         <v>63660000</v>
@@ -4428,13 +4428,13 @@
         <v>1858900</v>
       </c>
       <c r="I81">
-        <v>25602874000</v>
+        <v>23427751300</v>
       </c>
       <c r="J81" t="str">
         <v>2022-12-30T13:16:00.000Z</v>
       </c>
       <c r="K81">
-        <v>2087888029000</v>
+        <v>1894090420600</v>
       </c>
       <c r="L81">
         <v>124496000</v>
@@ -4443,13 +4443,13 @@
         <v>-854100</v>
       </c>
       <c r="N81">
-        <v>-9213736000</v>
+        <v>-9853595500</v>
       </c>
       <c r="O81">
         <v>-3263700</v>
       </c>
       <c r="P81">
-        <v>64399211000</v>
+        <v>56854363400</v>
       </c>
     </row>
     <row r="82">
@@ -4466,10 +4466,10 @@
         <v>14500</v>
       </c>
       <c r="E82">
-        <v>18028384000</v>
+        <v>16620293500</v>
       </c>
       <c r="F82">
-        <v>11788666000</v>
+        <v>10332523600</v>
       </c>
       <c r="G82">
         <v>217720000</v>
@@ -4478,13 +4478,13 @@
         <v>1993200</v>
       </c>
       <c r="I82">
-        <v>30034770000</v>
+        <v>27170537100</v>
       </c>
       <c r="J82" t="str">
         <v>2022-12-30T13:18:00.000Z</v>
       </c>
       <c r="K82">
-        <v>2117922799000</v>
+        <v>1921260957700</v>
       </c>
       <c r="L82">
         <v>126489200</v>
@@ -4493,13 +4493,13 @@
         <v>-485700</v>
       </c>
       <c r="N82">
-        <v>-6239718000</v>
+        <v>-6287769900</v>
       </c>
       <c r="O82">
         <v>-3749400</v>
       </c>
       <c r="P82">
-        <v>58159493000</v>
+        <v>50566593500</v>
       </c>
     </row>
     <row r="83">
@@ -4516,10 +4516,10 @@
         <v>22700</v>
       </c>
       <c r="E83">
-        <v>20842343000</v>
+        <v>19814771600</v>
       </c>
       <c r="F83">
-        <v>18542147000</v>
+        <v>17279211200</v>
       </c>
       <c r="G83">
         <v>609095000</v>
@@ -4528,13 +4528,13 @@
         <v>2672000</v>
       </c>
       <c r="I83">
-        <v>39993585000</v>
+        <v>37703077800</v>
       </c>
       <c r="J83" t="str">
         <v>2022-12-30T13:20:00.000Z</v>
       </c>
       <c r="K83">
-        <v>2157916384000</v>
+        <v>1958964035500</v>
       </c>
       <c r="L83">
         <v>129161200</v>
@@ -4543,13 +4543,13 @@
         <v>-481700</v>
       </c>
       <c r="N83">
-        <v>-2300196000</v>
+        <v>-2535560400</v>
       </c>
       <c r="O83">
         <v>-4231100</v>
       </c>
       <c r="P83">
-        <v>55859297000</v>
+        <v>48031033100</v>
       </c>
     </row>
     <row r="84">
@@ -4566,10 +4566,10 @@
         <v>21300</v>
       </c>
       <c r="E84">
-        <v>14404046000</v>
+        <v>13230720500</v>
       </c>
       <c r="F84">
-        <v>15860293000</v>
+        <v>13045810300</v>
       </c>
       <c r="G84">
         <v>303665000</v>
@@ -4578,13 +4578,13 @@
         <v>2051600</v>
       </c>
       <c r="I84">
-        <v>30568004000</v>
+        <v>26580195800</v>
       </c>
       <c r="J84" t="str">
         <v>2022-12-30T13:22:00.000Z</v>
       </c>
       <c r="K84">
-        <v>2188484388000</v>
+        <v>1985544231300</v>
       </c>
       <c r="L84">
         <v>131212800</v>
@@ -4593,13 +4593,13 @@
         <v>-155300</v>
       </c>
       <c r="N84">
-        <v>1456247000</v>
+        <v>-184910200</v>
       </c>
       <c r="O84">
         <v>-4386400</v>
       </c>
       <c r="P84">
-        <v>57315544000</v>
+        <v>47846122900</v>
       </c>
     </row>
     <row r="85">
@@ -4616,10 +4616,10 @@
         <v>2300</v>
       </c>
       <c r="E85">
-        <v>15896661000</v>
+        <v>14760897900</v>
       </c>
       <c r="F85">
-        <v>13230997000</v>
+        <v>11871557800</v>
       </c>
       <c r="G85">
         <v>28785000</v>
@@ -4628,13 +4628,13 @@
         <v>1985000</v>
       </c>
       <c r="I85">
-        <v>29156443000</v>
+        <v>26661240700</v>
       </c>
       <c r="J85" t="str">
         <v>2022-12-30T13:24:00.000Z</v>
       </c>
       <c r="K85">
-        <v>2217640831000</v>
+        <v>2012205472000</v>
       </c>
       <c r="L85">
         <v>133197800</v>
@@ -4643,13 +4643,13 @@
         <v>-411900</v>
       </c>
       <c r="N85">
-        <v>-2665664000</v>
+        <v>-2889340100</v>
       </c>
       <c r="O85">
         <v>-4798300</v>
       </c>
       <c r="P85">
-        <v>54649880000</v>
+        <v>44956782800</v>
       </c>
     </row>
     <row r="86">
@@ -4666,10 +4666,10 @@
         <v>25700</v>
       </c>
       <c r="E86">
-        <v>27086796000</v>
+        <v>24900584400</v>
       </c>
       <c r="F86">
-        <v>14531738000</v>
+        <v>13514256500</v>
       </c>
       <c r="G86">
         <v>170845000</v>
@@ -4678,13 +4678,13 @@
         <v>2447400</v>
       </c>
       <c r="I86">
-        <v>41789379000</v>
+        <v>38585685900</v>
       </c>
       <c r="J86" t="str">
         <v>2022-12-30T13:26:00.000Z</v>
       </c>
       <c r="K86">
-        <v>2259430210000</v>
+        <v>2050791157900</v>
       </c>
       <c r="L86">
         <v>135645200</v>
@@ -4693,13 +4693,13 @@
         <v>-934900</v>
       </c>
       <c r="N86">
-        <v>-12555058000</v>
+        <v>-11386327900</v>
       </c>
       <c r="O86">
         <v>-5733200</v>
       </c>
       <c r="P86">
-        <v>42094822000</v>
+        <v>33570454900</v>
       </c>
     </row>
     <row r="87">
@@ -4716,10 +4716,10 @@
         <v>1100</v>
       </c>
       <c r="E87">
-        <v>13055465000</v>
+        <v>12574246700</v>
       </c>
       <c r="F87">
-        <v>21748623000</v>
+        <v>20163110100</v>
       </c>
       <c r="G87">
         <v>11916000</v>
@@ -4728,13 +4728,13 @@
         <v>2116500</v>
       </c>
       <c r="I87">
-        <v>34816004000</v>
+        <v>32749272800</v>
       </c>
       <c r="J87" t="str">
         <v>2022-12-30T13:28:00.000Z</v>
       </c>
       <c r="K87">
-        <v>2294246214000</v>
+        <v>2083540430700</v>
       </c>
       <c r="L87">
         <v>137761700</v>
@@ -4743,13 +4743,13 @@
         <v>241400</v>
       </c>
       <c r="N87">
-        <v>8693158000</v>
+        <v>7588863400</v>
       </c>
       <c r="O87">
         <v>-5491800</v>
       </c>
       <c r="P87">
-        <v>50787980000</v>
+        <v>41159318300</v>
       </c>
     </row>
     <row r="88">
@@ -4766,25 +4766,25 @@
         <v>25000</v>
       </c>
       <c r="E88">
-        <v>12134351000</v>
+        <v>11933252300</v>
       </c>
       <c r="F88">
-        <v>24061366000</v>
+        <v>22519209700</v>
       </c>
       <c r="G88">
-        <v>373145000</v>
+        <v>365452700</v>
       </c>
       <c r="H88">
         <v>2219400</v>
       </c>
       <c r="I88">
-        <v>36568862000</v>
+        <v>34817914700</v>
       </c>
       <c r="J88" t="str">
         <v>2022-12-30T13:30:00.000Z</v>
       </c>
       <c r="K88">
-        <v>2330815076000</v>
+        <v>2118358345400</v>
       </c>
       <c r="L88">
         <v>139981100</v>
@@ -4793,13 +4793,13 @@
         <v>393000</v>
       </c>
       <c r="N88">
-        <v>11927015000</v>
+        <v>10585957400</v>
       </c>
       <c r="O88">
         <v>-5098800</v>
       </c>
       <c r="P88">
-        <v>62714995000</v>
+        <v>51745275700</v>
       </c>
     </row>
     <row r="89">
@@ -4816,10 +4816,10 @@
         <v>3400</v>
       </c>
       <c r="E89">
-        <v>10280019000</v>
+        <v>9396403500</v>
       </c>
       <c r="F89">
-        <v>18712480000</v>
+        <v>17170423600</v>
       </c>
       <c r="G89">
         <v>28443000</v>
@@ -4828,13 +4828,13 @@
         <v>1995800</v>
       </c>
       <c r="I89">
-        <v>29020942000</v>
+        <v>26595270100</v>
       </c>
       <c r="J89" t="str">
         <v>2022-12-30T13:32:00.000Z</v>
       </c>
       <c r="K89">
-        <v>2359836018000</v>
+        <v>2144953615500</v>
       </c>
       <c r="L89">
         <v>141976900</v>
@@ -4843,13 +4843,13 @@
         <v>474200</v>
       </c>
       <c r="N89">
-        <v>8432461000</v>
+        <v>7774020100</v>
       </c>
       <c r="O89">
         <v>-4624600</v>
       </c>
       <c r="P89">
-        <v>71147456000</v>
+        <v>59519295800</v>
       </c>
     </row>
     <row r="90">
@@ -4866,10 +4866,10 @@
         <v>23000</v>
       </c>
       <c r="E90">
-        <v>10335310000</v>
+        <v>9916828900</v>
       </c>
       <c r="F90">
-        <v>24226773000</v>
+        <v>22702698600</v>
       </c>
       <c r="G90">
         <v>307695000</v>
@@ -4878,13 +4878,13 @@
         <v>2315300</v>
       </c>
       <c r="I90">
-        <v>34869778000</v>
+        <v>32927222500</v>
       </c>
       <c r="J90" t="str">
         <v>2022-12-30T13:34:00.000Z</v>
       </c>
       <c r="K90">
-        <v>2394705796000</v>
+        <v>2177880838000</v>
       </c>
       <c r="L90">
         <v>144292200</v>
@@ -4893,13 +4893,13 @@
         <v>472500</v>
       </c>
       <c r="N90">
-        <v>13891463000</v>
+        <v>12785869700</v>
       </c>
       <c r="O90">
         <v>-4152100</v>
       </c>
       <c r="P90">
-        <v>85038919000</v>
+        <v>72305165500</v>
       </c>
     </row>
     <row r="91">
@@ -4916,25 +4916,25 @@
         <v>32000</v>
       </c>
       <c r="E91">
-        <v>12181890000</v>
+        <v>11425746900</v>
       </c>
       <c r="F91">
-        <v>20712202000</v>
+        <v>18727089100</v>
       </c>
       <c r="G91">
-        <v>279387000</v>
+        <v>216250200</v>
       </c>
       <c r="H91">
         <v>1987300</v>
       </c>
       <c r="I91">
-        <v>33173479000</v>
+        <v>30369086200</v>
       </c>
       <c r="J91" t="str">
         <v>2022-12-30T13:36:00.000Z</v>
       </c>
       <c r="K91">
-        <v>2427879275000</v>
+        <v>2208249924200</v>
       </c>
       <c r="L91">
         <v>146279500</v>
@@ -4943,13 +4943,13 @@
         <v>337300</v>
       </c>
       <c r="N91">
-        <v>8530312000</v>
+        <v>7301342200</v>
       </c>
       <c r="O91">
         <v>-3814800</v>
       </c>
       <c r="P91">
-        <v>93569231000</v>
+        <v>79606507700</v>
       </c>
     </row>
     <row r="92">
@@ -4966,10 +4966,10 @@
         <v>7000</v>
       </c>
       <c r="E92">
-        <v>9602352000</v>
+        <v>8902852200</v>
       </c>
       <c r="F92">
-        <v>27826968000</v>
+        <v>23075124600</v>
       </c>
       <c r="G92">
         <v>64234000</v>
@@ -4978,13 +4978,13 @@
         <v>2458300</v>
       </c>
       <c r="I92">
-        <v>37493554000</v>
+        <v>32042210800</v>
       </c>
       <c r="J92" t="str">
         <v>2022-12-30T13:38:00.000Z</v>
       </c>
       <c r="K92">
-        <v>2465372829000</v>
+        <v>2240292135000</v>
       </c>
       <c r="L92">
         <v>148737800</v>
@@ -4993,13 +4993,13 @@
         <v>1070500</v>
       </c>
       <c r="N92">
-        <v>18224616000</v>
+        <v>14172272400</v>
       </c>
       <c r="O92">
         <v>-2744300</v>
       </c>
       <c r="P92">
-        <v>111793847000</v>
+        <v>93778780100</v>
       </c>
     </row>
     <row r="93">
@@ -5016,25 +5016,25 @@
         <v>55200</v>
       </c>
       <c r="E93">
-        <v>10185595000</v>
+        <v>9449132200</v>
       </c>
       <c r="F93">
-        <v>38694857000</v>
+        <v>37731721100</v>
       </c>
       <c r="G93">
-        <v>572138000</v>
+        <v>558152000</v>
       </c>
       <c r="H93">
         <v>3459400</v>
       </c>
       <c r="I93">
-        <v>49452590000</v>
+        <v>47739005300</v>
       </c>
       <c r="J93" t="str">
         <v>2022-12-30T13:40:00.000Z</v>
       </c>
       <c r="K93">
-        <v>2514825419000</v>
+        <v>2288031140300</v>
       </c>
       <c r="L93">
         <v>152197200</v>
@@ -5043,13 +5043,13 @@
         <v>2189400</v>
       </c>
       <c r="N93">
-        <v>28509262000</v>
+        <v>28282588900</v>
       </c>
       <c r="O93">
         <v>-554900</v>
       </c>
       <c r="P93">
-        <v>140303109000</v>
+        <v>122061369000</v>
       </c>
     </row>
     <row r="94">
@@ -5066,10 +5066,10 @@
         <v>7400</v>
       </c>
       <c r="E94">
-        <v>15351953000</v>
+        <v>14118987200</v>
       </c>
       <c r="F94">
-        <v>38887599000</v>
+        <v>30316079100</v>
       </c>
       <c r="G94">
         <v>103383000</v>
@@ -5078,13 +5078,13 @@
         <v>3514100</v>
       </c>
       <c r="I94">
-        <v>54342935000</v>
+        <v>44538449300</v>
       </c>
       <c r="J94" t="str">
         <v>2022-12-30T13:42:00.000Z</v>
       </c>
       <c r="K94">
-        <v>2569168354000</v>
+        <v>2332569589600</v>
       </c>
       <c r="L94">
         <v>155711300</v>
@@ -5093,13 +5093,13 @@
         <v>1422700</v>
       </c>
       <c r="N94">
-        <v>23535646000</v>
+        <v>16197091900</v>
       </c>
       <c r="O94">
         <v>867800</v>
       </c>
       <c r="P94">
-        <v>163838755000</v>
+        <v>138258460900</v>
       </c>
     </row>
     <row r="95">
@@ -5116,10 +5116,10 @@
         <v>30100</v>
       </c>
       <c r="E95">
-        <v>17871667000</v>
+        <v>15786953800</v>
       </c>
       <c r="F95">
-        <v>33350296000</v>
+        <v>31482565600</v>
       </c>
       <c r="G95">
         <v>469873000</v>
@@ -5128,13 +5128,13 @@
         <v>3586000</v>
       </c>
       <c r="I95">
-        <v>51691836000</v>
+        <v>47739392400</v>
       </c>
       <c r="J95" t="str">
         <v>2022-12-30T13:44:00.000Z</v>
       </c>
       <c r="K95">
-        <v>2620860190000</v>
+        <v>2380308982000</v>
       </c>
       <c r="L95">
         <v>159297300</v>
@@ -5143,13 +5143,13 @@
         <v>1152700</v>
       </c>
       <c r="N95">
-        <v>15478629000</v>
+        <v>15695611800</v>
       </c>
       <c r="O95">
         <v>2020500</v>
       </c>
       <c r="P95">
-        <v>179317384000</v>
+        <v>153954072700</v>
       </c>
     </row>
     <row r="96">
@@ -5166,10 +5166,10 @@
         <v>9300</v>
       </c>
       <c r="E96">
-        <v>16514521000</v>
+        <v>16176159700</v>
       </c>
       <c r="F96">
-        <v>32890235000</v>
+        <v>26516814800</v>
       </c>
       <c r="G96">
         <v>114971000</v>
@@ -5178,13 +5178,13 @@
         <v>3745500</v>
       </c>
       <c r="I96">
-        <v>49519727000</v>
+        <v>42807945500</v>
       </c>
       <c r="J96" t="str">
         <v>2022-12-30T13:46:00.000Z</v>
       </c>
       <c r="K96">
-        <v>2670379917000</v>
+        <v>2423116927500</v>
       </c>
       <c r="L96">
         <v>163042800</v>
@@ -5193,13 +5193,13 @@
         <v>1494200</v>
       </c>
       <c r="N96">
-        <v>16375714000</v>
+        <v>10340655100</v>
       </c>
       <c r="O96">
         <v>3514700</v>
       </c>
       <c r="P96">
-        <v>195693098000</v>
+        <v>164294727800</v>
       </c>
     </row>
     <row r="97">
@@ -5216,10 +5216,10 @@
         <v>24000</v>
       </c>
       <c r="E97">
-        <v>20979077000</v>
+        <v>18219039800</v>
       </c>
       <c r="F97">
-        <v>27059344000</v>
+        <v>24179926300</v>
       </c>
       <c r="G97">
         <v>330684000</v>
@@ -5228,13 +5228,13 @@
         <v>3520400</v>
       </c>
       <c r="I97">
-        <v>48369105000</v>
+        <v>42729650100</v>
       </c>
       <c r="J97" t="str">
         <v>2022-12-30T13:48:00.000Z</v>
       </c>
       <c r="K97">
-        <v>2718749022000</v>
+        <v>2465846577600</v>
       </c>
       <c r="L97">
         <v>166563200</v>
@@ -5243,13 +5243,13 @@
         <v>361600</v>
       </c>
       <c r="N97">
-        <v>6080267000</v>
+        <v>5960886500</v>
       </c>
       <c r="O97">
         <v>3876300</v>
       </c>
       <c r="P97">
-        <v>201773365000</v>
+        <v>170255614300</v>
       </c>
     </row>
     <row r="98">
@@ -5266,25 +5266,25 @@
         <v>11800</v>
       </c>
       <c r="E98">
-        <v>31694706000</v>
+        <v>28832870700</v>
       </c>
       <c r="F98">
-        <v>28521427000</v>
+        <v>26828821300</v>
       </c>
       <c r="G98">
-        <v>198029000</v>
+        <v>189038000</v>
       </c>
       <c r="H98">
         <v>4012400</v>
       </c>
       <c r="I98">
-        <v>60414162000</v>
+        <v>55850730000</v>
       </c>
       <c r="J98" t="str">
         <v>2022-12-30T13:50:00.000Z</v>
       </c>
       <c r="K98">
-        <v>2779163184000</v>
+        <v>2521697307600</v>
       </c>
       <c r="L98">
         <v>170575600</v>
@@ -5293,13 +5293,13 @@
         <v>-130800</v>
       </c>
       <c r="N98">
-        <v>-3173279000</v>
+        <v>-2004049400</v>
       </c>
       <c r="O98">
         <v>3745500</v>
       </c>
       <c r="P98">
-        <v>198600086000</v>
+        <v>168251564900</v>
       </c>
     </row>
     <row r="99">
@@ -5316,10 +5316,10 @@
         <v>12000</v>
       </c>
       <c r="E99">
-        <v>34184401000</v>
+        <v>29598391600</v>
       </c>
       <c r="F99">
-        <v>19990424000</v>
+        <v>19000215200</v>
       </c>
       <c r="G99">
         <v>140499000</v>
@@ -5328,13 +5328,13 @@
         <v>3538700</v>
       </c>
       <c r="I99">
-        <v>54315324000</v>
+        <v>48739105800</v>
       </c>
       <c r="J99" t="str">
         <v>2022-12-30T13:52:00.000Z</v>
       </c>
       <c r="K99">
-        <v>2833478508000</v>
+        <v>2570436413400</v>
       </c>
       <c r="L99">
         <v>174114300</v>
@@ -5343,13 +5343,13 @@
         <v>-1193300</v>
       </c>
       <c r="N99">
-        <v>-14193977000</v>
+        <v>-10598176400</v>
       </c>
       <c r="O99">
         <v>2552200</v>
       </c>
       <c r="P99">
-        <v>184406109000</v>
+        <v>157653388500</v>
       </c>
     </row>
     <row r="100">
@@ -5366,10 +5366,10 @@
         <v>15200</v>
       </c>
       <c r="E100">
-        <v>28411697000</v>
+        <v>27200809100</v>
       </c>
       <c r="F100">
-        <v>18105822000</v>
+        <v>17258370300</v>
       </c>
       <c r="G100">
         <v>278542000</v>
@@ -5378,13 +5378,13 @@
         <v>2787100</v>
       </c>
       <c r="I100">
-        <v>46796061000</v>
+        <v>44737721400</v>
       </c>
       <c r="J100" t="str">
         <v>2022-12-30T13:54:00.000Z</v>
       </c>
       <c r="K100">
-        <v>2880274569000</v>
+        <v>2615174134800</v>
       </c>
       <c r="L100">
         <v>176901400</v>
@@ -5393,13 +5393,13 @@
         <v>-801100</v>
       </c>
       <c r="N100">
-        <v>-10305875000</v>
+        <v>-9942438800</v>
       </c>
       <c r="O100">
         <v>1751100</v>
       </c>
       <c r="P100">
-        <v>174100234000</v>
+        <v>147710949700</v>
       </c>
     </row>
     <row r="101">
@@ -5416,25 +5416,25 @@
         <v>27900</v>
       </c>
       <c r="E101">
-        <v>39271299000</v>
+        <v>33840735000</v>
       </c>
       <c r="F101">
-        <v>21413403000</v>
+        <v>17469351000</v>
       </c>
       <c r="G101">
-        <v>305802000</v>
+        <v>273634200</v>
       </c>
       <c r="H101">
         <v>4046400</v>
       </c>
       <c r="I101">
-        <v>60990504000</v>
+        <v>51583720200</v>
       </c>
       <c r="J101" t="str">
         <v>2022-12-30T13:56:00.000Z</v>
       </c>
       <c r="K101">
-        <v>2941265073000</v>
+        <v>2666757855000</v>
       </c>
       <c r="L101">
         <v>180947800</v>
@@ -5443,13 +5443,13 @@
         <v>-1483100</v>
       </c>
       <c r="N101">
-        <v>-17857896000</v>
+        <v>-16371384000</v>
       </c>
       <c r="O101">
         <v>268000</v>
       </c>
       <c r="P101">
-        <v>156242338000</v>
+        <v>131339565700</v>
       </c>
     </row>
     <row r="102">
@@ -5466,25 +5466,25 @@
         <v>23900</v>
       </c>
       <c r="E102">
-        <v>25958403000</v>
+        <v>23692471200</v>
       </c>
       <c r="F102">
-        <v>15549600000</v>
+        <v>12874477800</v>
       </c>
       <c r="G102">
-        <v>649762000</v>
+        <v>639871900</v>
       </c>
       <c r="H102">
         <v>2686800</v>
       </c>
       <c r="I102">
-        <v>42157765000</v>
+        <v>37206820900</v>
       </c>
       <c r="J102" t="str">
         <v>2022-12-30T13:58:00.000Z</v>
       </c>
       <c r="K102">
-        <v>2983422838000</v>
+        <v>2703964675900</v>
       </c>
       <c r="L102">
         <v>183634600</v>
@@ -5493,13 +5493,13 @@
         <v>-826900</v>
       </c>
       <c r="N102">
-        <v>-10408803000</v>
+        <v>-10817993400</v>
       </c>
       <c r="O102">
         <v>-558900</v>
       </c>
       <c r="P102">
-        <v>145833535000</v>
+        <v>120521572300</v>
       </c>
     </row>
     <row r="103">
@@ -5516,10 +5516,10 @@
         <v>11500</v>
       </c>
       <c r="E103">
-        <v>20984333000</v>
+        <v>19977840500</v>
       </c>
       <c r="F103">
-        <v>24634206000</v>
+        <v>22700042100</v>
       </c>
       <c r="G103">
         <v>214011000</v>
@@ -5528,13 +5528,13 @@
         <v>2806400</v>
       </c>
       <c r="I103">
-        <v>45832550000</v>
+        <v>42891893600</v>
       </c>
       <c r="J103" t="str">
         <v>2022-12-30T14:00:00.000Z</v>
       </c>
       <c r="K103">
-        <v>3029255388000</v>
+        <v>2746856569500</v>
       </c>
       <c r="L103">
         <v>186441000</v>
@@ -5543,13 +5543,13 @@
         <v>281100</v>
       </c>
       <c r="N103">
-        <v>3649873000</v>
+        <v>2722201600</v>
       </c>
       <c r="O103">
         <v>-277800</v>
       </c>
       <c r="P103">
-        <v>149483408000</v>
+        <v>123243773900</v>
       </c>
     </row>
     <row r="104">
@@ -5566,25 +5566,25 @@
         <v>127800</v>
       </c>
       <c r="E104">
-        <v>19504597000</v>
+        <v>19113388600</v>
       </c>
       <c r="F104">
-        <v>17128708000</v>
+        <v>15371267200</v>
       </c>
       <c r="G104">
-        <v>1376180000</v>
+        <v>448308800</v>
       </c>
       <c r="H104">
         <v>2573000</v>
       </c>
       <c r="I104">
-        <v>38009485000</v>
+        <v>34932964600</v>
       </c>
       <c r="J104" t="str">
         <v>2022-12-30T14:02:00.000Z</v>
       </c>
       <c r="K104">
-        <v>3067264873000</v>
+        <v>2781789534100</v>
       </c>
       <c r="L104">
         <v>189014000</v>
@@ -5593,13 +5593,13 @@
         <v>-128800</v>
       </c>
       <c r="N104">
-        <v>-2375889000</v>
+        <v>-3742121400</v>
       </c>
       <c r="O104">
         <v>-406600</v>
       </c>
       <c r="P104">
-        <v>147107519000</v>
+        <v>119501652500</v>
       </c>
     </row>
     <row r="105">
@@ -5616,25 +5616,25 @@
         <v>33600</v>
       </c>
       <c r="E105">
-        <v>20538896000</v>
+        <v>18467869100</v>
       </c>
       <c r="F105">
-        <v>31392044000</v>
+        <v>28258081100</v>
       </c>
       <c r="G105">
-        <v>842001000</v>
+        <v>835507500</v>
       </c>
       <c r="H105">
         <v>3333100</v>
       </c>
       <c r="I105">
-        <v>52772941000</v>
+        <v>47561457700</v>
       </c>
       <c r="J105" t="str">
         <v>2022-12-30T14:04:00.000Z</v>
       </c>
       <c r="K105">
-        <v>3120037814000</v>
+        <v>2829350991800</v>
       </c>
       <c r="L105">
         <v>192347100</v>
@@ -5643,13 +5643,13 @@
         <v>522900</v>
       </c>
       <c r="N105">
-        <v>10853148000</v>
+        <v>9790212000</v>
       </c>
       <c r="O105">
         <v>116300</v>
       </c>
       <c r="P105">
-        <v>157960667000</v>
+        <v>129291864500</v>
       </c>
     </row>
     <row r="106">
@@ -5666,10 +5666,10 @@
         <v>30700</v>
       </c>
       <c r="E106">
-        <v>14327083000</v>
+        <v>12798213400</v>
       </c>
       <c r="F106">
-        <v>28364350000</v>
+        <v>27701813200</v>
       </c>
       <c r="G106">
         <v>212507000</v>
@@ -5678,13 +5678,13 @@
         <v>2710300</v>
       </c>
       <c r="I106">
-        <v>42903940000</v>
+        <v>40712533600</v>
       </c>
       <c r="J106" t="str">
         <v>2022-12-30T14:06:00.000Z</v>
       </c>
       <c r="K106">
-        <v>3162941754000</v>
+        <v>2870063525400</v>
       </c>
       <c r="L106">
         <v>195057400</v>
@@ -5693,13 +5693,13 @@
         <v>1017600</v>
       </c>
       <c r="N106">
-        <v>14037267000</v>
+        <v>14903599800</v>
       </c>
       <c r="O106">
         <v>1133900</v>
       </c>
       <c r="P106">
-        <v>171997934000</v>
+        <v>144195464300</v>
       </c>
     </row>
     <row r="107">
@@ -5716,25 +5716,25 @@
         <v>12800</v>
       </c>
       <c r="E107">
-        <v>17559694000</v>
+        <v>15738616900</v>
       </c>
       <c r="F107">
-        <v>27252983000</v>
+        <v>25718618900</v>
       </c>
       <c r="G107">
-        <v>208620000</v>
+        <v>200228400</v>
       </c>
       <c r="H107">
         <v>3240900</v>
       </c>
       <c r="I107">
-        <v>45021297000</v>
+        <v>41657464200</v>
       </c>
       <c r="J107" t="str">
         <v>2022-12-30T14:08:00.000Z</v>
       </c>
       <c r="K107">
-        <v>3207963051000</v>
+        <v>2911720989600</v>
       </c>
       <c r="L107">
         <v>198298300</v>
@@ -5743,13 +5743,13 @@
         <v>770300</v>
       </c>
       <c r="N107">
-        <v>9693289000</v>
+        <v>9980002000</v>
       </c>
       <c r="O107">
         <v>1904200</v>
       </c>
       <c r="P107">
-        <v>181691223000</v>
+        <v>154175466300</v>
       </c>
     </row>
     <row r="108">
@@ -5766,10 +5766,10 @@
         <v>22500</v>
       </c>
       <c r="E108">
-        <v>22927467000</v>
+        <v>22670324400</v>
       </c>
       <c r="F108">
-        <v>58804886000</v>
+        <v>53625071000</v>
       </c>
       <c r="G108">
         <v>264225000</v>
@@ -5778,13 +5778,13 @@
         <v>5604000</v>
       </c>
       <c r="I108">
-        <v>81996578000</v>
+        <v>76559620400</v>
       </c>
       <c r="J108" t="str">
         <v>2022-12-30T14:10:00.000Z</v>
       </c>
       <c r="K108">
-        <v>3289959629000</v>
+        <v>2988280610000</v>
       </c>
       <c r="L108">
         <v>203902300</v>
@@ -5793,13 +5793,13 @@
         <v>2914300</v>
       </c>
       <c r="N108">
-        <v>35877419000</v>
+        <v>30954746600</v>
       </c>
       <c r="O108">
         <v>4818500</v>
       </c>
       <c r="P108">
-        <v>217568642000</v>
+        <v>185130212900</v>
       </c>
     </row>
     <row r="109">
@@ -5816,10 +5816,10 @@
         <v>3900</v>
       </c>
       <c r="E109">
-        <v>19516277000</v>
+        <v>18923070800</v>
       </c>
       <c r="F109">
-        <v>57179624000</v>
+        <v>51632376800</v>
       </c>
       <c r="G109">
         <v>74208000</v>
@@ -5828,13 +5828,13 @@
         <v>4645600</v>
       </c>
       <c r="I109">
-        <v>76770109000</v>
+        <v>70629655600</v>
       </c>
       <c r="J109" t="str">
         <v>2022-12-30T14:12:00.000Z</v>
       </c>
       <c r="K109">
-        <v>3366729738000</v>
+        <v>3058910265600</v>
       </c>
       <c r="L109">
         <v>208547900</v>
@@ -5843,13 +5843,13 @@
         <v>2113500</v>
       </c>
       <c r="N109">
-        <v>37663347000</v>
+        <v>32709306000</v>
       </c>
       <c r="O109">
         <v>6932000</v>
       </c>
       <c r="P109">
-        <v>255231989000</v>
+        <v>217839518900</v>
       </c>
     </row>
     <row r="110">
@@ -5866,10 +5866,10 @@
         <v>4700</v>
       </c>
       <c r="E110">
-        <v>23197582000</v>
+        <v>21807173800</v>
       </c>
       <c r="F110">
-        <v>57740401000</v>
+        <v>55256487400</v>
       </c>
       <c r="G110">
         <v>68580000</v>
@@ -5878,13 +5878,13 @@
         <v>5066900</v>
       </c>
       <c r="I110">
-        <v>81006563000</v>
+        <v>77132241200</v>
       </c>
       <c r="J110" t="str">
         <v>2022-12-30T14:14:00.000Z</v>
       </c>
       <c r="K110">
-        <v>3447736301000</v>
+        <v>3136042506800</v>
       </c>
       <c r="L110">
         <v>213614800</v>
@@ -5893,13 +5893,13 @@
         <v>2253400</v>
       </c>
       <c r="N110">
-        <v>34542819000</v>
+        <v>33449313600</v>
       </c>
       <c r="O110">
         <v>9185400</v>
       </c>
       <c r="P110">
-        <v>289774808000</v>
+        <v>251288832500</v>
       </c>
     </row>
     <row r="111">
@@ -5916,25 +5916,25 @@
         <v>19900</v>
       </c>
       <c r="E111">
-        <v>45130643000</v>
+        <v>43208167400</v>
       </c>
       <c r="F111">
-        <v>51186854000</v>
+        <v>50245995800</v>
       </c>
       <c r="G111">
-        <v>279763000</v>
+        <v>262380400</v>
       </c>
       <c r="H111">
         <v>5586400</v>
       </c>
       <c r="I111">
-        <v>96597260000</v>
+        <v>93716543600</v>
       </c>
       <c r="J111" t="str">
         <v>2022-12-30T14:16:00.000Z</v>
       </c>
       <c r="K111">
-        <v>3544333561000</v>
+        <v>3229759050400</v>
       </c>
       <c r="L111">
         <v>219201200</v>
@@ -5943,13 +5943,13 @@
         <v>126700</v>
       </c>
       <c r="N111">
-        <v>6056211000</v>
+        <v>7037828400</v>
       </c>
       <c r="O111">
         <v>9312100</v>
       </c>
       <c r="P111">
-        <v>295831019000</v>
+        <v>258326660900</v>
       </c>
     </row>
     <row r="112">
@@ -5966,10 +5966,10 @@
         <v>28400</v>
       </c>
       <c r="E112">
-        <v>36818079000</v>
+        <v>31126176600</v>
       </c>
       <c r="F112">
-        <v>57785174000</v>
+        <v>53920942100</v>
       </c>
       <c r="G112">
         <v>443550000</v>
@@ -5978,13 +5978,13 @@
         <v>5989600</v>
       </c>
       <c r="I112">
-        <v>95046803000</v>
+        <v>85490668700</v>
       </c>
       <c r="J112" t="str">
         <v>2022-12-30T14:18:00.000Z</v>
       </c>
       <c r="K112">
-        <v>3639380364000</v>
+        <v>3315249719100</v>
       </c>
       <c r="L112">
         <v>225190800</v>
@@ -5993,13 +5993,13 @@
         <v>1191200</v>
       </c>
       <c r="N112">
-        <v>20967095000</v>
+        <v>22794765500</v>
       </c>
       <c r="O112">
         <v>10503300</v>
       </c>
       <c r="P112">
-        <v>316798114000</v>
+        <v>281121426400</v>
       </c>
     </row>
     <row r="113">
@@ -6016,10 +6016,10 @@
         <v>17400</v>
       </c>
       <c r="E113">
-        <v>51205724000</v>
+        <v>49602728600</v>
       </c>
       <c r="F113">
-        <v>58089965000</v>
+        <v>54953904200</v>
       </c>
       <c r="G113">
         <v>391073000</v>
@@ -6028,13 +6028,13 @@
         <v>5878100</v>
       </c>
       <c r="I113">
-        <v>109686762000</v>
+        <v>104947705800</v>
       </c>
       <c r="J113" t="str">
         <v>2022-12-30T14:20:00.000Z</v>
       </c>
       <c r="K113">
-        <v>3749067126000</v>
+        <v>3420197424900</v>
       </c>
       <c r="L113">
         <v>231068900</v>
@@ -6043,13 +6043,13 @@
         <v>248700</v>
       </c>
       <c r="N113">
-        <v>6884241000</v>
+        <v>5351175600</v>
       </c>
       <c r="O113">
         <v>10752000</v>
       </c>
       <c r="P113">
-        <v>323682355000</v>
+        <v>286472602000</v>
       </c>
     </row>
     <row r="114">
@@ -6066,10 +6066,10 @@
         <v>19800</v>
       </c>
       <c r="E114">
-        <v>47075748000</v>
+        <v>45191134500</v>
       </c>
       <c r="F114">
-        <v>84229472000</v>
+        <v>79068138500</v>
       </c>
       <c r="G114">
         <v>176901000</v>
@@ -6078,13 +6078,13 @@
         <v>7659800</v>
       </c>
       <c r="I114">
-        <v>131482121000</v>
+        <v>124436174000</v>
       </c>
       <c r="J114" t="str">
         <v>2022-12-30T14:22:00.000Z</v>
       </c>
       <c r="K114">
-        <v>3880549247000</v>
+        <v>3544633598900</v>
       </c>
       <c r="L114">
         <v>238728700</v>
@@ -6093,13 +6093,13 @@
         <v>1701800</v>
       </c>
       <c r="N114">
-        <v>37153724000</v>
+        <v>33877004000</v>
       </c>
       <c r="O114">
         <v>12453800</v>
       </c>
       <c r="P114">
-        <v>360836079000</v>
+        <v>320349606000</v>
       </c>
     </row>
     <row r="115">
@@ -6116,10 +6116,10 @@
         <v>34600</v>
       </c>
       <c r="E115">
-        <v>55446891000</v>
+        <v>45663983700</v>
       </c>
       <c r="F115">
-        <v>76576277000</v>
+        <v>69853306700</v>
       </c>
       <c r="G115">
         <v>325433000</v>
@@ -6128,13 +6128,13 @@
         <v>7600000</v>
       </c>
       <c r="I115">
-        <v>132348601000</v>
+        <v>115842723400</v>
       </c>
       <c r="J115" t="str">
         <v>2022-12-30T14:24:00.000Z</v>
       </c>
       <c r="K115">
-        <v>4012897848000</v>
+        <v>3660476322300</v>
       </c>
       <c r="L115">
         <v>246328700</v>
@@ -6143,13 +6143,13 @@
         <v>224600</v>
       </c>
       <c r="N115">
-        <v>21129386000</v>
+        <v>24189323000</v>
       </c>
       <c r="O115">
         <v>12678400</v>
       </c>
       <c r="P115">
-        <v>381965465000</v>
+        <v>344538929000</v>
       </c>
     </row>
     <row r="116">
@@ -6166,25 +6166,25 @@
         <v>95600</v>
       </c>
       <c r="E116">
-        <v>74872294000</v>
+        <v>74126140900</v>
       </c>
       <c r="F116">
-        <v>88926652000</v>
+        <v>81958427200</v>
       </c>
       <c r="G116">
-        <v>1914464000</v>
+        <v>1910468000</v>
       </c>
       <c r="H116">
         <v>9764300</v>
       </c>
       <c r="I116">
-        <v>165713410000</v>
+        <v>157995036100</v>
       </c>
       <c r="J116" t="str">
         <v>2022-12-30T14:26:00.000Z</v>
       </c>
       <c r="K116">
-        <v>4178611258000</v>
+        <v>3818471358400</v>
       </c>
       <c r="L116">
         <v>256093000</v>
@@ -6193,13 +6193,13 @@
         <v>-282100</v>
       </c>
       <c r="N116">
-        <v>14054358000</v>
+        <v>7832286300</v>
       </c>
       <c r="O116">
         <v>12396300</v>
       </c>
       <c r="P116">
-        <v>396019823000</v>
+        <v>352371215300</v>
       </c>
     </row>
     <row r="117">
@@ -6216,25 +6216,25 @@
         <v>102600</v>
       </c>
       <c r="E117">
-        <v>94978565000</v>
+        <v>91925121500</v>
       </c>
       <c r="F117">
-        <v>77603503000</v>
+        <v>72594217300</v>
       </c>
       <c r="G117">
-        <v>1916651000</v>
+        <v>1892075600</v>
       </c>
       <c r="H117">
         <v>11064900</v>
       </c>
       <c r="I117">
-        <v>174498719000</v>
+        <v>166411414400</v>
       </c>
       <c r="J117" t="str">
         <v>2022-12-30T14:28:00.000Z</v>
       </c>
       <c r="K117">
-        <v>4353109977000</v>
+        <v>3984882772800</v>
       </c>
       <c r="L117">
         <v>267157900</v>
@@ -6243,13 +6243,13 @@
         <v>-2406300</v>
       </c>
       <c r="N117">
-        <v>-17375062000</v>
+        <v>-19330904200</v>
       </c>
       <c r="O117">
         <v>9990000</v>
       </c>
       <c r="P117">
-        <v>378644761000</v>
+        <v>333040311100</v>
       </c>
     </row>
     <row r="118">
@@ -6269,7 +6269,7 @@
         <v>206536000</v>
       </c>
       <c r="F118">
-        <v>1796190000</v>
+        <v>1791894300</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -6278,13 +6278,13 @@
         <v>103700</v>
       </c>
       <c r="I118">
-        <v>2002726000</v>
+        <v>1998430300</v>
       </c>
       <c r="J118" t="str">
         <v>2022-12-30T14:30:00.000Z</v>
       </c>
       <c r="K118">
-        <v>4355112703000</v>
+        <v>3986881203100</v>
       </c>
       <c r="L118">
         <v>267261600</v>
@@ -6293,13 +6293,13 @@
         <v>68500</v>
       </c>
       <c r="N118">
-        <v>1589654000</v>
+        <v>1585358300</v>
       </c>
       <c r="O118">
         <v>10058500</v>
       </c>
       <c r="P118">
-        <v>380234415000</v>
+        <v>334625669400</v>
       </c>
     </row>
     <row r="119">
@@ -6334,7 +6334,7 @@
         <v>2022-12-30T14:38:00.000Z</v>
       </c>
       <c r="K119">
-        <v>4355113853000</v>
+        <v>3986882353100</v>
       </c>
       <c r="L119">
         <v>267261700</v>
@@ -6349,7 +6349,7 @@
         <v>10058400</v>
       </c>
       <c r="P119">
-        <v>380233265000</v>
+        <v>334624519400</v>
       </c>
     </row>
     <row r="120">
@@ -6384,7 +6384,7 @@
         <v>2022-12-30T14:40:00.000Z</v>
       </c>
       <c r="K120">
-        <v>4355194353000</v>
+        <v>3986962853100</v>
       </c>
       <c r="L120">
         <v>267268700</v>
@@ -6399,7 +6399,7 @@
         <v>10051400</v>
       </c>
       <c r="P120">
-        <v>380152765000</v>
+        <v>334544019400</v>
       </c>
     </row>
     <row r="121">
@@ -6434,7 +6434,7 @@
         <v>2022-12-30T14:42:00.000Z</v>
       </c>
       <c r="K121">
-        <v>4355200153000</v>
+        <v>3986968653100</v>
       </c>
       <c r="L121">
         <v>267269200</v>
@@ -6449,7 +6449,7 @@
         <v>10051400</v>
       </c>
       <c r="P121">
-        <v>380152765000</v>
+        <v>334544019400</v>
       </c>
     </row>
     <row r="122">
@@ -6466,25 +6466,25 @@
         <v>39230700</v>
       </c>
       <c r="E122">
-        <v>230589599000</v>
+        <v>223995999200</v>
       </c>
       <c r="F122">
-        <v>152178627000</v>
+        <v>96322738800</v>
       </c>
       <c r="G122">
-        <v>812143124000</v>
+        <v>609143826500</v>
       </c>
       <c r="H122">
         <v>58049600</v>
       </c>
       <c r="I122">
-        <v>1194911350000</v>
+        <v>929462564500</v>
       </c>
       <c r="J122" t="str">
         <v>2022-12-30T14:44:00.000Z</v>
       </c>
       <c r="K122">
-        <v>5550111503000</v>
+        <v>4916431217600</v>
       </c>
       <c r="L122">
         <v>325318800</v>
@@ -6493,13 +6493,13 @@
         <v>-3857700</v>
       </c>
       <c r="N122">
-        <v>-78410972000</v>
+        <v>-127673260400</v>
       </c>
       <c r="O122">
         <v>6193700</v>
       </c>
       <c r="P122">
-        <v>301741793000</v>
+        <v>206870759000</v>
       </c>
     </row>
     <row r="123">
@@ -6534,7 +6534,7 @@
         <v>2022-12-30T14:46:00.000Z</v>
       </c>
       <c r="K123">
-        <v>5550133733000</v>
+        <v>4916453447600</v>
       </c>
       <c r="L123">
         <v>325320700</v>
@@ -6549,7 +6549,7 @@
         <v>6193200</v>
       </c>
       <c r="P123">
-        <v>301735943000</v>
+        <v>206864909000</v>
       </c>
     </row>
     <row r="124">
@@ -6584,7 +6584,7 @@
         <v>2022-12-30T14:48:00.000Z</v>
       </c>
       <c r="K124">
-        <v>5550140783000</v>
+        <v>4916460497600</v>
       </c>
       <c r="L124">
         <v>325321300</v>
@@ -6599,7 +6599,7 @@
         <v>6193200</v>
       </c>
       <c r="P124">
-        <v>301735973000</v>
+        <v>206864939000</v>
       </c>
     </row>
     <row r="125">
@@ -6634,7 +6634,7 @@
         <v>2022-12-30T14:50:00.000Z</v>
       </c>
       <c r="K125">
-        <v>5550167463000</v>
+        <v>4916487177600</v>
       </c>
       <c r="L125">
         <v>325323600</v>
@@ -6649,7 +6649,7 @@
         <v>6190900</v>
       </c>
       <c r="P125">
-        <v>301709293000</v>
+        <v>206838259000</v>
       </c>
     </row>
     <row r="126">
@@ -6684,7 +6684,7 @@
         <v>2022-12-30T14:52:00.000Z</v>
       </c>
       <c r="K126">
-        <v>5550193203000</v>
+        <v>4916512917600</v>
       </c>
       <c r="L126">
         <v>325325800</v>
@@ -6699,7 +6699,7 @@
         <v>6193100</v>
       </c>
       <c r="P126">
-        <v>301735033000</v>
+        <v>206863999000</v>
       </c>
     </row>
     <row r="127">
@@ -6734,7 +6734,7 @@
         <v>2022-12-30T14:54:00.000Z</v>
       </c>
       <c r="K127">
-        <v>5550197923000</v>
+        <v>4916517637600</v>
       </c>
       <c r="L127">
         <v>325326200</v>
@@ -6749,7 +6749,7 @@
         <v>6193500</v>
       </c>
       <c r="P127">
-        <v>301739753000</v>
+        <v>206868719000</v>
       </c>
     </row>
     <row r="128">
@@ -6784,7 +6784,7 @@
         <v>2022-12-30T14:56:00.000Z</v>
       </c>
       <c r="K128">
-        <v>5550306803000</v>
+        <v>4916626517600</v>
       </c>
       <c r="L128">
         <v>325335500</v>
@@ -6799,7 +6799,7 @@
         <v>6185600</v>
       </c>
       <c r="P128">
-        <v>301647393000</v>
+        <v>206776359000</v>
       </c>
     </row>
     <row r="129">
@@ -6834,7 +6834,7 @@
         <v>2022-12-30T14:58:00.000Z</v>
       </c>
       <c r="K129">
-        <v>5557370773000</v>
+        <v>4923690487600</v>
       </c>
       <c r="L129">
         <v>325859600</v>
@@ -6849,7 +6849,7 @@
         <v>6701500</v>
       </c>
       <c r="P129">
-        <v>308615423000</v>
+        <v>213744389000</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20221230/VNINDEX_HOSE_5p_20221230.xlsx
+++ b/name/vnindex/20221230/VNINDEX_HOSE_5p_20221230.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P129"/>
+  <dimension ref="A1:AC129"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>1190000</v>
       </c>
+      <c r="Q2">
+        <v>1190000</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>100</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V2">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W2">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X2">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y2">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z2">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA2">
+        <v>52355.5</v>
+      </c>
+      <c r="AB2">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>7140000</v>
       </c>
+      <c r="Q3">
+        <v>7140000</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>600</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V3">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W3">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X3">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y3">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z3">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA3">
+        <v>52355.5</v>
+      </c>
+      <c r="AB3">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>2364001300</v>
       </c>
+      <c r="Q4">
+        <v>19724165800</v>
+      </c>
+      <c r="R4">
+        <v>17360164500</v>
+      </c>
+      <c r="S4">
+        <v>1307400</v>
+      </c>
+      <c r="T4">
+        <v>1389900</v>
+      </c>
+      <c r="U4">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V4">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W4">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X4">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y4">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z4">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA4">
+        <v>52355.5</v>
+      </c>
+      <c r="AB4">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC4">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>9014951200</v>
       </c>
+      <c r="Q5">
+        <v>41257188000</v>
+      </c>
+      <c r="R5">
+        <v>32242236800</v>
+      </c>
+      <c r="S5">
+        <v>2643500</v>
+      </c>
+      <c r="T5">
+        <v>2297900</v>
+      </c>
+      <c r="U5">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V5">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W5">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X5">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y5">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z5">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA5">
+        <v>52355.5</v>
+      </c>
+      <c r="AB5">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>16250456800</v>
       </c>
+      <c r="Q6">
+        <v>61304862200</v>
+      </c>
+      <c r="R6">
+        <v>45054405400</v>
+      </c>
+      <c r="S6">
+        <v>3636100</v>
+      </c>
+      <c r="T6">
+        <v>3231600</v>
+      </c>
+      <c r="U6">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V6">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W6">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X6">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y6">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z6">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA6">
+        <v>52355.5</v>
+      </c>
+      <c r="AB6">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC6">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>13513696400</v>
       </c>
+      <c r="Q7">
+        <v>72961080200</v>
+      </c>
+      <c r="R7">
+        <v>59447383800</v>
+      </c>
+      <c r="S7">
+        <v>4304800</v>
+      </c>
+      <c r="T7">
+        <v>4236700</v>
+      </c>
+      <c r="U7">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V7">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W7">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X7">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y7">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z7">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA7">
+        <v>52355.5</v>
+      </c>
+      <c r="AB7">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC7">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>18716167800</v>
       </c>
+      <c r="Q8">
+        <v>91501339700</v>
+      </c>
+      <c r="R8">
+        <v>72785171900</v>
+      </c>
+      <c r="S8">
+        <v>5244700</v>
+      </c>
+      <c r="T8">
+        <v>5207600</v>
+      </c>
+      <c r="U8">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V8">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W8">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X8">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y8">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z8">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA8">
+        <v>52355.5</v>
+      </c>
+      <c r="AB8">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC8">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>22841340600</v>
       </c>
+      <c r="Q9">
+        <v>109730123500</v>
+      </c>
+      <c r="R9">
+        <v>86888782900</v>
+      </c>
+      <c r="S9">
+        <v>6681400</v>
+      </c>
+      <c r="T9">
+        <v>6095000</v>
+      </c>
+      <c r="U9">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V9">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W9">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X9">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y9">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z9">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA9">
+        <v>52355.5</v>
+      </c>
+      <c r="AB9">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC9">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>21241208300</v>
       </c>
+      <c r="Q10">
+        <v>124185248400</v>
+      </c>
+      <c r="R10">
+        <v>102944040100</v>
+      </c>
+      <c r="S10">
+        <v>7540900</v>
+      </c>
+      <c r="T10">
+        <v>7194300</v>
+      </c>
+      <c r="U10">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V10">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W10">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X10">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y10">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z10">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA10">
+        <v>52355.5</v>
+      </c>
+      <c r="AB10">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>19012180000</v>
       </c>
+      <c r="Q11">
+        <v>137369267600</v>
+      </c>
+      <c r="R11">
+        <v>118357087600</v>
+      </c>
+      <c r="S11">
+        <v>8310100</v>
+      </c>
+      <c r="T11">
+        <v>8222200</v>
+      </c>
+      <c r="U11">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V11">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W11">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X11">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y11">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z11">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA11">
+        <v>52355.5</v>
+      </c>
+      <c r="AB11">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC11">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>20994260300</v>
       </c>
+      <c r="Q12">
+        <v>149896579500</v>
+      </c>
+      <c r="R12">
+        <v>128902319200</v>
+      </c>
+      <c r="S12">
+        <v>9028600</v>
+      </c>
+      <c r="T12">
+        <v>9140100</v>
+      </c>
+      <c r="U12">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V12">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W12">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X12">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y12">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z12">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA12">
+        <v>52355.5</v>
+      </c>
+      <c r="AB12">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC12">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>18000721900</v>
       </c>
+      <c r="Q13">
+        <v>159084181000</v>
+      </c>
+      <c r="R13">
+        <v>141083459100</v>
+      </c>
+      <c r="S13">
+        <v>9585600</v>
+      </c>
+      <c r="T13">
+        <v>9972800</v>
+      </c>
+      <c r="U13">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V13">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W13">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X13">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y13">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z13">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA13">
+        <v>52355.5</v>
+      </c>
+      <c r="AB13">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC13">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>19702503900</v>
       </c>
+      <c r="Q14">
+        <v>172364461200</v>
+      </c>
+      <c r="R14">
+        <v>152661957300</v>
+      </c>
+      <c r="S14">
+        <v>10149600</v>
+      </c>
+      <c r="T14">
+        <v>10771300</v>
+      </c>
+      <c r="U14">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V14">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W14">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X14">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y14">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z14">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA14">
+        <v>52355.5</v>
+      </c>
+      <c r="AB14">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>24780863100</v>
       </c>
+      <c r="Q15">
+        <v>185462891700</v>
+      </c>
+      <c r="R15">
+        <v>160682028600</v>
+      </c>
+      <c r="S15">
+        <v>11026100</v>
+      </c>
+      <c r="T15">
+        <v>11443800</v>
+      </c>
+      <c r="U15">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V15">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W15">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X15">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y15">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z15">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA15">
+        <v>52355.5</v>
+      </c>
+      <c r="AB15">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>30347340400</v>
       </c>
+      <c r="Q16">
+        <v>200222900100</v>
+      </c>
+      <c r="R16">
+        <v>169875559700</v>
+      </c>
+      <c r="S16">
+        <v>11754300</v>
+      </c>
+      <c r="T16">
+        <v>11994200</v>
+      </c>
+      <c r="U16">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V16">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W16">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X16">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y16">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z16">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA16">
+        <v>52355.5</v>
+      </c>
+      <c r="AB16">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC16">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>35577456000</v>
       </c>
+      <c r="Q17">
+        <v>213331715700</v>
+      </c>
+      <c r="R17">
+        <v>177754259700</v>
+      </c>
+      <c r="S17">
+        <v>12453100</v>
+      </c>
+      <c r="T17">
+        <v>12508000</v>
+      </c>
+      <c r="U17">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V17">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W17">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X17">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y17">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z17">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA17">
+        <v>52355.5</v>
+      </c>
+      <c r="AB17">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC17">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>33230601700</v>
       </c>
+      <c r="Q18">
+        <v>223122901600</v>
+      </c>
+      <c r="R18">
+        <v>189892299900</v>
+      </c>
+      <c r="S18">
+        <v>13074800</v>
+      </c>
+      <c r="T18">
+        <v>13636600</v>
+      </c>
+      <c r="U18">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V18">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W18">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X18">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y18">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z18">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA18">
+        <v>52355.5</v>
+      </c>
+      <c r="AB18">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC18">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>28399342400</v>
       </c>
+      <c r="Q19">
+        <v>232563433700</v>
+      </c>
+      <c r="R19">
+        <v>204164091300</v>
+      </c>
+      <c r="S19">
+        <v>13595500</v>
+      </c>
+      <c r="T19">
+        <v>14754800</v>
+      </c>
+      <c r="U19">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V19">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W19">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X19">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y19">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z19">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA19">
+        <v>52355.5</v>
+      </c>
+      <c r="AB19">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC19">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>21870661500</v>
       </c>
+      <c r="Q20">
+        <v>238725614100</v>
+      </c>
+      <c r="R20">
+        <v>216854952600</v>
+      </c>
+      <c r="S20">
+        <v>13933900</v>
+      </c>
+      <c r="T20">
+        <v>15705500</v>
+      </c>
+      <c r="U20">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V20">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W20">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X20">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y20">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z20">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA20">
+        <v>52355.5</v>
+      </c>
+      <c r="AB20">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC20">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>21131751000</v>
       </c>
+      <c r="Q21">
+        <v>246384180300</v>
+      </c>
+      <c r="R21">
+        <v>225252429300</v>
+      </c>
+      <c r="S21">
+        <v>14416900</v>
+      </c>
+      <c r="T21">
+        <v>16540400</v>
+      </c>
+      <c r="U21">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V21">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W21">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X21">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y21">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z21">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA21">
+        <v>52355.5</v>
+      </c>
+      <c r="AB21">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC21">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>11138247000</v>
       </c>
+      <c r="Q22">
+        <v>254889799600</v>
+      </c>
+      <c r="R22">
+        <v>243751552600</v>
+      </c>
+      <c r="S22">
+        <v>14976000</v>
+      </c>
+      <c r="T22">
+        <v>17795900</v>
+      </c>
+      <c r="U22">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V22">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W22">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X22">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y22">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z22">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA22">
+        <v>52355.5</v>
+      </c>
+      <c r="AB22">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC22">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>12427079000</v>
       </c>
+      <c r="Q23">
+        <v>270913799300</v>
+      </c>
+      <c r="R23">
+        <v>258486720300</v>
+      </c>
+      <c r="S23">
+        <v>15758400</v>
+      </c>
+      <c r="T23">
+        <v>18809800</v>
+      </c>
+      <c r="U23">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V23">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W23">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X23">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y23">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z23">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA23">
+        <v>52355.5</v>
+      </c>
+      <c r="AB23">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC23">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>10006371400</v>
       </c>
+      <c r="Q24">
+        <v>281478700400</v>
+      </c>
+      <c r="R24">
+        <v>271472329000</v>
+      </c>
+      <c r="S24">
+        <v>16354100</v>
+      </c>
+      <c r="T24">
+        <v>19594700</v>
+      </c>
+      <c r="U24">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V24">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W24">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X24">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y24">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z24">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA24">
+        <v>52355.5</v>
+      </c>
+      <c r="AB24">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC24">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>11825669700</v>
       </c>
+      <c r="Q25">
+        <v>290790664400</v>
+      </c>
+      <c r="R25">
+        <v>278964994700</v>
+      </c>
+      <c r="S25">
+        <v>16913700</v>
+      </c>
+      <c r="T25">
+        <v>20061700</v>
+      </c>
+      <c r="U25">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V25">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W25">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X25">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y25">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z25">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA25">
+        <v>52355.5</v>
+      </c>
+      <c r="AB25">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC25">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>12632034700</v>
       </c>
+      <c r="Q26">
+        <v>298074488400</v>
+      </c>
+      <c r="R26">
+        <v>285442453700</v>
+      </c>
+      <c r="S26">
+        <v>17352600</v>
+      </c>
+      <c r="T26">
+        <v>20408300</v>
+      </c>
+      <c r="U26">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V26">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W26">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X26">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y26">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z26">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA26">
+        <v>52355.5</v>
+      </c>
+      <c r="AB26">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC26">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>13333023900</v>
       </c>
+      <c r="Q27">
+        <v>306028407000</v>
+      </c>
+      <c r="R27">
+        <v>292695383100</v>
+      </c>
+      <c r="S27">
+        <v>17670100</v>
+      </c>
+      <c r="T27">
+        <v>20859400</v>
+      </c>
+      <c r="U27">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V27">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W27">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X27">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y27">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z27">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA27">
+        <v>52355.5</v>
+      </c>
+      <c r="AB27">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC27">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>14017465900</v>
       </c>
+      <c r="Q28">
+        <v>319905868100</v>
+      </c>
+      <c r="R28">
+        <v>305888402200</v>
+      </c>
+      <c r="S28">
+        <v>18269900</v>
+      </c>
+      <c r="T28">
+        <v>21706800</v>
+      </c>
+      <c r="U28">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V28">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W28">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X28">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y28">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z28">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA28">
+        <v>52355.5</v>
+      </c>
+      <c r="AB28">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC28">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>4367867300</v>
       </c>
+      <c r="Q29">
+        <v>326691408200</v>
+      </c>
+      <c r="R29">
+        <v>322323540900</v>
+      </c>
+      <c r="S29">
+        <v>18690900</v>
+      </c>
+      <c r="T29">
+        <v>22899800</v>
+      </c>
+      <c r="U29">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V29">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W29">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X29">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y29">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z29">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA29">
+        <v>52355.5</v>
+      </c>
+      <c r="AB29">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC29">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>-9531470800</v>
       </c>
+      <c r="Q30">
+        <v>332192484700</v>
+      </c>
+      <c r="R30">
+        <v>341723955500</v>
+      </c>
+      <c r="S30">
+        <v>19029000</v>
+      </c>
+      <c r="T30">
+        <v>24345200</v>
+      </c>
+      <c r="U30">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V30">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W30">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X30">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y30">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z30">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA30">
+        <v>52355.5</v>
+      </c>
+      <c r="AB30">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC30">
+        <v>8.3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>-16710771300</v>
       </c>
+      <c r="Q31">
+        <v>338640038000</v>
+      </c>
+      <c r="R31">
+        <v>355350809300</v>
+      </c>
+      <c r="S31">
+        <v>19416000</v>
+      </c>
+      <c r="T31">
+        <v>25420800</v>
+      </c>
+      <c r="U31">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V31">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W31">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X31">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y31">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z31">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA31">
+        <v>52355.5</v>
+      </c>
+      <c r="AB31">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC31">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>-21047277000</v>
       </c>
+      <c r="Q32">
+        <v>343805152300</v>
+      </c>
+      <c r="R32">
+        <v>364852429300</v>
+      </c>
+      <c r="S32">
+        <v>19736700</v>
+      </c>
+      <c r="T32">
+        <v>26181500</v>
+      </c>
+      <c r="U32">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V32">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W32">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X32">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y32">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z32">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA32">
+        <v>52355.5</v>
+      </c>
+      <c r="AB32">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC32">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>-25575269700</v>
       </c>
+      <c r="Q33">
+        <v>350794986100</v>
+      </c>
+      <c r="R33">
+        <v>376370255800</v>
+      </c>
+      <c r="S33">
+        <v>20202200</v>
+      </c>
+      <c r="T33">
+        <v>26984400</v>
+      </c>
+      <c r="U33">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V33">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W33">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X33">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y33">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z33">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA33">
+        <v>52355.5</v>
+      </c>
+      <c r="AB33">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC33">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>-26415946100</v>
       </c>
+      <c r="Q34">
+        <v>356441799400</v>
+      </c>
+      <c r="R34">
+        <v>382857745500</v>
+      </c>
+      <c r="S34">
+        <v>20522500</v>
+      </c>
+      <c r="T34">
+        <v>27412300</v>
+      </c>
+      <c r="U34">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V34">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W34">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X34">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y34">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z34">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA34">
+        <v>52355.5</v>
+      </c>
+      <c r="AB34">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC34">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>-25300182200</v>
       </c>
+      <c r="Q35">
+        <v>365941424000</v>
+      </c>
+      <c r="R35">
+        <v>391241606200</v>
+      </c>
+      <c r="S35">
+        <v>21193700</v>
+      </c>
+      <c r="T35">
+        <v>27939200</v>
+      </c>
+      <c r="U35">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V35">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W35">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X35">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y35">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z35">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA35">
+        <v>52355.5</v>
+      </c>
+      <c r="AB35">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC35">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>-27194494500</v>
       </c>
+      <c r="Q36">
+        <v>371746421900</v>
+      </c>
+      <c r="R36">
+        <v>398940916400</v>
+      </c>
+      <c r="S36">
+        <v>21581900</v>
+      </c>
+      <c r="T36">
+        <v>28440700</v>
+      </c>
+      <c r="U36">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V36">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W36">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X36">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y36">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z36">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA36">
+        <v>52355.5</v>
+      </c>
+      <c r="AB36">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC36">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>-21481085200</v>
       </c>
+      <c r="Q37">
+        <v>384318572800</v>
+      </c>
+      <c r="R37">
+        <v>405799658000</v>
+      </c>
+      <c r="S37">
+        <v>22415400</v>
+      </c>
+      <c r="T37">
+        <v>28967500</v>
+      </c>
+      <c r="U37">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V37">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W37">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X37">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y37">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z37">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA37">
+        <v>52355.5</v>
+      </c>
+      <c r="AB37">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC37">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>-20597359900</v>
       </c>
+      <c r="Q38">
+        <v>391949778600</v>
+      </c>
+      <c r="R38">
+        <v>412547138500</v>
+      </c>
+      <c r="S38">
+        <v>22892100</v>
+      </c>
+      <c r="T38">
+        <v>29360900</v>
+      </c>
+      <c r="U38">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V38">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W38">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X38">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y38">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z38">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA38">
+        <v>52355.5</v>
+      </c>
+      <c r="AB38">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>-8877633600</v>
       </c>
+      <c r="Q39">
+        <v>411855152900</v>
+      </c>
+      <c r="R39">
+        <v>420732786500</v>
+      </c>
+      <c r="S39">
+        <v>24132000</v>
+      </c>
+      <c r="T39">
+        <v>29731400</v>
+      </c>
+      <c r="U39">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V39">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W39">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X39">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y39">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z39">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA39">
+        <v>52355.5</v>
+      </c>
+      <c r="AB39">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC39">
+        <v>7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>-5592422900</v>
       </c>
+      <c r="Q40">
+        <v>421441216500</v>
+      </c>
+      <c r="R40">
+        <v>427033639400</v>
+      </c>
+      <c r="S40">
+        <v>24860400</v>
+      </c>
+      <c r="T40">
+        <v>30015500</v>
+      </c>
+      <c r="U40">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V40">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W40">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X40">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y40">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z40">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA40">
+        <v>52355.5</v>
+      </c>
+      <c r="AB40">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC40">
+        <v>2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>-2108721300</v>
       </c>
+      <c r="Q41">
+        <v>432334563900</v>
+      </c>
+      <c r="R41">
+        <v>434443285200</v>
+      </c>
+      <c r="S41">
+        <v>25456700</v>
+      </c>
+      <c r="T41">
+        <v>30312000</v>
+      </c>
+      <c r="U41">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V41">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W41">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X41">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y41">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z41">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA41">
+        <v>52355.5</v>
+      </c>
+      <c r="AB41">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC41">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>3660727200</v>
       </c>
+      <c r="Q42">
+        <v>447555492000</v>
+      </c>
+      <c r="R42">
+        <v>443894764800</v>
+      </c>
+      <c r="S42">
+        <v>26394800</v>
+      </c>
+      <c r="T42">
+        <v>30788900</v>
+      </c>
+      <c r="U42">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V42">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W42">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X42">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y42">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z42">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA42">
+        <v>52355.5</v>
+      </c>
+      <c r="AB42">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC42">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>14623703700</v>
       </c>
+      <c r="Q43">
+        <v>465709716900</v>
+      </c>
+      <c r="R43">
+        <v>451086013200</v>
+      </c>
+      <c r="S43">
+        <v>27323300</v>
+      </c>
+      <c r="T43">
+        <v>31202600</v>
+      </c>
+      <c r="U43">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V43">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W43">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X43">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y43">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z43">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA43">
+        <v>52355.5</v>
+      </c>
+      <c r="AB43">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC43">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>24206200500</v>
       </c>
+      <c r="Q44">
+        <v>482556242600</v>
+      </c>
+      <c r="R44">
+        <v>458350042100</v>
+      </c>
+      <c r="S44">
+        <v>28434400</v>
+      </c>
+      <c r="T44">
+        <v>31737900</v>
+      </c>
+      <c r="U44">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V44">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W44">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X44">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y44">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z44">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA44">
+        <v>52355.5</v>
+      </c>
+      <c r="AB44">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC44">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>35271221100</v>
       </c>
+      <c r="Q45">
+        <v>499248742900</v>
+      </c>
+      <c r="R45">
+        <v>463977521800</v>
+      </c>
+      <c r="S45">
+        <v>29412000</v>
+      </c>
+      <c r="T45">
+        <v>32107000</v>
+      </c>
+      <c r="U45">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V45">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W45">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X45">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y45">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z45">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA45">
+        <v>52355.5</v>
+      </c>
+      <c r="AB45">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC45">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>41960268500</v>
       </c>
+      <c r="Q46">
+        <v>512774212700</v>
+      </c>
+      <c r="R46">
+        <v>470813944200</v>
+      </c>
+      <c r="S46">
+        <v>30250400</v>
+      </c>
+      <c r="T46">
+        <v>32505100</v>
+      </c>
+      <c r="U46">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V46">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W46">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X46">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y46">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z46">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA46">
+        <v>52355.5</v>
+      </c>
+      <c r="AB46">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC46">
+        <v>4</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>47278377500</v>
       </c>
+      <c r="Q47">
+        <v>525302274500</v>
+      </c>
+      <c r="R47">
+        <v>478023897000</v>
+      </c>
+      <c r="S47">
+        <v>31401600</v>
+      </c>
+      <c r="T47">
+        <v>32949700</v>
+      </c>
+      <c r="U47">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V47">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W47">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X47">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y47">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z47">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA47">
+        <v>52355.5</v>
+      </c>
+      <c r="AB47">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC47">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>51606441000</v>
       </c>
+      <c r="Q48">
+        <v>536917468100</v>
+      </c>
+      <c r="R48">
+        <v>485311027100</v>
+      </c>
+      <c r="S48">
+        <v>32044600</v>
+      </c>
+      <c r="T48">
+        <v>33382400</v>
+      </c>
+      <c r="U48">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V48">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W48">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X48">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y48">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z48">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA48">
+        <v>52355.5</v>
+      </c>
+      <c r="AB48">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC48">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>54035756200</v>
       </c>
+      <c r="Q49">
+        <v>547331925500</v>
+      </c>
+      <c r="R49">
+        <v>493296169300</v>
+      </c>
+      <c r="S49">
+        <v>32550500</v>
+      </c>
+      <c r="T49">
+        <v>33901200</v>
+      </c>
+      <c r="U49">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V49">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W49">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X49">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y49">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z49">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA49">
+        <v>52355.5</v>
+      </c>
+      <c r="AB49">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC49">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>32769850900</v>
       </c>
+      <c r="Q50">
+        <v>558818898200</v>
+      </c>
+      <c r="R50">
+        <v>526049047300</v>
+      </c>
+      <c r="S50">
+        <v>33336200</v>
+      </c>
+      <c r="T50">
+        <v>35819200</v>
+      </c>
+      <c r="U50">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V50">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W50">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X50">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y50">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z50">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA50">
+        <v>52355.5</v>
+      </c>
+      <c r="AB50">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC50">
+        <v>12.7</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>20403105100</v>
       </c>
+      <c r="Q51">
+        <v>562819836900</v>
+      </c>
+      <c r="R51">
+        <v>542416731800</v>
+      </c>
+      <c r="S51">
+        <v>33619200</v>
+      </c>
+      <c r="T51">
+        <v>37031400</v>
+      </c>
+      <c r="U51">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V51">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W51">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X51">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y51">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z51">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA51">
+        <v>52355.5</v>
+      </c>
+      <c r="AB51">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC51">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>3010256500</v>
       </c>
+      <c r="Q52">
+        <v>567689562500</v>
+      </c>
+      <c r="R52">
+        <v>564679306000</v>
+      </c>
+      <c r="S52">
+        <v>33831000</v>
+      </c>
+      <c r="T52">
+        <v>38585300</v>
+      </c>
+      <c r="U52">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V52">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W52">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X52">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y52">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z52">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA52">
+        <v>52355.5</v>
+      </c>
+      <c r="AB52">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC52">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>-4432682400</v>
       </c>
+      <c r="Q53">
+        <v>572965925100</v>
+      </c>
+      <c r="R53">
+        <v>577398607500</v>
+      </c>
+      <c r="S53">
+        <v>34118400</v>
+      </c>
+      <c r="T53">
+        <v>39382900</v>
+      </c>
+      <c r="U53">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V53">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W53">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X53">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y53">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z53">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA53">
+        <v>52355.5</v>
+      </c>
+      <c r="AB53">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC53">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>-5409685000</v>
       </c>
+      <c r="Q54">
+        <v>579349521000</v>
+      </c>
+      <c r="R54">
+        <v>584759206000</v>
+      </c>
+      <c r="S54">
+        <v>34589100</v>
+      </c>
+      <c r="T54">
+        <v>39892100</v>
+      </c>
+      <c r="U54">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V54">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W54">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X54">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y54">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z54">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA54">
+        <v>52355.5</v>
+      </c>
+      <c r="AB54">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC54">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>-3342222900</v>
       </c>
+      <c r="Q55">
+        <v>587981618300</v>
+      </c>
+      <c r="R55">
+        <v>591323841200</v>
+      </c>
+      <c r="S55">
+        <v>35259900</v>
+      </c>
+      <c r="T55">
+        <v>40292700</v>
+      </c>
+      <c r="U55">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V55">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W55">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X55">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y55">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z55">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA55">
+        <v>52355.5</v>
+      </c>
+      <c r="AB55">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC55">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>-527110600</v>
       </c>
+      <c r="Q56">
+        <v>595832051600</v>
+      </c>
+      <c r="R56">
+        <v>596359162200</v>
+      </c>
+      <c r="S56">
+        <v>35719500</v>
+      </c>
+      <c r="T56">
+        <v>40696000</v>
+      </c>
+      <c r="U56">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V56">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W56">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X56">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y56">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z56">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA56">
+        <v>52355.5</v>
+      </c>
+      <c r="AB56">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC56">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>4545869800</v>
       </c>
+      <c r="Q57">
+        <v>606439436200</v>
+      </c>
+      <c r="R57">
+        <v>601893566400</v>
+      </c>
+      <c r="S57">
+        <v>36305600</v>
+      </c>
+      <c r="T57">
+        <v>41093900</v>
+      </c>
+      <c r="U57">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V57">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W57">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X57">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y57">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z57">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA57">
+        <v>52355.5</v>
+      </c>
+      <c r="AB57">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC57">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>5404555600</v>
       </c>
+      <c r="Q58">
+        <v>613372460800</v>
+      </c>
+      <c r="R58">
+        <v>607967905200</v>
+      </c>
+      <c r="S58">
+        <v>36718000</v>
+      </c>
+      <c r="T58">
+        <v>41549900</v>
+      </c>
+      <c r="U58">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V58">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W58">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X58">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y58">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z58">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA58">
+        <v>52355.5</v>
+      </c>
+      <c r="AB58">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC58">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>8193097500</v>
       </c>
+      <c r="Q59">
+        <v>621688025200</v>
+      </c>
+      <c r="R59">
+        <v>613494927700</v>
+      </c>
+      <c r="S59">
+        <v>37148300</v>
+      </c>
+      <c r="T59">
+        <v>42029300</v>
+      </c>
+      <c r="U59">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V59">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W59">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X59">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y59">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z59">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA59">
+        <v>52355.5</v>
+      </c>
+      <c r="AB59">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC59">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>6753180700</v>
       </c>
+      <c r="Q60">
+        <v>630676305200</v>
+      </c>
+      <c r="R60">
+        <v>623923124500</v>
+      </c>
+      <c r="S60">
+        <v>37683700</v>
+      </c>
+      <c r="T60">
+        <v>42630000</v>
+      </c>
+      <c r="U60">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V60">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W60">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X60">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y60">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z60">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA60">
+        <v>52355.5</v>
+      </c>
+      <c r="AB60">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC60">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>4944000800</v>
       </c>
+      <c r="Q61">
+        <v>639311188400</v>
+      </c>
+      <c r="R61">
+        <v>634367187600</v>
+      </c>
+      <c r="S61">
+        <v>38276000</v>
+      </c>
+      <c r="T61">
+        <v>43386200</v>
+      </c>
+      <c r="U61">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V61">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W61">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X61">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y61">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z61">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA61">
+        <v>52355.5</v>
+      </c>
+      <c r="AB61">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC61">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>5585568000</v>
       </c>
+      <c r="Q62">
+        <v>648071047400</v>
+      </c>
+      <c r="R62">
+        <v>642485479400</v>
+      </c>
+      <c r="S62">
+        <v>38880700</v>
+      </c>
+      <c r="T62">
+        <v>44069000</v>
+      </c>
+      <c r="U62">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V62">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W62">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X62">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y62">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z62">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA62">
+        <v>52355.5</v>
+      </c>
+      <c r="AB62">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC62">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>12496978700</v>
       </c>
+      <c r="Q63">
+        <v>664117963100</v>
+      </c>
+      <c r="R63">
+        <v>651620984400</v>
+      </c>
+      <c r="S63">
+        <v>39756000</v>
+      </c>
+      <c r="T63">
+        <v>44630800</v>
+      </c>
+      <c r="U63">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V63">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W63">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X63">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y63">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z63">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA63">
+        <v>52355.5</v>
+      </c>
+      <c r="AB63">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC63">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>15116107400</v>
       </c>
+      <c r="Q64">
+        <v>675307305100</v>
+      </c>
+      <c r="R64">
+        <v>660191197700</v>
+      </c>
+      <c r="S64">
+        <v>40392700</v>
+      </c>
+      <c r="T64">
+        <v>45256100</v>
+      </c>
+      <c r="U64">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V64">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W64">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X64">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y64">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z64">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA64">
+        <v>52355.5</v>
+      </c>
+      <c r="AB64">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC64">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>30459529100</v>
       </c>
+      <c r="Q65">
+        <v>701174065200</v>
+      </c>
+      <c r="R65">
+        <v>670714536100</v>
+      </c>
+      <c r="S65">
+        <v>41922900</v>
+      </c>
+      <c r="T65">
+        <v>45947200</v>
+      </c>
+      <c r="U65">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V65">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W65">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X65">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y65">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z65">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA65">
+        <v>52355.5</v>
+      </c>
+      <c r="AB65">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC65">
+        <v>9.2</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>44469766600</v>
       </c>
+      <c r="Q66">
+        <v>725889629100</v>
+      </c>
+      <c r="R66">
+        <v>681419862500</v>
+      </c>
+      <c r="S66">
+        <v>43561400</v>
+      </c>
+      <c r="T66">
+        <v>46660300</v>
+      </c>
+      <c r="U66">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V66">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W66">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X66">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y66">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z66">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA66">
+        <v>52355.5</v>
+      </c>
+      <c r="AB66">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC66">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>55953128400</v>
       </c>
+      <c r="Q67">
+        <v>745389259100</v>
+      </c>
+      <c r="R67">
+        <v>689436130700</v>
+      </c>
+      <c r="S67">
+        <v>44887900</v>
+      </c>
+      <c r="T67">
+        <v>47159100</v>
+      </c>
+      <c r="U67">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V67">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W67">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X67">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y67">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z67">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA67">
+        <v>52355.5</v>
+      </c>
+      <c r="AB67">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC67">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>77100453700</v>
       </c>
+      <c r="Q68">
+        <v>775467383500</v>
+      </c>
+      <c r="R68">
+        <v>698366929800</v>
+      </c>
+      <c r="S68">
+        <v>46946900</v>
+      </c>
+      <c r="T68">
+        <v>47670300</v>
+      </c>
+      <c r="U68">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V68">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W68">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X68">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y68">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z68">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA68">
+        <v>52355.5</v>
+      </c>
+      <c r="AB68">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC68">
+        <v>12.7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>84366802600</v>
       </c>
+      <c r="Q69">
+        <v>790810336100</v>
+      </c>
+      <c r="R69">
+        <v>706443533500</v>
+      </c>
+      <c r="S69">
+        <v>47961500</v>
+      </c>
+      <c r="T69">
+        <v>48188200</v>
+      </c>
+      <c r="U69">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V69">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W69">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X69">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y69">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z69">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA69">
+        <v>52355.5</v>
+      </c>
+      <c r="AB69">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC69">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>87870618800</v>
       </c>
+      <c r="Q70">
+        <v>805241678600</v>
+      </c>
+      <c r="R70">
+        <v>717371059800</v>
+      </c>
+      <c r="S70">
+        <v>48897000</v>
+      </c>
+      <c r="T70">
+        <v>48922800</v>
+      </c>
+      <c r="U70">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V70">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W70">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X70">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y70">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z70">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA70">
+        <v>52355.5</v>
+      </c>
+      <c r="AB70">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC70">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>91038791400</v>
       </c>
+      <c r="Q71">
+        <v>815520384300</v>
+      </c>
+      <c r="R71">
+        <v>724481592900</v>
+      </c>
+      <c r="S71">
+        <v>49525900</v>
+      </c>
+      <c r="T71">
+        <v>49360000</v>
+      </c>
+      <c r="U71">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V71">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W71">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X71">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y71">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z71">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA71">
+        <v>52355.5</v>
+      </c>
+      <c r="AB71">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC71">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>91000297400</v>
       </c>
+      <c r="Q72">
+        <v>815522059300</v>
+      </c>
+      <c r="R72">
+        <v>724521761900</v>
+      </c>
+      <c r="S72">
+        <v>49526000</v>
+      </c>
+      <c r="T72">
+        <v>49361200</v>
+      </c>
+      <c r="U72">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V72">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W72">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X72">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y72">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z72">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA72">
+        <v>52355.5</v>
+      </c>
+      <c r="AB72">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>69580366600</v>
       </c>
+      <c r="Q73">
+        <v>838266391100</v>
+      </c>
+      <c r="R73">
+        <v>768686024500</v>
+      </c>
+      <c r="S73">
+        <v>51169700</v>
+      </c>
+      <c r="T73">
+        <v>52324200</v>
+      </c>
+      <c r="U73">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V73">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W73">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X73">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y73">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z73">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA73">
+        <v>52355.5</v>
+      </c>
+      <c r="AB73">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC73">
+        <v>12.8</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>63943072000</v>
       </c>
+      <c r="Q74">
+        <v>850390851200</v>
+      </c>
+      <c r="R74">
+        <v>786447779200</v>
+      </c>
+      <c r="S74">
+        <v>52131000</v>
+      </c>
+      <c r="T74">
+        <v>53864900</v>
+      </c>
+      <c r="U74">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V74">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W74">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X74">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y74">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z74">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA74">
+        <v>52355.5</v>
+      </c>
+      <c r="AB74">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC74">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>70045637800</v>
       </c>
+      <c r="Q75">
+        <v>873970210600</v>
+      </c>
+      <c r="R75">
+        <v>803924572800</v>
+      </c>
+      <c r="S75">
+        <v>53533400</v>
+      </c>
+      <c r="T75">
+        <v>55117500</v>
+      </c>
+      <c r="U75">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V75">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W75">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X75">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y75">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z75">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA75">
+        <v>52355.5</v>
+      </c>
+      <c r="AB75">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC75">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>69550738500</v>
       </c>
+      <c r="Q76">
+        <v>890442488200</v>
+      </c>
+      <c r="R76">
+        <v>820891749700</v>
+      </c>
+      <c r="S76">
+        <v>54400700</v>
+      </c>
+      <c r="T76">
+        <v>56419500</v>
+      </c>
+      <c r="U76">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V76">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W76">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X76">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y76">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z76">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA76">
+        <v>52355.5</v>
+      </c>
+      <c r="AB76">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC76">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>67121070500</v>
       </c>
+      <c r="Q77">
+        <v>903848519500</v>
+      </c>
+      <c r="R77">
+        <v>836727449000</v>
+      </c>
+      <c r="S77">
+        <v>55231300</v>
+      </c>
+      <c r="T77">
+        <v>57668200</v>
+      </c>
+      <c r="U77">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V77">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W77">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X77">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y77">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z77">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA77">
+        <v>52355.5</v>
+      </c>
+      <c r="AB77">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC77">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>61469953900</v>
       </c>
+      <c r="Q78">
+        <v>916967088600</v>
+      </c>
+      <c r="R78">
+        <v>855497134700</v>
+      </c>
+      <c r="S78">
+        <v>56075500</v>
+      </c>
+      <c r="T78">
+        <v>58885700</v>
+      </c>
+      <c r="U78">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V78">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W78">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X78">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y78">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z78">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA78">
+        <v>52355.5</v>
+      </c>
+      <c r="AB78">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC78">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>68921043300</v>
       </c>
+      <c r="Q79">
+        <v>937484501400</v>
+      </c>
+      <c r="R79">
+        <v>868563458100</v>
+      </c>
+      <c r="S79">
+        <v>57604100</v>
+      </c>
+      <c r="T79">
+        <v>60031700</v>
+      </c>
+      <c r="U79">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V79">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W79">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X79">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y79">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z79">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA79">
+        <v>52355.5</v>
+      </c>
+      <c r="AB79">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC79">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>66707958900</v>
       </c>
+      <c r="Q80">
+        <v>950084935200</v>
+      </c>
+      <c r="R80">
+        <v>883376976300</v>
+      </c>
+      <c r="S80">
+        <v>58764900</v>
+      </c>
+      <c r="T80">
+        <v>61174500</v>
+      </c>
+      <c r="U80">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V80">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W80">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X80">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y80">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z80">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA80">
+        <v>52355.5</v>
+      </c>
+      <c r="AB80">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC80">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>56854363400</v>
       </c>
+      <c r="Q81">
+        <v>956840183100</v>
+      </c>
+      <c r="R81">
+        <v>899985819700</v>
+      </c>
+      <c r="S81">
+        <v>59265400</v>
+      </c>
+      <c r="T81">
+        <v>62529100</v>
+      </c>
+      <c r="U81">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V81">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W81">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X81">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y81">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z81">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA81">
+        <v>52355.5</v>
+      </c>
+      <c r="AB81">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC81">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>50566593500</v>
       </c>
+      <c r="Q82">
+        <v>967172706700</v>
+      </c>
+      <c r="R82">
+        <v>916606113200</v>
+      </c>
+      <c r="S82">
+        <v>60011900</v>
+      </c>
+      <c r="T82">
+        <v>63761300</v>
+      </c>
+      <c r="U82">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V82">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W82">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X82">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y82">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z82">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA82">
+        <v>52355.5</v>
+      </c>
+      <c r="AB82">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC82">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>48031033100</v>
       </c>
+      <c r="Q83">
+        <v>984451917900</v>
+      </c>
+      <c r="R83">
+        <v>936420884800</v>
+      </c>
+      <c r="S83">
+        <v>61095700</v>
+      </c>
+      <c r="T83">
+        <v>65326800</v>
+      </c>
+      <c r="U83">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V83">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W83">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X83">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y83">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z83">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA83">
+        <v>52355.5</v>
+      </c>
+      <c r="AB83">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC83">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>47846122900</v>
       </c>
+      <c r="Q84">
+        <v>997497728200</v>
+      </c>
+      <c r="R84">
+        <v>949651605300</v>
+      </c>
+      <c r="S84">
+        <v>62033200</v>
+      </c>
+      <c r="T84">
+        <v>66419600</v>
+      </c>
+      <c r="U84">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V84">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W84">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X84">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y84">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z84">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA84">
+        <v>52355.5</v>
+      </c>
+      <c r="AB84">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC84">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>44956782800</v>
       </c>
+      <c r="Q85">
+        <v>1009369286000</v>
+      </c>
+      <c r="R85">
+        <v>964412503200</v>
+      </c>
+      <c r="S85">
+        <v>62818600</v>
+      </c>
+      <c r="T85">
+        <v>67616900</v>
+      </c>
+      <c r="U85">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V85">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W85">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X85">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y85">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z85">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA85">
+        <v>52355.5</v>
+      </c>
+      <c r="AB85">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC85">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>33570454900</v>
       </c>
+      <c r="Q86">
+        <v>1022883542500</v>
+      </c>
+      <c r="R86">
+        <v>989313087600</v>
+      </c>
+      <c r="S86">
+        <v>63562000</v>
+      </c>
+      <c r="T86">
+        <v>69295200</v>
+      </c>
+      <c r="U86">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V86">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W86">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X86">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y86">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z86">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA86">
+        <v>52355.5</v>
+      </c>
+      <c r="AB86">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC86">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>41159318300</v>
       </c>
+      <c r="Q87">
+        <v>1043046652600</v>
+      </c>
+      <c r="R87">
+        <v>1001887334300</v>
+      </c>
+      <c r="S87">
+        <v>64740400</v>
+      </c>
+      <c r="T87">
+        <v>70232200</v>
+      </c>
+      <c r="U87">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V87">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W87">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X87">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y87">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z87">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA87">
+        <v>52355.5</v>
+      </c>
+      <c r="AB87">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC87">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>51745275700</v>
       </c>
+      <c r="Q88">
+        <v>1065565862300</v>
+      </c>
+      <c r="R88">
+        <v>1013820586600</v>
+      </c>
+      <c r="S88">
+        <v>66034100</v>
+      </c>
+      <c r="T88">
+        <v>71132900</v>
+      </c>
+      <c r="U88">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V88">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W88">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X88">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y88">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z88">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA88">
+        <v>52355.5</v>
+      </c>
+      <c r="AB88">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC88">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>59519295800</v>
       </c>
+      <c r="Q89">
+        <v>1082736285900</v>
+      </c>
+      <c r="R89">
+        <v>1023216990100</v>
+      </c>
+      <c r="S89">
+        <v>67267400</v>
+      </c>
+      <c r="T89">
+        <v>71892000</v>
+      </c>
+      <c r="U89">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V89">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W89">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X89">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y89">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z89">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA89">
+        <v>52355.5</v>
+      </c>
+      <c r="AB89">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC89">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>72305165500</v>
       </c>
+      <c r="Q90">
+        <v>1105438984500</v>
+      </c>
+      <c r="R90">
+        <v>1033133819000</v>
+      </c>
+      <c r="S90">
+        <v>68649800</v>
+      </c>
+      <c r="T90">
+        <v>72801900</v>
+      </c>
+      <c r="U90">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V90">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W90">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X90">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y90">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z90">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA90">
+        <v>52355.5</v>
+      </c>
+      <c r="AB90">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC90">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>79606507700</v>
       </c>
+      <c r="Q91">
+        <v>1124166073600</v>
+      </c>
+      <c r="R91">
+        <v>1044559565900</v>
+      </c>
+      <c r="S91">
+        <v>69796100</v>
+      </c>
+      <c r="T91">
+        <v>73610900</v>
+      </c>
+      <c r="U91">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V91">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W91">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X91">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y91">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z91">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA91">
+        <v>52355.5</v>
+      </c>
+      <c r="AB91">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC91">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>93778780100</v>
       </c>
+      <c r="Q92">
+        <v>1147241198200</v>
+      </c>
+      <c r="R92">
+        <v>1053462418100</v>
+      </c>
+      <c r="S92">
+        <v>71557000</v>
+      </c>
+      <c r="T92">
+        <v>74301300</v>
+      </c>
+      <c r="U92">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V92">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W92">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X92">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y92">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z92">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA92">
+        <v>52355.5</v>
+      </c>
+      <c r="AB92">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC92">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>122061369000</v>
       </c>
+      <c r="Q93">
+        <v>1184972919300</v>
+      </c>
+      <c r="R93">
+        <v>1062911550300</v>
+      </c>
+      <c r="S93">
+        <v>74353800</v>
+      </c>
+      <c r="T93">
+        <v>74908700</v>
+      </c>
+      <c r="U93">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V93">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W93">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X93">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y93">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z93">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA93">
+        <v>52355.5</v>
+      </c>
+      <c r="AB93">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC93">
+        <v>16.9</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>138258460900</v>
       </c>
+      <c r="Q94">
+        <v>1215288998400</v>
+      </c>
+      <c r="R94">
+        <v>1077030537500</v>
+      </c>
+      <c r="S94">
+        <v>76818500</v>
+      </c>
+      <c r="T94">
+        <v>75950700</v>
+      </c>
+      <c r="U94">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V94">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W94">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X94">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y94">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z94">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA94">
+        <v>52355.5</v>
+      </c>
+      <c r="AB94">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC94">
+        <v>9.7</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>153954072700</v>
       </c>
+      <c r="Q95">
+        <v>1246771564000</v>
+      </c>
+      <c r="R95">
+        <v>1092817491300</v>
+      </c>
+      <c r="S95">
+        <v>79172800</v>
+      </c>
+      <c r="T95">
+        <v>77152300</v>
+      </c>
+      <c r="U95">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V95">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W95">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X95">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y95">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z95">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA95">
+        <v>52355.5</v>
+      </c>
+      <c r="AB95">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC95">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>164294727800</v>
       </c>
+      <c r="Q96">
+        <v>1273288378800</v>
+      </c>
+      <c r="R96">
+        <v>1108993651000</v>
+      </c>
+      <c r="S96">
+        <v>81788000</v>
+      </c>
+      <c r="T96">
+        <v>78273300</v>
+      </c>
+      <c r="U96">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V96">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W96">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X96">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y96">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z96">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA96">
+        <v>52355.5</v>
+      </c>
+      <c r="AB96">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC96">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>170255614300</v>
       </c>
+      <c r="Q97">
+        <v>1297468305100</v>
+      </c>
+      <c r="R97">
+        <v>1127212690800</v>
+      </c>
+      <c r="S97">
+        <v>83717000</v>
+      </c>
+      <c r="T97">
+        <v>79840700</v>
+      </c>
+      <c r="U97">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V97">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W97">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X97">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y97">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z97">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA97">
+        <v>52355.5</v>
+      </c>
+      <c r="AB97">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC97">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>168251564900</v>
       </c>
+      <c r="Q98">
+        <v>1324297126400</v>
+      </c>
+      <c r="R98">
+        <v>1156045561500</v>
+      </c>
+      <c r="S98">
+        <v>85651900</v>
+      </c>
+      <c r="T98">
+        <v>81906400</v>
+      </c>
+      <c r="U98">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V98">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W98">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X98">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y98">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z98">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA98">
+        <v>52355.5</v>
+      </c>
+      <c r="AB98">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC98">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>157653388500</v>
       </c>
+      <c r="Q99">
+        <v>1343297341600</v>
+      </c>
+      <c r="R99">
+        <v>1185643953100</v>
+      </c>
+      <c r="S99">
+        <v>86818600</v>
+      </c>
+      <c r="T99">
+        <v>84266400</v>
+      </c>
+      <c r="U99">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V99">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W99">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X99">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y99">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z99">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA99">
+        <v>52355.5</v>
+      </c>
+      <c r="AB99">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC99">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>147710949700</v>
       </c>
+      <c r="Q100">
+        <v>1360555711900</v>
+      </c>
+      <c r="R100">
+        <v>1212844762200</v>
+      </c>
+      <c r="S100">
+        <v>87804000</v>
+      </c>
+      <c r="T100">
+        <v>86052900</v>
+      </c>
+      <c r="U100">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V100">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W100">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X100">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y100">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z100">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA100">
+        <v>52355.5</v>
+      </c>
+      <c r="AB100">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC100">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>131339565700</v>
       </c>
+      <c r="Q101">
+        <v>1378025062900</v>
+      </c>
+      <c r="R101">
+        <v>1246685497200</v>
+      </c>
+      <c r="S101">
+        <v>89071700</v>
+      </c>
+      <c r="T101">
+        <v>88803700</v>
+      </c>
+      <c r="U101">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V101">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W101">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X101">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y101">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z101">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA101">
+        <v>52355.5</v>
+      </c>
+      <c r="AB101">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC101">
+        <v>9.8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>120521572300</v>
       </c>
+      <c r="Q102">
+        <v>1390899540700</v>
+      </c>
+      <c r="R102">
+        <v>1270377968400</v>
+      </c>
+      <c r="S102">
+        <v>89989700</v>
+      </c>
+      <c r="T102">
+        <v>90548600</v>
+      </c>
+      <c r="U102">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V102">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W102">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X102">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y102">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z102">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA102">
+        <v>52355.5</v>
+      </c>
+      <c r="AB102">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC102">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>123243773900</v>
       </c>
+      <c r="Q103">
+        <v>1413599582800</v>
+      </c>
+      <c r="R103">
+        <v>1290355808900</v>
+      </c>
+      <c r="S103">
+        <v>91527700</v>
+      </c>
+      <c r="T103">
+        <v>91805500</v>
+      </c>
+      <c r="U103">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V103">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W103">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X103">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y103">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z103">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA103">
+        <v>52355.5</v>
+      </c>
+      <c r="AB103">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC103">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>119501652500</v>
       </c>
+      <c r="Q104">
+        <v>1428970850000</v>
+      </c>
+      <c r="R104">
+        <v>1309469197500</v>
+      </c>
+      <c r="S104">
+        <v>92685900</v>
+      </c>
+      <c r="T104">
+        <v>93092500</v>
+      </c>
+      <c r="U104">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V104">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W104">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X104">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y104">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z104">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA104">
+        <v>52355.5</v>
+      </c>
+      <c r="AB104">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC104">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>129291864500</v>
       </c>
+      <c r="Q105">
+        <v>1457228931100</v>
+      </c>
+      <c r="R105">
+        <v>1327937066600</v>
+      </c>
+      <c r="S105">
+        <v>94597100</v>
+      </c>
+      <c r="T105">
+        <v>94480800</v>
+      </c>
+      <c r="U105">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V105">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W105">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X105">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y105">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z105">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA105">
+        <v>52355.5</v>
+      </c>
+      <c r="AB105">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC105">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>144195464300</v>
       </c>
+      <c r="Q106">
+        <v>1484930744300</v>
+      </c>
+      <c r="R106">
+        <v>1340735280000</v>
+      </c>
+      <c r="S106">
+        <v>96445700</v>
+      </c>
+      <c r="T106">
+        <v>95311800</v>
+      </c>
+      <c r="U106">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V106">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W106">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X106">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y106">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z106">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA106">
+        <v>52355.5</v>
+      </c>
+      <c r="AB106">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC106">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>154175466300</v>
       </c>
+      <c r="Q107">
+        <v>1510649363200</v>
+      </c>
+      <c r="R107">
+        <v>1356473896900</v>
+      </c>
+      <c r="S107">
+        <v>98444900</v>
+      </c>
+      <c r="T107">
+        <v>96540700</v>
+      </c>
+      <c r="U107">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V107">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W107">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X107">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y107">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z107">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA107">
+        <v>52355.5</v>
+      </c>
+      <c r="AB107">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC107">
+        <v>6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>185130212900</v>
       </c>
+      <c r="Q108">
+        <v>1564274434200</v>
+      </c>
+      <c r="R108">
+        <v>1379144221300</v>
+      </c>
+      <c r="S108">
+        <v>102692800</v>
+      </c>
+      <c r="T108">
+        <v>97874300</v>
+      </c>
+      <c r="U108">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V108">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W108">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X108">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y108">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z108">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA108">
+        <v>52355.5</v>
+      </c>
+      <c r="AB108">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC108">
+        <v>18.5</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>217839518900</v>
       </c>
+      <c r="Q109">
+        <v>1615906811000</v>
+      </c>
+      <c r="R109">
+        <v>1398067292100</v>
+      </c>
+      <c r="S109">
+        <v>106070400</v>
+      </c>
+      <c r="T109">
+        <v>99138400</v>
+      </c>
+      <c r="U109">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V109">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W109">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X109">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y109">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z109">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA109">
+        <v>52355.5</v>
+      </c>
+      <c r="AB109">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC109">
+        <v>19.6</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>251288832500</v>
       </c>
+      <c r="Q110">
+        <v>1671163298400</v>
+      </c>
+      <c r="R110">
+        <v>1419874465900</v>
+      </c>
+      <c r="S110">
+        <v>109728200</v>
+      </c>
+      <c r="T110">
+        <v>100542800</v>
+      </c>
+      <c r="U110">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V110">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W110">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X110">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y110">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z110">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA110">
+        <v>52355.5</v>
+      </c>
+      <c r="AB110">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC110">
+        <v>20</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>258326660900</v>
       </c>
+      <c r="Q111">
+        <v>1721409294200</v>
+      </c>
+      <c r="R111">
+        <v>1463082633300</v>
+      </c>
+      <c r="S111">
+        <v>112574800</v>
+      </c>
+      <c r="T111">
+        <v>103262700</v>
+      </c>
+      <c r="U111">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V111">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W111">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X111">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y111">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z111">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA111">
+        <v>52355.5</v>
+      </c>
+      <c r="AB111">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC111">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>281121426400</v>
       </c>
+      <c r="Q112">
+        <v>1775330236300</v>
+      </c>
+      <c r="R112">
+        <v>1494208809900</v>
+      </c>
+      <c r="S112">
+        <v>116151000</v>
+      </c>
+      <c r="T112">
+        <v>105647700</v>
+      </c>
+      <c r="U112">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V112">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W112">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X112">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y112">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z112">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA112">
+        <v>52355.5</v>
+      </c>
+      <c r="AB112">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC112">
+        <v>13.7</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>286472602000</v>
       </c>
+      <c r="Q113">
+        <v>1830284140500</v>
+      </c>
+      <c r="R113">
+        <v>1543811538500</v>
+      </c>
+      <c r="S113">
+        <v>119205700</v>
+      </c>
+      <c r="T113">
+        <v>108453700</v>
+      </c>
+      <c r="U113">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V113">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W113">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X113">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y113">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z113">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA113">
+        <v>52355.5</v>
+      </c>
+      <c r="AB113">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC113">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>320349606000</v>
       </c>
+      <c r="Q114">
+        <v>1909352279000</v>
+      </c>
+      <c r="R114">
+        <v>1589002673000</v>
+      </c>
+      <c r="S114">
+        <v>123876600</v>
+      </c>
+      <c r="T114">
+        <v>111422800</v>
+      </c>
+      <c r="U114">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V114">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W114">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X114">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y114">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z114">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA114">
+        <v>52355.5</v>
+      </c>
+      <c r="AB114">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC114">
+        <v>20.3</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>344538929000</v>
       </c>
+      <c r="Q115">
+        <v>1979205585700</v>
+      </c>
+      <c r="R115">
+        <v>1634666656700</v>
+      </c>
+      <c r="S115">
+        <v>127771600</v>
+      </c>
+      <c r="T115">
+        <v>115093200</v>
+      </c>
+      <c r="U115">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V115">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W115">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X115">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y115">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z115">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA115">
+        <v>52355.5</v>
+      </c>
+      <c r="AB115">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC115">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>352371215300</v>
       </c>
+      <c r="Q116">
+        <v>2061164012900</v>
+      </c>
+      <c r="R116">
+        <v>1708792797600</v>
+      </c>
+      <c r="S116">
+        <v>132464900</v>
+      </c>
+      <c r="T116">
+        <v>120068600</v>
+      </c>
+      <c r="U116">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V116">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W116">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X116">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y116">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z116">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA116">
+        <v>52355.5</v>
+      </c>
+      <c r="AB116">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC116">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,6 +10775,45 @@
       <c r="P117">
         <v>333040311100</v>
       </c>
+      <c r="Q117">
+        <v>2133758230200</v>
+      </c>
+      <c r="R117">
+        <v>1800717919100</v>
+      </c>
+      <c r="S117">
+        <v>136742900</v>
+      </c>
+      <c r="T117">
+        <v>126752900</v>
+      </c>
+      <c r="U117">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V117">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W117">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X117">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y117">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z117">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA117">
+        <v>52355.5</v>
+      </c>
+      <c r="AB117">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC117">
+        <v>11.6</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -6301,6 +10864,45 @@
       <c r="P118">
         <v>334625669400</v>
       </c>
+      <c r="Q118">
+        <v>2135550124500</v>
+      </c>
+      <c r="R118">
+        <v>1800924455100</v>
+      </c>
+      <c r="S118">
+        <v>136829000</v>
+      </c>
+      <c r="T118">
+        <v>126770500</v>
+      </c>
+      <c r="U118">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V118">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W118">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X118">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y118">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z118">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA118">
+        <v>52355.5</v>
+      </c>
+      <c r="AB118">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC118">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -6351,6 +10953,45 @@
       <c r="P119">
         <v>334624519400</v>
       </c>
+      <c r="Q119">
+        <v>2135550124500</v>
+      </c>
+      <c r="R119">
+        <v>1800925605100</v>
+      </c>
+      <c r="S119">
+        <v>136829000</v>
+      </c>
+      <c r="T119">
+        <v>126770600</v>
+      </c>
+      <c r="U119">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V119">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W119">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X119">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y119">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z119">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA119">
+        <v>52355.5</v>
+      </c>
+      <c r="AB119">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC119">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -6401,6 +11042,45 @@
       <c r="P120">
         <v>334544019400</v>
       </c>
+      <c r="Q120">
+        <v>2135550124500</v>
+      </c>
+      <c r="R120">
+        <v>1801006105100</v>
+      </c>
+      <c r="S120">
+        <v>136829000</v>
+      </c>
+      <c r="T120">
+        <v>126777600</v>
+      </c>
+      <c r="U120">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V120">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W120">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X120">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y120">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z120">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA120">
+        <v>52355.5</v>
+      </c>
+      <c r="AB120">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC120">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -6451,6 +11131,45 @@
       <c r="P121">
         <v>334544019400</v>
       </c>
+      <c r="Q121">
+        <v>2135550124500</v>
+      </c>
+      <c r="R121">
+        <v>1801006105100</v>
+      </c>
+      <c r="S121">
+        <v>136829000</v>
+      </c>
+      <c r="T121">
+        <v>126777600</v>
+      </c>
+      <c r="U121">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V121">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W121">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X121">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y121">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z121">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA121">
+        <v>52355.5</v>
+      </c>
+      <c r="AB121">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC121">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -6501,6 +11220,45 @@
       <c r="P122">
         <v>206870759000</v>
       </c>
+      <c r="Q122">
+        <v>2231872863300</v>
+      </c>
+      <c r="R122">
+        <v>2025002104300</v>
+      </c>
+      <c r="S122">
+        <v>144309600</v>
+      </c>
+      <c r="T122">
+        <v>138115900</v>
+      </c>
+      <c r="U122">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V122">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W122">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X122">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y122">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z122">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA122">
+        <v>52355.5</v>
+      </c>
+      <c r="AB122">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC122">
+        <v>76.5</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -6551,6 +11309,45 @@
       <c r="P123">
         <v>206864909000</v>
       </c>
+      <c r="Q123">
+        <v>2231872863300</v>
+      </c>
+      <c r="R123">
+        <v>2025007954300</v>
+      </c>
+      <c r="S123">
+        <v>144309600</v>
+      </c>
+      <c r="T123">
+        <v>138116400</v>
+      </c>
+      <c r="U123">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V123">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W123">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X123">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y123">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z123">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA123">
+        <v>52355.5</v>
+      </c>
+      <c r="AB123">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC123">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124">
@@ -6601,6 +11398,45 @@
       <c r="P124">
         <v>206864939000</v>
       </c>
+      <c r="Q124">
+        <v>2231876403300</v>
+      </c>
+      <c r="R124">
+        <v>2025011464300</v>
+      </c>
+      <c r="S124">
+        <v>144309900</v>
+      </c>
+      <c r="T124">
+        <v>138116700</v>
+      </c>
+      <c r="U124">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V124">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W124">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X124">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y124">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z124">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA124">
+        <v>52355.5</v>
+      </c>
+      <c r="AB124">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC124">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125">
@@ -6651,6 +11487,45 @@
       <c r="P125">
         <v>206838259000</v>
       </c>
+      <c r="Q125">
+        <v>2231876403300</v>
+      </c>
+      <c r="R125">
+        <v>2025038144300</v>
+      </c>
+      <c r="S125">
+        <v>144309900</v>
+      </c>
+      <c r="T125">
+        <v>138119000</v>
+      </c>
+      <c r="U125">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V125">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W125">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X125">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y125">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z125">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA125">
+        <v>52355.5</v>
+      </c>
+      <c r="AB125">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC125">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126">
@@ -6701,6 +11576,45 @@
       <c r="P126">
         <v>206863999000</v>
       </c>
+      <c r="Q126">
+        <v>2231902143300</v>
+      </c>
+      <c r="R126">
+        <v>2025038144300</v>
+      </c>
+      <c r="S126">
+        <v>144312100</v>
+      </c>
+      <c r="T126">
+        <v>138119000</v>
+      </c>
+      <c r="U126">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V126">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W126">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X126">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y126">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z126">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA126">
+        <v>52355.5</v>
+      </c>
+      <c r="AB126">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC126">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127">
@@ -6751,6 +11665,45 @@
       <c r="P127">
         <v>206868719000</v>
       </c>
+      <c r="Q127">
+        <v>2231906863300</v>
+      </c>
+      <c r="R127">
+        <v>2025038144300</v>
+      </c>
+      <c r="S127">
+        <v>144312500</v>
+      </c>
+      <c r="T127">
+        <v>138119000</v>
+      </c>
+      <c r="U127">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V127">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W127">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X127">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y127">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z127">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA127">
+        <v>52355.5</v>
+      </c>
+      <c r="AB127">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC127">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128">
@@ -6801,6 +11754,45 @@
       <c r="P128">
         <v>206776359000</v>
       </c>
+      <c r="Q128">
+        <v>2231915123300</v>
+      </c>
+      <c r="R128">
+        <v>2025138764300</v>
+      </c>
+      <c r="S128">
+        <v>144313200</v>
+      </c>
+      <c r="T128">
+        <v>138127600</v>
+      </c>
+      <c r="U128">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V128">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W128">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X128">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y128">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z128">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA128">
+        <v>52355.5</v>
+      </c>
+      <c r="AB128">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC128">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129">
@@ -6851,10 +11843,49 @@
       <c r="P129">
         <v>213744389000</v>
       </c>
+      <c r="Q129">
+        <v>2238931123300</v>
+      </c>
+      <c r="R129">
+        <v>2025186734300</v>
+      </c>
+      <c r="S129">
+        <v>144833200</v>
+      </c>
+      <c r="T129">
+        <v>138131700</v>
+      </c>
+      <c r="U129">
+        <v>17491649400.8</v>
+      </c>
+      <c r="V129">
+        <v>15821771361.7</v>
+      </c>
+      <c r="W129">
+        <v>38466331934.4</v>
+      </c>
+      <c r="X129">
+        <v>2545778.1</v>
+      </c>
+      <c r="Y129">
+        <v>1131509.4</v>
+      </c>
+      <c r="Z129">
+        <v>1079153.9</v>
+      </c>
+      <c r="AA129">
+        <v>52355.5</v>
+      </c>
+      <c r="AB129">
+        <v>1669878039.1</v>
+      </c>
+      <c r="AC129">
+        <v>4.2</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P129"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC129"/>
   </ignoredErrors>
 </worksheet>
 </file>